--- a/forms/app/padr.xlsx
+++ b/forms/app/padr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="470">
   <si>
     <t>type</t>
   </si>
@@ -788,6 +788,9 @@
   </si>
   <si>
     <t>selected(../../reaction/group_reaction/effects, 'no')</t>
+  </si>
+  <si>
+    <t>r_onset_date</t>
   </si>
   <si>
     <t>Date of Onset: ${onset}</t>
@@ -8745,10 +8748,10 @@
         <v>129</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="C124" s="24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D124" s="26"/>
       <c r="E124" s="26"/>
@@ -8758,7 +8761,7 @@
       <c r="I124" s="26"/>
       <c r="J124" s="26"/>
       <c r="K124" s="54" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L124" s="33" t="s">
         <v>184</v>
@@ -8849,7 +8852,7 @@
         <v>34</v>
       </c>
       <c r="B126" s="56" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C126" s="57" t="s">
         <v>36</v>
@@ -8905,7 +8908,7 @@
         <v>34</v>
       </c>
       <c r="B127" s="59" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C127" s="57" t="s">
         <v>36</v>
@@ -8957,7 +8960,7 @@
         <v>71</v>
       </c>
       <c r="B128" s="56" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C128" s="57" t="s">
         <v>36</v>
@@ -8980,7 +8983,7 @@
       <c r="S128" s="57"/>
       <c r="T128" s="57"/>
       <c r="U128" s="57" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="V128" s="57"/>
       <c r="W128" s="57"/>
@@ -8995,7 +8998,7 @@
       <c r="AF128" s="57"/>
       <c r="AG128" s="57"/>
       <c r="AH128" s="57" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AI128" s="57"/>
       <c r="AJ128" s="57"/>
@@ -9013,7 +9016,7 @@
         <v>71</v>
       </c>
       <c r="B129" s="56" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C129" s="57" t="s">
         <v>36</v>
@@ -9036,7 +9039,7 @@
       <c r="S129" s="57"/>
       <c r="T129" s="57"/>
       <c r="U129" s="57" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="V129" s="57"/>
       <c r="W129" s="57"/>
@@ -9069,7 +9072,7 @@
         <v>71</v>
       </c>
       <c r="B130" s="56" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C130" s="57" t="s">
         <v>36</v>
@@ -9092,7 +9095,7 @@
       <c r="S130" s="57"/>
       <c r="T130" s="57"/>
       <c r="U130" s="57" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="V130" s="57"/>
       <c r="W130" s="57"/>
@@ -9107,7 +9110,7 @@
       <c r="AF130" s="57"/>
       <c r="AG130" s="57"/>
       <c r="AH130" s="57" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AI130" s="57"/>
       <c r="AJ130" s="57"/>
@@ -9125,7 +9128,7 @@
         <v>71</v>
       </c>
       <c r="B131" s="56" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C131" s="57" t="s">
         <v>36</v>
@@ -9148,7 +9151,7 @@
       <c r="S131" s="57"/>
       <c r="T131" s="57"/>
       <c r="U131" s="57" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="V131" s="57"/>
       <c r="W131" s="57"/>
@@ -9181,7 +9184,7 @@
         <v>71</v>
       </c>
       <c r="B132" s="56" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C132" s="57" t="s">
         <v>36</v>
@@ -9204,7 +9207,7 @@
       <c r="S132" s="57"/>
       <c r="T132" s="57"/>
       <c r="U132" s="57" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="V132" s="57"/>
       <c r="W132" s="57"/>
@@ -9219,7 +9222,7 @@
       <c r="AF132" s="57"/>
       <c r="AG132" s="57"/>
       <c r="AH132" s="57" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AI132" s="57"/>
       <c r="AJ132" s="57"/>
@@ -9237,7 +9240,7 @@
         <v>53</v>
       </c>
       <c r="B133" s="59" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C133" s="57"/>
       <c r="D133" s="57"/>
@@ -9287,7 +9290,7 @@
         <v>53</v>
       </c>
       <c r="B134" s="59" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C134" s="57"/>
       <c r="D134" s="57"/>
@@ -40599,7 +40602,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="60" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B1" s="60" t="s">
         <v>1</v>
@@ -40631,13 +40634,13 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="62" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B2" s="62" t="s">
         <v>86</v>
       </c>
       <c r="C2" s="62" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D2" s="62"/>
       <c r="E2" s="62"/>
@@ -40661,13 +40664,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="62" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B3" s="62" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C3" s="62" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D3" s="62"/>
       <c r="E3" s="62"/>
@@ -40721,7 +40724,7 @@
         <v>109</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D5" s="62"/>
       <c r="E5" s="62"/>
@@ -40748,10 +40751,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D6" s="62"/>
       <c r="E6" s="62"/>
@@ -40802,10 +40805,10 @@
         <v>91</v>
       </c>
       <c r="B8" s="65" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C8" s="65" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
@@ -40834,7 +40837,7 @@
         <v>50</v>
       </c>
       <c r="C9" s="65" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
@@ -40860,10 +40863,10 @@
         <v>91</v>
       </c>
       <c r="B10" s="65" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
@@ -40889,10 +40892,10 @@
         <v>91</v>
       </c>
       <c r="B11" s="65" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D11" s="38"/>
       <c r="E11" s="38"/>
@@ -40941,10 +40944,10 @@
         <v>94</v>
       </c>
       <c r="B13" s="68" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C13" s="68" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D13" s="68"/>
       <c r="E13" s="69"/>
@@ -40975,10 +40978,10 @@
         <v>94</v>
       </c>
       <c r="B14" s="68" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D14" s="68"/>
       <c r="E14" s="69"/>
@@ -41009,10 +41012,10 @@
         <v>94</v>
       </c>
       <c r="B15" s="68" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C15" s="68" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D15" s="68"/>
       <c r="E15" s="69"/>
@@ -41043,10 +41046,10 @@
         <v>94</v>
       </c>
       <c r="B16" s="68" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C16" s="68" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D16" s="68"/>
       <c r="E16" s="69"/>
@@ -41077,10 +41080,10 @@
         <v>94</v>
       </c>
       <c r="B17" s="68" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C17" s="68" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D17" s="68"/>
       <c r="E17" s="69"/>
@@ -41111,10 +41114,10 @@
         <v>94</v>
       </c>
       <c r="B18" s="68" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C18" s="68" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D18" s="68"/>
       <c r="E18" s="69"/>
@@ -41145,10 +41148,10 @@
         <v>94</v>
       </c>
       <c r="B19" s="68" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C19" s="68" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D19" s="68"/>
       <c r="E19" s="69"/>
@@ -41179,10 +41182,10 @@
         <v>94</v>
       </c>
       <c r="B20" s="68" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C20" s="68" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D20" s="68"/>
       <c r="E20" s="69"/>
@@ -41213,10 +41216,10 @@
         <v>94</v>
       </c>
       <c r="B21" s="68" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C21" s="68" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D21" s="68"/>
       <c r="E21" s="69"/>
@@ -41247,10 +41250,10 @@
         <v>94</v>
       </c>
       <c r="B22" s="68" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C22" s="68" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D22" s="68"/>
       <c r="E22" s="69"/>
@@ -41281,10 +41284,10 @@
         <v>94</v>
       </c>
       <c r="B23" s="68" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C23" s="68" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D23" s="68"/>
       <c r="E23" s="69"/>
@@ -41315,10 +41318,10 @@
         <v>94</v>
       </c>
       <c r="B24" s="68" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C24" s="68" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D24" s="68"/>
       <c r="E24" s="69"/>
@@ -41349,10 +41352,10 @@
         <v>94</v>
       </c>
       <c r="B25" s="68" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C25" s="68" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D25" s="68"/>
       <c r="E25" s="69"/>
@@ -41383,10 +41386,10 @@
         <v>94</v>
       </c>
       <c r="B26" s="68" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C26" s="68" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D26" s="68"/>
       <c r="E26" s="69"/>
@@ -41417,10 +41420,10 @@
         <v>94</v>
       </c>
       <c r="B27" s="68" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C27" s="68" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D27" s="68"/>
       <c r="E27" s="69"/>
@@ -41451,10 +41454,10 @@
         <v>94</v>
       </c>
       <c r="B28" s="68" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C28" s="68" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D28" s="68"/>
       <c r="E28" s="69"/>
@@ -41485,10 +41488,10 @@
         <v>94</v>
       </c>
       <c r="B29" s="68" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C29" s="68" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D29" s="68"/>
       <c r="E29" s="69"/>
@@ -41519,10 +41522,10 @@
         <v>94</v>
       </c>
       <c r="B30" s="68" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C30" s="68" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D30" s="68"/>
       <c r="E30" s="69"/>
@@ -41553,10 +41556,10 @@
         <v>94</v>
       </c>
       <c r="B31" s="68" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C31" s="68" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D31" s="68"/>
       <c r="E31" s="69"/>
@@ -41587,10 +41590,10 @@
         <v>94</v>
       </c>
       <c r="B32" s="68" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C32" s="68" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D32" s="68"/>
       <c r="E32" s="69"/>
@@ -41621,10 +41624,10 @@
         <v>94</v>
       </c>
       <c r="B33" s="68" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C33" s="68" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D33" s="68"/>
       <c r="E33" s="69"/>
@@ -41655,10 +41658,10 @@
         <v>94</v>
       </c>
       <c r="B34" s="68" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C34" s="68" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D34" s="68"/>
       <c r="E34" s="69"/>
@@ -41689,10 +41692,10 @@
         <v>94</v>
       </c>
       <c r="B35" s="68" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C35" s="68" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D35" s="68"/>
       <c r="E35" s="69"/>
@@ -41723,10 +41726,10 @@
         <v>94</v>
       </c>
       <c r="B36" s="68" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C36" s="68" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D36" s="68"/>
       <c r="E36" s="69"/>
@@ -41757,10 +41760,10 @@
         <v>94</v>
       </c>
       <c r="B37" s="68" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C37" s="68" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D37" s="68"/>
       <c r="E37" s="69"/>
@@ -41791,10 +41794,10 @@
         <v>94</v>
       </c>
       <c r="B38" s="68" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C38" s="68" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D38" s="68"/>
       <c r="E38" s="69"/>
@@ -41825,10 +41828,10 @@
         <v>94</v>
       </c>
       <c r="B39" s="68" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C39" s="68" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D39" s="68"/>
       <c r="E39" s="69"/>
@@ -41859,10 +41862,10 @@
         <v>94</v>
       </c>
       <c r="B40" s="68" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C40" s="68" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D40" s="68"/>
       <c r="E40" s="69"/>
@@ -41893,10 +41896,10 @@
         <v>94</v>
       </c>
       <c r="B41" s="68" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C41" s="68" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D41" s="68"/>
       <c r="E41" s="69"/>
@@ -41927,10 +41930,10 @@
         <v>94</v>
       </c>
       <c r="B42" s="68" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C42" s="68" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D42" s="68"/>
       <c r="E42" s="69"/>
@@ -41961,10 +41964,10 @@
         <v>94</v>
       </c>
       <c r="B43" s="68" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C43" s="68" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D43" s="68"/>
       <c r="E43" s="69"/>
@@ -41995,10 +41998,10 @@
         <v>94</v>
       </c>
       <c r="B44" s="68" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C44" s="68" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D44" s="68"/>
       <c r="E44" s="69"/>
@@ -42029,10 +42032,10 @@
         <v>94</v>
       </c>
       <c r="B45" s="68" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C45" s="68" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D45" s="68"/>
       <c r="E45" s="69"/>
@@ -42063,10 +42066,10 @@
         <v>94</v>
       </c>
       <c r="B46" s="68" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C46" s="68" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D46" s="68"/>
       <c r="E46" s="69"/>
@@ -42097,10 +42100,10 @@
         <v>94</v>
       </c>
       <c r="B47" s="68" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C47" s="68" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D47" s="68"/>
       <c r="E47" s="69"/>
@@ -42131,10 +42134,10 @@
         <v>94</v>
       </c>
       <c r="B48" s="68" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C48" s="68" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D48" s="68"/>
       <c r="E48" s="69"/>
@@ -42165,10 +42168,10 @@
         <v>94</v>
       </c>
       <c r="B49" s="68" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C49" s="68" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D49" s="68"/>
       <c r="E49" s="69"/>
@@ -42199,10 +42202,10 @@
         <v>94</v>
       </c>
       <c r="B50" s="68" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C50" s="68" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D50" s="68"/>
       <c r="E50" s="69"/>
@@ -42233,10 +42236,10 @@
         <v>94</v>
       </c>
       <c r="B51" s="68" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C51" s="68" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D51" s="68"/>
       <c r="E51" s="69"/>
@@ -42267,10 +42270,10 @@
         <v>94</v>
       </c>
       <c r="B52" s="68" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C52" s="68" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D52" s="68"/>
       <c r="E52" s="69"/>
@@ -42301,10 +42304,10 @@
         <v>94</v>
       </c>
       <c r="B53" s="68" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C53" s="68" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D53" s="68"/>
       <c r="E53" s="69"/>
@@ -42335,10 +42338,10 @@
         <v>94</v>
       </c>
       <c r="B54" s="68" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C54" s="68" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D54" s="68"/>
       <c r="E54" s="69"/>
@@ -42369,10 +42372,10 @@
         <v>94</v>
       </c>
       <c r="B55" s="68" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C55" s="68" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D55" s="68"/>
       <c r="E55" s="69"/>
@@ -42403,10 +42406,10 @@
         <v>94</v>
       </c>
       <c r="B56" s="68" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C56" s="68" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D56" s="68"/>
       <c r="E56" s="69"/>
@@ -42437,10 +42440,10 @@
         <v>94</v>
       </c>
       <c r="B57" s="68" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C57" s="68" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D57" s="68"/>
       <c r="E57" s="69"/>
@@ -42471,10 +42474,10 @@
         <v>94</v>
       </c>
       <c r="B58" s="68" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C58" s="68" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D58" s="68"/>
       <c r="E58" s="69"/>
@@ -42505,10 +42508,10 @@
         <v>94</v>
       </c>
       <c r="B59" s="68" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C59" s="68" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D59" s="68"/>
       <c r="E59" s="69"/>
@@ -42561,7 +42564,7 @@
         <v>114</v>
       </c>
       <c r="B61" s="55" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C61" s="55" t="s">
         <v>221</v>
@@ -42590,7 +42593,7 @@
         <v>114</v>
       </c>
       <c r="B62" s="55" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C62" s="55" t="s">
         <v>224</v>
@@ -42648,7 +42651,7 @@
         <v>114</v>
       </c>
       <c r="B64" s="55" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C64" s="55" t="s">
         <v>230</v>
@@ -42677,7 +42680,7 @@
         <v>114</v>
       </c>
       <c r="B65" s="55" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C65" s="55" t="s">
         <v>233</v>
@@ -42706,7 +42709,7 @@
         <v>114</v>
       </c>
       <c r="B66" s="55" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C66" s="55" t="s">
         <v>236</v>
@@ -42735,7 +42738,7 @@
         <v>114</v>
       </c>
       <c r="B67" s="55" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C67" s="55" t="s">
         <v>239</v>
@@ -42764,7 +42767,7 @@
         <v>114</v>
       </c>
       <c r="B68" s="55" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C68" s="55" t="s">
         <v>242</v>
@@ -42793,7 +42796,7 @@
         <v>114</v>
       </c>
       <c r="B69" s="55" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C69" s="55" t="s">
         <v>245</v>
@@ -42822,7 +42825,7 @@
         <v>114</v>
       </c>
       <c r="B70" s="55" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C70" s="55" t="s">
         <v>248</v>
@@ -42874,7 +42877,7 @@
         <v>104</v>
       </c>
       <c r="B72" s="51" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C72" s="51" t="s">
         <v>197</v>
@@ -42903,7 +42906,7 @@
         <v>104</v>
       </c>
       <c r="B73" s="51" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C73" s="51" t="s">
         <v>200</v>
@@ -42932,7 +42935,7 @@
         <v>104</v>
       </c>
       <c r="B74" s="51" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C74" s="51" t="s">
         <v>203</v>
@@ -42961,7 +42964,7 @@
         <v>104</v>
       </c>
       <c r="B75" s="51" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C75" s="51" t="s">
         <v>206</v>
@@ -42990,7 +42993,7 @@
         <v>104</v>
       </c>
       <c r="B76" s="51" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C76" s="51" t="s">
         <v>209</v>
@@ -43019,7 +43022,7 @@
         <v>104</v>
       </c>
       <c r="B77" s="51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C77" s="51" t="s">
         <v>212</v>
@@ -43071,10 +43074,10 @@
         <v>168</v>
       </c>
       <c r="B79" s="73" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C79" s="73" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D79" s="38"/>
       <c r="E79" s="38"/>
@@ -43100,10 +43103,10 @@
         <v>168</v>
       </c>
       <c r="B80" s="73" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C80" s="73" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D80" s="38"/>
       <c r="E80" s="38"/>
@@ -43129,10 +43132,10 @@
         <v>168</v>
       </c>
       <c r="B81" s="73" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C81" s="73" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D81" s="38"/>
       <c r="E81" s="38"/>
@@ -43158,10 +43161,10 @@
         <v>168</v>
       </c>
       <c r="B82" s="73" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C82" s="73" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D82" s="38"/>
       <c r="E82" s="38"/>
@@ -43187,10 +43190,10 @@
         <v>168</v>
       </c>
       <c r="B83" s="73" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C83" s="73" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D83" s="38"/>
       <c r="E83" s="38"/>
@@ -43216,10 +43219,10 @@
         <v>168</v>
       </c>
       <c r="B84" s="73" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C84" s="73" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D84" s="38"/>
       <c r="E84" s="38"/>
@@ -50560,25 +50563,25 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="74" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B1" s="74" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C1" s="74" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D1" s="74" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E1" s="74" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F1" s="74" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G1" s="75" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1" s="74"/>
       <c r="I1" s="74"/>
@@ -50602,24 +50605,24 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="76" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B2" s="76" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C2" s="77">
         <f>NOW()</f>
-        <v>45063.56517</v>
+        <v>45063.91143</v>
       </c>
       <c r="D2" s="78" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E2" s="78" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F2" s="63"/>
       <c r="G2" s="79" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H2" s="63"/>
       <c r="I2" s="63"/>
@@ -51667,7 +51670,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="74" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B1" s="74" t="s">
         <v>1</v>
@@ -51710,13 +51713,13 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="64" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B2" s="64" t="s">
         <v>86</v>
       </c>
       <c r="C2" s="64" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D2" s="64"/>
       <c r="E2" s="64"/>
@@ -51741,13 +51744,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="64" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B3" s="64" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C3" s="64" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D3" s="64"/>
       <c r="E3" s="64"/>
@@ -51797,13 +51800,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="64" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C5" s="64" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D5" s="64"/>
       <c r="E5" s="64"/>
@@ -51828,13 +51831,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="64" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B6" s="64" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C6" s="64" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D6" s="64"/>
       <c r="E6" s="64"/>
@@ -51859,13 +51862,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="64" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B7" s="64" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C7" s="64" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D7" s="64"/>
       <c r="E7" s="64"/>
@@ -51890,13 +51893,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="64" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C8" s="64" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D8" s="64"/>
       <c r="E8" s="64"/>
@@ -51921,13 +51924,13 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="64" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C9" s="64" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D9" s="64"/>
       <c r="E9" s="64"/>
@@ -51977,13 +51980,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="64" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B11" s="64" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C11" s="64" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D11" s="64"/>
       <c r="E11" s="64"/>
@@ -52008,13 +52011,13 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="64" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B12" s="64" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C12" s="64" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D12" s="64"/>
       <c r="E12" s="64"/>
@@ -52039,13 +52042,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="64" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B13" s="64" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C13" s="64" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D13" s="64"/>
       <c r="E13" s="64"/>
@@ -52070,13 +52073,13 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="64" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D14" s="64"/>
       <c r="E14" s="64"/>
@@ -52101,13 +52104,13 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="64" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B15" s="64" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C15" s="64" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D15" s="64"/>
       <c r="E15" s="64"/>
@@ -52132,13 +52135,13 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="64" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B16" s="64" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C16" s="64" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D16" s="64"/>
       <c r="E16" s="64"/>
@@ -52188,13 +52191,13 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="64" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B18" s="64" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C18" s="64" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D18" s="64"/>
       <c r="E18" s="64"/>
@@ -52219,13 +52222,13 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="64" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B19" s="64" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C19" s="64" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D19" s="64"/>
       <c r="E19" s="64"/>
@@ -52250,13 +52253,13 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="64" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B20" s="64" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C20" s="64" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D20" s="64"/>
       <c r="E20" s="64"/>
@@ -52281,13 +52284,13 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="64" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B21" s="64" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C21" s="64" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D21" s="64"/>
       <c r="E21" s="64"/>
@@ -52312,13 +52315,13 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="64" t="s">
+        <v>400</v>
+      </c>
+      <c r="B22" s="64" t="s">
+        <v>398</v>
+      </c>
+      <c r="C22" s="64" t="s">
         <v>399</v>
-      </c>
-      <c r="B22" s="64" t="s">
-        <v>397</v>
-      </c>
-      <c r="C22" s="64" t="s">
-        <v>398</v>
       </c>
       <c r="D22" s="64"/>
       <c r="E22" s="64"/>
@@ -52343,13 +52346,13 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="64" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B23" s="64" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C23" s="64" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D23" s="64"/>
       <c r="E23" s="64"/>
@@ -52399,13 +52402,13 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="64" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B25" s="64" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C25" s="64" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D25" s="64"/>
       <c r="E25" s="64"/>
@@ -52430,13 +52433,13 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="64" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B26" s="64" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C26" s="64" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D26" s="64"/>
       <c r="E26" s="64"/>
@@ -52461,13 +52464,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="64" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B27" s="64" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C27" s="64" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D27" s="64"/>
       <c r="E27" s="64"/>
@@ -52492,13 +52495,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="64" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B28" s="64" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C28" s="64" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D28" s="64"/>
       <c r="E28" s="64"/>
@@ -52523,13 +52526,13 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="64" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B29" s="64" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C29" s="64" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D29" s="64"/>
       <c r="E29" s="64"/>
@@ -52579,13 +52582,13 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="64" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B31" s="64" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C31" s="64" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D31" s="64"/>
       <c r="E31" s="64"/>
@@ -52610,13 +52613,13 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="64" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B32" s="64" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C32" s="64" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D32" s="64"/>
       <c r="E32" s="64"/>
@@ -52666,121 +52669,121 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="87" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B34" s="87" t="str">
         <f t="shared" ref="B34:B42" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" s="87" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="87" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B35" s="87" t="str">
         <f t="shared" si="1"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" s="87" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="87" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B36" s="87" t="str">
         <f t="shared" si="1"/>
         <v>injectibles</v>
       </c>
       <c r="C36" s="87" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="87" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B37" s="87" t="str">
         <f t="shared" si="1"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" s="87" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="87" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B38" s="87" t="str">
         <f t="shared" si="1"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" s="87" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="87" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B39" s="87" t="str">
         <f t="shared" si="1"/>
         <v>iud</v>
       </c>
       <c r="C39" s="87" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="87" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B40" s="87" t="str">
         <f t="shared" si="1"/>
         <v>condoms</v>
       </c>
       <c r="C40" s="87" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="87" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B41" s="87" t="str">
         <f t="shared" si="1"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" s="87" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="87" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B42" s="87" t="str">
         <f t="shared" si="1"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" s="87" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="87" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B43" s="87" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C43" s="87" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -52791,26 +52794,26 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="87" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B45" s="87" t="str">
         <f t="shared" si="2"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" s="87" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="87" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B46" s="87" t="str">
         <f t="shared" si="2"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" s="87" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -52821,13 +52824,13 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="78" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B48" s="78" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C48" s="78" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D48" s="78"/>
       <c r="E48" s="78"/>
@@ -52852,13 +52855,13 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="78" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B49" s="78" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C49" s="78" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D49" s="78"/>
       <c r="E49" s="78"/>
@@ -52884,226 +52887,226 @@
     <row r="50" ht="12.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="87" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B51" s="87" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C51" s="87" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="87" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B52" s="87" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C52" s="87" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="87" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B53" s="87" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C53" s="87" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="87" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B54" s="87" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C54" s="87" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="87" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B55" s="87" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C55" s="87" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="87" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B56" s="87" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C56" s="87" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="57" ht="12.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="78" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B58" s="78" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C58" s="78" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="78" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B59" s="78" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C59" s="78" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="78" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B60" s="78" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C60" s="78" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="78" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B61" s="78" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C61" s="78" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="62" ht="12.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="63" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B63" s="63" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C63" s="78" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="63" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B64" s="63" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C64" s="78" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="63" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B65" s="63" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C65" s="78" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="63" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B66" s="63" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C66" s="78" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="63" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B67" s="63" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C67" s="78" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="68" ht="12.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="87" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B69" s="87" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C69" s="87" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="87" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B70" s="87" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C70" s="87" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="71" ht="12.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="87" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B72" s="87" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C72" s="88" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="87" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B73" s="87" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C73" s="87" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="87" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B74" s="87" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C74" s="87" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1"/>

--- a/forms/app/padr.xlsx
+++ b/forms/app/padr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="471">
   <si>
     <t>type</t>
   </si>
@@ -277,7 +277,7 @@
     <t>yes</t>
   </si>
   <si>
-    <t>integer</t>
+    <t>tel</t>
   </si>
   <si>
     <t>person_phone</t>
@@ -410,6 +410,9 @@
   </si>
   <si>
     <t>(Include all medications)</t>
+  </si>
+  <si>
+    <t>integer</t>
   </si>
   <si>
     <t>medicine_count</t>
@@ -5537,13 +5540,13 @@
     </row>
     <row r="65" ht="12.75" customHeight="1">
       <c r="A65" s="39" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="B65" s="39" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D65" s="26"/>
       <c r="E65" s="26"/>
@@ -5557,10 +5560,10 @@
       <c r="K65" s="26"/>
       <c r="L65" s="22"/>
       <c r="M65" s="28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N65" s="42" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O65" s="26"/>
       <c r="P65" s="26"/>
@@ -5571,7 +5574,7 @@
       <c r="U65" s="22"/>
       <c r="V65" s="22"/>
       <c r="W65" s="43" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="X65" s="26"/>
       <c r="Y65" s="26"/>
@@ -5603,7 +5606,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D66" s="26"/>
       <c r="E66" s="26"/>
@@ -5613,7 +5616,7 @@
       <c r="I66" s="26"/>
       <c r="J66" s="26"/>
       <c r="K66" s="26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L66" s="22"/>
       <c r="M66" s="26"/>
@@ -5654,10 +5657,10 @@
         <v>83</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D67" s="26"/>
       <c r="E67" s="26"/>
@@ -5667,7 +5670,7 @@
       <c r="I67" s="26"/>
       <c r="J67" s="26"/>
       <c r="K67" s="26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L67" s="22"/>
       <c r="M67" s="26"/>
@@ -5708,10 +5711,10 @@
         <v>83</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D68" s="26"/>
       <c r="E68" s="26"/>
@@ -5721,7 +5724,7 @@
       <c r="I68" s="26"/>
       <c r="J68" s="26"/>
       <c r="K68" s="26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L68" s="22"/>
       <c r="M68" s="26"/>
@@ -5762,10 +5765,10 @@
         <v>118</v>
       </c>
       <c r="B69" s="39" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D69" s="26"/>
       <c r="E69" s="26"/>
@@ -5775,7 +5778,7 @@
       <c r="I69" s="26"/>
       <c r="J69" s="26"/>
       <c r="K69" s="26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L69" s="22"/>
       <c r="M69" s="34" t="s">
@@ -5820,10 +5823,10 @@
         <v>118</v>
       </c>
       <c r="B70" s="39" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D70" s="26"/>
       <c r="E70" s="26"/>
@@ -5833,7 +5836,7 @@
       <c r="I70" s="26"/>
       <c r="J70" s="26"/>
       <c r="K70" s="26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L70" s="22"/>
       <c r="M70" s="34" t="s">
@@ -5878,10 +5881,10 @@
         <v>118</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D71" s="26"/>
       <c r="E71" s="26"/>
@@ -5891,7 +5894,7 @@
       <c r="I71" s="26"/>
       <c r="J71" s="26"/>
       <c r="K71" s="26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L71" s="22"/>
       <c r="M71" s="34"/>
@@ -5980,10 +5983,10 @@
         <v>129</v>
       </c>
       <c r="B73" s="39" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D73" s="26"/>
       <c r="E73" s="26"/>
@@ -5993,7 +5996,7 @@
       <c r="I73" s="26"/>
       <c r="J73" s="26"/>
       <c r="K73" s="26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L73" s="22"/>
       <c r="M73" s="26"/>
@@ -6034,10 +6037,10 @@
         <v>129</v>
       </c>
       <c r="B74" s="39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C74" s="34" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D74" s="26"/>
       <c r="E74" s="26"/>
@@ -6047,7 +6050,7 @@
       <c r="I74" s="26"/>
       <c r="J74" s="26"/>
       <c r="K74" s="26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L74" s="22"/>
       <c r="M74" s="26"/>
@@ -6087,10 +6090,10 @@
     </row>
     <row r="75" ht="12.75" customHeight="1">
       <c r="A75" s="39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B75" s="39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C75" s="22" t="s">
         <v>36</v>
@@ -6103,7 +6106,7 @@
       <c r="I75" s="26"/>
       <c r="J75" s="26"/>
       <c r="K75" s="26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L75" s="22"/>
       <c r="M75" s="26"/>
@@ -6127,7 +6130,7 @@
       <c r="AE75" s="26"/>
       <c r="AF75" s="22"/>
       <c r="AG75" s="22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AH75" s="22"/>
       <c r="AI75" s="22"/>
@@ -6146,10 +6149,10 @@
         <v>83</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D76" s="26"/>
       <c r="E76" s="26"/>
@@ -6159,7 +6162,7 @@
       <c r="I76" s="26"/>
       <c r="J76" s="26"/>
       <c r="K76" s="26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L76" s="22"/>
       <c r="M76" s="26"/>
@@ -6200,10 +6203,10 @@
         <v>83</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D77" s="26"/>
       <c r="E77" s="26"/>
@@ -6213,7 +6216,7 @@
       <c r="I77" s="26"/>
       <c r="J77" s="26"/>
       <c r="K77" s="26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L77" s="22"/>
       <c r="M77" s="26"/>
@@ -6254,10 +6257,10 @@
         <v>83</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D78" s="26"/>
       <c r="E78" s="26"/>
@@ -6267,7 +6270,7 @@
       <c r="I78" s="26"/>
       <c r="J78" s="26"/>
       <c r="K78" s="28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L78" s="22"/>
       <c r="M78" s="26"/>
@@ -6308,10 +6311,10 @@
         <v>118</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D79" s="26"/>
       <c r="E79" s="26"/>
@@ -6321,7 +6324,7 @@
       <c r="I79" s="26"/>
       <c r="J79" s="26"/>
       <c r="K79" s="28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L79" s="22"/>
       <c r="M79" s="34" t="s">
@@ -6366,10 +6369,10 @@
         <v>118</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D80" s="26"/>
       <c r="E80" s="26"/>
@@ -6379,7 +6382,7 @@
       <c r="I80" s="26"/>
       <c r="J80" s="26"/>
       <c r="K80" s="28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L80" s="22"/>
       <c r="M80" s="34" t="s">
@@ -6424,10 +6427,10 @@
         <v>118</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D81" s="26"/>
       <c r="E81" s="26"/>
@@ -6437,7 +6440,7 @@
       <c r="I81" s="26"/>
       <c r="J81" s="26"/>
       <c r="K81" s="28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L81" s="22"/>
       <c r="M81" s="34"/>
@@ -6477,10 +6480,10 @@
     </row>
     <row r="82" ht="12.75" customHeight="1">
       <c r="A82" s="39" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B82" s="39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C82" s="22" t="s">
         <v>36</v>
@@ -6676,10 +6679,10 @@
         <v>34</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C86" s="24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D86" s="26"/>
       <c r="E86" s="26"/>
@@ -6728,7 +6731,7 @@
         <v>34</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C87" s="21" t="s">
         <v>36</v>
@@ -6779,13 +6782,13 @@
     </row>
     <row r="88" ht="18.75" customHeight="1">
       <c r="A88" s="20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C88" s="24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D88" s="26"/>
       <c r="E88" s="26"/>
@@ -6882,7 +6885,7 @@
         <v>53</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C90" s="21"/>
       <c r="D90" s="26"/>
@@ -6978,7 +6981,7 @@
         <v>34</v>
       </c>
       <c r="B92" s="44" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C92" s="45" t="s">
         <v>36</v>
@@ -6992,7 +6995,7 @@
       <c r="J92" s="46"/>
       <c r="K92" s="46"/>
       <c r="L92" s="45" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M92" s="46"/>
       <c r="N92" s="45"/>
@@ -7034,10 +7037,10 @@
         <v>129</v>
       </c>
       <c r="B93" s="44" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C93" s="45" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D93" s="46"/>
       <c r="E93" s="46"/>
@@ -7086,10 +7089,10 @@
         <v>129</v>
       </c>
       <c r="B94" s="44" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C94" s="45" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D94" s="46"/>
       <c r="E94" s="46"/>
@@ -7100,7 +7103,7 @@
       <c r="J94" s="46"/>
       <c r="K94" s="46"/>
       <c r="L94" s="45" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M94" s="46"/>
       <c r="N94" s="46"/>
@@ -7140,10 +7143,10 @@
         <v>129</v>
       </c>
       <c r="B95" s="44" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C95" s="49" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D95" s="46"/>
       <c r="E95" s="46"/>
@@ -7192,10 +7195,10 @@
         <v>129</v>
       </c>
       <c r="B96" s="44" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C96" s="33" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D96" s="46"/>
       <c r="E96" s="46"/>
@@ -7206,7 +7209,7 @@
       <c r="J96" s="46"/>
       <c r="K96" s="46"/>
       <c r="L96" s="45" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M96" s="46"/>
       <c r="N96" s="46"/>
@@ -7246,10 +7249,10 @@
         <v>129</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C97" s="24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D97" s="26"/>
       <c r="E97" s="26"/>
@@ -7260,7 +7263,7 @@
       <c r="J97" s="22"/>
       <c r="K97" s="22"/>
       <c r="L97" s="28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M97" s="22"/>
       <c r="N97" s="26"/>
@@ -7300,10 +7303,10 @@
         <v>129</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C98" s="24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D98" s="26"/>
       <c r="E98" s="26"/>
@@ -7314,7 +7317,7 @@
       <c r="J98" s="22"/>
       <c r="K98" s="22"/>
       <c r="L98" s="28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M98" s="22"/>
       <c r="N98" s="26"/>
@@ -7354,10 +7357,10 @@
         <v>129</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C99" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D99" s="26"/>
       <c r="E99" s="26"/>
@@ -7368,7 +7371,7 @@
       <c r="J99" s="22"/>
       <c r="K99" s="22"/>
       <c r="L99" s="28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M99" s="22"/>
       <c r="N99" s="26"/>
@@ -7408,10 +7411,10 @@
         <v>129</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C100" s="24" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D100" s="26"/>
       <c r="E100" s="26"/>
@@ -7422,7 +7425,7 @@
       <c r="J100" s="22"/>
       <c r="K100" s="22"/>
       <c r="L100" s="28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M100" s="22"/>
       <c r="N100" s="26"/>
@@ -7462,10 +7465,10 @@
         <v>129</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C101" s="24" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D101" s="26"/>
       <c r="E101" s="26"/>
@@ -7476,7 +7479,7 @@
       <c r="J101" s="22"/>
       <c r="K101" s="22"/>
       <c r="L101" s="28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M101" s="22"/>
       <c r="N101" s="26"/>
@@ -7516,10 +7519,10 @@
         <v>129</v>
       </c>
       <c r="B102" s="50" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C102" s="33" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D102" s="46"/>
       <c r="E102" s="46"/>
@@ -7529,10 +7532,10 @@
       <c r="I102" s="46"/>
       <c r="J102" s="46"/>
       <c r="K102" s="33" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L102" s="45" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M102" s="46"/>
       <c r="N102" s="46"/>
@@ -7572,10 +7575,10 @@
         <v>129</v>
       </c>
       <c r="B103" s="50" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C103" s="51" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D103" s="52"/>
       <c r="E103" s="52"/>
@@ -7585,10 +7588,10 @@
       <c r="I103" s="52"/>
       <c r="J103" s="48"/>
       <c r="K103" s="33" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L103" s="33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M103" s="48"/>
       <c r="N103" s="48"/>
@@ -7628,10 +7631,10 @@
         <v>129</v>
       </c>
       <c r="B104" s="50" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C104" s="51" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D104" s="26"/>
       <c r="E104" s="26"/>
@@ -7641,10 +7644,10 @@
       <c r="I104" s="26"/>
       <c r="J104" s="22"/>
       <c r="K104" s="33" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L104" s="33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M104" s="22"/>
       <c r="N104" s="26"/>
@@ -7684,10 +7687,10 @@
         <v>129</v>
       </c>
       <c r="B105" s="50" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C105" s="51" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D105" s="26"/>
       <c r="E105" s="26"/>
@@ -7697,10 +7700,10 @@
       <c r="I105" s="26"/>
       <c r="J105" s="22"/>
       <c r="K105" s="33" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L105" s="33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M105" s="22"/>
       <c r="N105" s="26"/>
@@ -7740,10 +7743,10 @@
         <v>129</v>
       </c>
       <c r="B106" s="50" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C106" s="51" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D106" s="26"/>
       <c r="E106" s="26"/>
@@ -7753,10 +7756,10 @@
       <c r="I106" s="26"/>
       <c r="J106" s="22"/>
       <c r="K106" s="33" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L106" s="33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M106" s="22"/>
       <c r="N106" s="26"/>
@@ -7796,10 +7799,10 @@
         <v>129</v>
       </c>
       <c r="B107" s="50" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C107" s="51" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D107" s="26"/>
       <c r="E107" s="26"/>
@@ -7809,10 +7812,10 @@
       <c r="I107" s="26"/>
       <c r="J107" s="22"/>
       <c r="K107" s="33" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L107" s="33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M107" s="22"/>
       <c r="N107" s="26"/>
@@ -7852,10 +7855,10 @@
         <v>129</v>
       </c>
       <c r="B108" s="50" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C108" s="51" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D108" s="26"/>
       <c r="E108" s="26"/>
@@ -7865,10 +7868,10 @@
       <c r="I108" s="26"/>
       <c r="J108" s="22"/>
       <c r="K108" s="33" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L108" s="33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M108" s="22"/>
       <c r="N108" s="26"/>
@@ -7908,10 +7911,10 @@
         <v>129</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C109" s="24" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D109" s="26"/>
       <c r="E109" s="26"/>
@@ -7921,10 +7924,10 @@
       <c r="I109" s="26"/>
       <c r="J109" s="26"/>
       <c r="K109" s="54" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L109" s="33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M109" s="26"/>
       <c r="N109" s="27"/>
@@ -7964,10 +7967,10 @@
         <v>129</v>
       </c>
       <c r="B110" s="50" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C110" s="33" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D110" s="46"/>
       <c r="E110" s="46"/>
@@ -7977,10 +7980,10 @@
       <c r="I110" s="46"/>
       <c r="J110" s="46"/>
       <c r="K110" s="33" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L110" s="45" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M110" s="46"/>
       <c r="N110" s="46"/>
@@ -8020,10 +8023,10 @@
         <v>129</v>
       </c>
       <c r="B111" s="50" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C111" s="55" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D111" s="52"/>
       <c r="E111" s="52"/>
@@ -8033,10 +8036,10 @@
       <c r="I111" s="52"/>
       <c r="J111" s="48"/>
       <c r="K111" s="33" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L111" s="33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M111" s="48"/>
       <c r="N111" s="48"/>
@@ -8076,10 +8079,10 @@
         <v>129</v>
       </c>
       <c r="B112" s="50" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C112" s="55" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D112" s="52"/>
       <c r="E112" s="52"/>
@@ -8089,10 +8092,10 @@
       <c r="I112" s="52"/>
       <c r="J112" s="48"/>
       <c r="K112" s="33" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L112" s="33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M112" s="48"/>
       <c r="N112" s="48"/>
@@ -8132,10 +8135,10 @@
         <v>129</v>
       </c>
       <c r="B113" s="50" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C113" s="55" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D113" s="52"/>
       <c r="E113" s="52"/>
@@ -8145,10 +8148,10 @@
       <c r="I113" s="52"/>
       <c r="J113" s="48"/>
       <c r="K113" s="33" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L113" s="33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M113" s="48"/>
       <c r="N113" s="48"/>
@@ -8188,10 +8191,10 @@
         <v>129</v>
       </c>
       <c r="B114" s="50" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C114" s="55" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D114" s="52"/>
       <c r="E114" s="52"/>
@@ -8201,10 +8204,10 @@
       <c r="I114" s="52"/>
       <c r="J114" s="48"/>
       <c r="K114" s="33" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L114" s="33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M114" s="48"/>
       <c r="N114" s="48"/>
@@ -8244,10 +8247,10 @@
         <v>129</v>
       </c>
       <c r="B115" s="50" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C115" s="55" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D115" s="52"/>
       <c r="E115" s="52"/>
@@ -8257,10 +8260,10 @@
       <c r="I115" s="52"/>
       <c r="J115" s="48"/>
       <c r="K115" s="33" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L115" s="33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M115" s="48"/>
       <c r="N115" s="48"/>
@@ -8300,10 +8303,10 @@
         <v>129</v>
       </c>
       <c r="B116" s="50" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C116" s="55" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D116" s="52"/>
       <c r="E116" s="52"/>
@@ -8313,10 +8316,10 @@
       <c r="I116" s="52"/>
       <c r="J116" s="48"/>
       <c r="K116" s="33" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L116" s="33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M116" s="48"/>
       <c r="N116" s="48"/>
@@ -8356,10 +8359,10 @@
         <v>129</v>
       </c>
       <c r="B117" s="50" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C117" s="55" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D117" s="52"/>
       <c r="E117" s="52"/>
@@ -8369,10 +8372,10 @@
       <c r="I117" s="52"/>
       <c r="J117" s="48"/>
       <c r="K117" s="33" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L117" s="33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M117" s="48"/>
       <c r="N117" s="48"/>
@@ -8412,10 +8415,10 @@
         <v>129</v>
       </c>
       <c r="B118" s="50" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C118" s="55" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D118" s="52"/>
       <c r="E118" s="52"/>
@@ -8425,10 +8428,10 @@
       <c r="I118" s="52"/>
       <c r="J118" s="48"/>
       <c r="K118" s="33" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L118" s="33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M118" s="48"/>
       <c r="N118" s="48"/>
@@ -8468,10 +8471,10 @@
         <v>129</v>
       </c>
       <c r="B119" s="50" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C119" s="55" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D119" s="52"/>
       <c r="E119" s="52"/>
@@ -8481,10 +8484,10 @@
       <c r="I119" s="52"/>
       <c r="J119" s="48"/>
       <c r="K119" s="33" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L119" s="33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M119" s="48"/>
       <c r="N119" s="48"/>
@@ -8524,10 +8527,10 @@
         <v>129</v>
       </c>
       <c r="B120" s="50" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C120" s="55" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D120" s="52"/>
       <c r="E120" s="52"/>
@@ -8537,10 +8540,10 @@
       <c r="I120" s="52"/>
       <c r="J120" s="48"/>
       <c r="K120" s="33" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L120" s="33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M120" s="48"/>
       <c r="N120" s="48"/>
@@ -8580,10 +8583,10 @@
         <v>129</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C121" s="24" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D121" s="26"/>
       <c r="E121" s="26"/>
@@ -8593,10 +8596,10 @@
       <c r="I121" s="26"/>
       <c r="J121" s="26"/>
       <c r="K121" s="54" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L121" s="33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M121" s="26"/>
       <c r="N121" s="27"/>
@@ -8636,10 +8639,10 @@
         <v>129</v>
       </c>
       <c r="B122" s="50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C122" s="55" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D122" s="52"/>
       <c r="E122" s="52"/>
@@ -8649,10 +8652,10 @@
       <c r="I122" s="52"/>
       <c r="J122" s="48"/>
       <c r="K122" s="33" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L122" s="33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M122" s="48"/>
       <c r="N122" s="48"/>
@@ -8692,10 +8695,10 @@
         <v>129</v>
       </c>
       <c r="B123" s="50" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C123" s="55" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D123" s="52"/>
       <c r="E123" s="52"/>
@@ -8705,10 +8708,10 @@
       <c r="I123" s="52"/>
       <c r="J123" s="48"/>
       <c r="K123" s="33" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L123" s="33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M123" s="48"/>
       <c r="N123" s="48"/>
@@ -8748,10 +8751,10 @@
         <v>129</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C124" s="24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D124" s="26"/>
       <c r="E124" s="26"/>
@@ -8761,10 +8764,10 @@
       <c r="I124" s="26"/>
       <c r="J124" s="26"/>
       <c r="K124" s="54" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L124" s="33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M124" s="26"/>
       <c r="N124" s="27"/>
@@ -8852,7 +8855,7 @@
         <v>34</v>
       </c>
       <c r="B126" s="56" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C126" s="57" t="s">
         <v>36</v>
@@ -8908,7 +8911,7 @@
         <v>34</v>
       </c>
       <c r="B127" s="59" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C127" s="57" t="s">
         <v>36</v>
@@ -8960,7 +8963,7 @@
         <v>71</v>
       </c>
       <c r="B128" s="56" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C128" s="57" t="s">
         <v>36</v>
@@ -8983,7 +8986,7 @@
       <c r="S128" s="57"/>
       <c r="T128" s="57"/>
       <c r="U128" s="57" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="V128" s="57"/>
       <c r="W128" s="57"/>
@@ -8998,7 +9001,7 @@
       <c r="AF128" s="57"/>
       <c r="AG128" s="57"/>
       <c r="AH128" s="57" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AI128" s="57"/>
       <c r="AJ128" s="57"/>
@@ -9016,7 +9019,7 @@
         <v>71</v>
       </c>
       <c r="B129" s="56" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C129" s="57" t="s">
         <v>36</v>
@@ -9039,7 +9042,7 @@
       <c r="S129" s="57"/>
       <c r="T129" s="57"/>
       <c r="U129" s="57" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="V129" s="57"/>
       <c r="W129" s="57"/>
@@ -9072,7 +9075,7 @@
         <v>71</v>
       </c>
       <c r="B130" s="56" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C130" s="57" t="s">
         <v>36</v>
@@ -9095,7 +9098,7 @@
       <c r="S130" s="57"/>
       <c r="T130" s="57"/>
       <c r="U130" s="57" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="V130" s="57"/>
       <c r="W130" s="57"/>
@@ -9110,7 +9113,7 @@
       <c r="AF130" s="57"/>
       <c r="AG130" s="57"/>
       <c r="AH130" s="57" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AI130" s="57"/>
       <c r="AJ130" s="57"/>
@@ -9128,7 +9131,7 @@
         <v>71</v>
       </c>
       <c r="B131" s="56" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C131" s="57" t="s">
         <v>36</v>
@@ -9151,7 +9154,7 @@
       <c r="S131" s="57"/>
       <c r="T131" s="57"/>
       <c r="U131" s="57" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="V131" s="57"/>
       <c r="W131" s="57"/>
@@ -9184,7 +9187,7 @@
         <v>71</v>
       </c>
       <c r="B132" s="56" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C132" s="57" t="s">
         <v>36</v>
@@ -9207,7 +9210,7 @@
       <c r="S132" s="57"/>
       <c r="T132" s="57"/>
       <c r="U132" s="57" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="V132" s="57"/>
       <c r="W132" s="57"/>
@@ -9222,7 +9225,7 @@
       <c r="AF132" s="57"/>
       <c r="AG132" s="57"/>
       <c r="AH132" s="57" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AI132" s="57"/>
       <c r="AJ132" s="57"/>
@@ -9240,7 +9243,7 @@
         <v>53</v>
       </c>
       <c r="B133" s="59" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C133" s="57"/>
       <c r="D133" s="57"/>
@@ -9290,7 +9293,7 @@
         <v>53</v>
       </c>
       <c r="B134" s="59" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C134" s="57"/>
       <c r="D134" s="57"/>
@@ -40602,7 +40605,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="60" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B1" s="60" t="s">
         <v>1</v>
@@ -40634,13 +40637,13 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="62" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B2" s="62" t="s">
         <v>86</v>
       </c>
       <c r="C2" s="62" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D2" s="62"/>
       <c r="E2" s="62"/>
@@ -40664,13 +40667,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="62" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B3" s="62" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C3" s="62" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D3" s="62"/>
       <c r="E3" s="62"/>
@@ -40724,7 +40727,7 @@
         <v>109</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D5" s="62"/>
       <c r="E5" s="62"/>
@@ -40751,10 +40754,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D6" s="62"/>
       <c r="E6" s="62"/>
@@ -40805,10 +40808,10 @@
         <v>91</v>
       </c>
       <c r="B8" s="65" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C8" s="65" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
@@ -40837,7 +40840,7 @@
         <v>50</v>
       </c>
       <c r="C9" s="65" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
@@ -40863,10 +40866,10 @@
         <v>91</v>
       </c>
       <c r="B10" s="65" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
@@ -40892,10 +40895,10 @@
         <v>91</v>
       </c>
       <c r="B11" s="65" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D11" s="38"/>
       <c r="E11" s="38"/>
@@ -40944,10 +40947,10 @@
         <v>94</v>
       </c>
       <c r="B13" s="68" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C13" s="68" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D13" s="68"/>
       <c r="E13" s="69"/>
@@ -40978,10 +40981,10 @@
         <v>94</v>
       </c>
       <c r="B14" s="68" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D14" s="68"/>
       <c r="E14" s="69"/>
@@ -41012,10 +41015,10 @@
         <v>94</v>
       </c>
       <c r="B15" s="68" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C15" s="68" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D15" s="68"/>
       <c r="E15" s="69"/>
@@ -41046,10 +41049,10 @@
         <v>94</v>
       </c>
       <c r="B16" s="68" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C16" s="68" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D16" s="68"/>
       <c r="E16" s="69"/>
@@ -41080,10 +41083,10 @@
         <v>94</v>
       </c>
       <c r="B17" s="68" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C17" s="68" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D17" s="68"/>
       <c r="E17" s="69"/>
@@ -41114,10 +41117,10 @@
         <v>94</v>
       </c>
       <c r="B18" s="68" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C18" s="68" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D18" s="68"/>
       <c r="E18" s="69"/>
@@ -41148,10 +41151,10 @@
         <v>94</v>
       </c>
       <c r="B19" s="68" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C19" s="68" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D19" s="68"/>
       <c r="E19" s="69"/>
@@ -41182,10 +41185,10 @@
         <v>94</v>
       </c>
       <c r="B20" s="68" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C20" s="68" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D20" s="68"/>
       <c r="E20" s="69"/>
@@ -41216,10 +41219,10 @@
         <v>94</v>
       </c>
       <c r="B21" s="68" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C21" s="68" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D21" s="68"/>
       <c r="E21" s="69"/>
@@ -41250,10 +41253,10 @@
         <v>94</v>
       </c>
       <c r="B22" s="68" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C22" s="68" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D22" s="68"/>
       <c r="E22" s="69"/>
@@ -41284,10 +41287,10 @@
         <v>94</v>
       </c>
       <c r="B23" s="68" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C23" s="68" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D23" s="68"/>
       <c r="E23" s="69"/>
@@ -41318,10 +41321,10 @@
         <v>94</v>
       </c>
       <c r="B24" s="68" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C24" s="68" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D24" s="68"/>
       <c r="E24" s="69"/>
@@ -41352,10 +41355,10 @@
         <v>94</v>
       </c>
       <c r="B25" s="68" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C25" s="68" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D25" s="68"/>
       <c r="E25" s="69"/>
@@ -41386,10 +41389,10 @@
         <v>94</v>
       </c>
       <c r="B26" s="68" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C26" s="68" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D26" s="68"/>
       <c r="E26" s="69"/>
@@ -41420,10 +41423,10 @@
         <v>94</v>
       </c>
       <c r="B27" s="68" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C27" s="68" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D27" s="68"/>
       <c r="E27" s="69"/>
@@ -41454,10 +41457,10 @@
         <v>94</v>
       </c>
       <c r="B28" s="68" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C28" s="68" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D28" s="68"/>
       <c r="E28" s="69"/>
@@ -41488,10 +41491,10 @@
         <v>94</v>
       </c>
       <c r="B29" s="68" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C29" s="68" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D29" s="68"/>
       <c r="E29" s="69"/>
@@ -41522,10 +41525,10 @@
         <v>94</v>
       </c>
       <c r="B30" s="68" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C30" s="68" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D30" s="68"/>
       <c r="E30" s="69"/>
@@ -41556,10 +41559,10 @@
         <v>94</v>
       </c>
       <c r="B31" s="68" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C31" s="68" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D31" s="68"/>
       <c r="E31" s="69"/>
@@ -41590,10 +41593,10 @@
         <v>94</v>
       </c>
       <c r="B32" s="68" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C32" s="68" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D32" s="68"/>
       <c r="E32" s="69"/>
@@ -41624,10 +41627,10 @@
         <v>94</v>
       </c>
       <c r="B33" s="68" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C33" s="68" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D33" s="68"/>
       <c r="E33" s="69"/>
@@ -41658,10 +41661,10 @@
         <v>94</v>
       </c>
       <c r="B34" s="68" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C34" s="68" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D34" s="68"/>
       <c r="E34" s="69"/>
@@ -41692,10 +41695,10 @@
         <v>94</v>
       </c>
       <c r="B35" s="68" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C35" s="68" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D35" s="68"/>
       <c r="E35" s="69"/>
@@ -41726,10 +41729,10 @@
         <v>94</v>
       </c>
       <c r="B36" s="68" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C36" s="68" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D36" s="68"/>
       <c r="E36" s="69"/>
@@ -41760,10 +41763,10 @@
         <v>94</v>
       </c>
       <c r="B37" s="68" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C37" s="68" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D37" s="68"/>
       <c r="E37" s="69"/>
@@ -41794,10 +41797,10 @@
         <v>94</v>
       </c>
       <c r="B38" s="68" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C38" s="68" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D38" s="68"/>
       <c r="E38" s="69"/>
@@ -41828,10 +41831,10 @@
         <v>94</v>
       </c>
       <c r="B39" s="68" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C39" s="68" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D39" s="68"/>
       <c r="E39" s="69"/>
@@ -41862,10 +41865,10 @@
         <v>94</v>
       </c>
       <c r="B40" s="68" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C40" s="68" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D40" s="68"/>
       <c r="E40" s="69"/>
@@ -41896,10 +41899,10 @@
         <v>94</v>
       </c>
       <c r="B41" s="68" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C41" s="68" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D41" s="68"/>
       <c r="E41" s="69"/>
@@ -41930,10 +41933,10 @@
         <v>94</v>
       </c>
       <c r="B42" s="68" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C42" s="68" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D42" s="68"/>
       <c r="E42" s="69"/>
@@ -41964,10 +41967,10 @@
         <v>94</v>
       </c>
       <c r="B43" s="68" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C43" s="68" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D43" s="68"/>
       <c r="E43" s="69"/>
@@ -41998,10 +42001,10 @@
         <v>94</v>
       </c>
       <c r="B44" s="68" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C44" s="68" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D44" s="68"/>
       <c r="E44" s="69"/>
@@ -42032,10 +42035,10 @@
         <v>94</v>
       </c>
       <c r="B45" s="68" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C45" s="68" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D45" s="68"/>
       <c r="E45" s="69"/>
@@ -42066,10 +42069,10 @@
         <v>94</v>
       </c>
       <c r="B46" s="68" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C46" s="68" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D46" s="68"/>
       <c r="E46" s="69"/>
@@ -42100,10 +42103,10 @@
         <v>94</v>
       </c>
       <c r="B47" s="68" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C47" s="68" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D47" s="68"/>
       <c r="E47" s="69"/>
@@ -42134,10 +42137,10 @@
         <v>94</v>
       </c>
       <c r="B48" s="68" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C48" s="68" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D48" s="68"/>
       <c r="E48" s="69"/>
@@ -42168,10 +42171,10 @@
         <v>94</v>
       </c>
       <c r="B49" s="68" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C49" s="68" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D49" s="68"/>
       <c r="E49" s="69"/>
@@ -42202,10 +42205,10 @@
         <v>94</v>
       </c>
       <c r="B50" s="68" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C50" s="68" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D50" s="68"/>
       <c r="E50" s="69"/>
@@ -42236,10 +42239,10 @@
         <v>94</v>
       </c>
       <c r="B51" s="68" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C51" s="68" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D51" s="68"/>
       <c r="E51" s="69"/>
@@ -42270,10 +42273,10 @@
         <v>94</v>
       </c>
       <c r="B52" s="68" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C52" s="68" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D52" s="68"/>
       <c r="E52" s="69"/>
@@ -42304,10 +42307,10 @@
         <v>94</v>
       </c>
       <c r="B53" s="68" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C53" s="68" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D53" s="68"/>
       <c r="E53" s="69"/>
@@ -42338,10 +42341,10 @@
         <v>94</v>
       </c>
       <c r="B54" s="68" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C54" s="68" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D54" s="68"/>
       <c r="E54" s="69"/>
@@ -42372,10 +42375,10 @@
         <v>94</v>
       </c>
       <c r="B55" s="68" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C55" s="68" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D55" s="68"/>
       <c r="E55" s="69"/>
@@ -42406,10 +42409,10 @@
         <v>94</v>
       </c>
       <c r="B56" s="68" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C56" s="68" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D56" s="68"/>
       <c r="E56" s="69"/>
@@ -42440,10 +42443,10 @@
         <v>94</v>
       </c>
       <c r="B57" s="68" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C57" s="68" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D57" s="68"/>
       <c r="E57" s="69"/>
@@ -42474,10 +42477,10 @@
         <v>94</v>
       </c>
       <c r="B58" s="68" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C58" s="68" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D58" s="68"/>
       <c r="E58" s="69"/>
@@ -42508,10 +42511,10 @@
         <v>94</v>
       </c>
       <c r="B59" s="68" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C59" s="68" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D59" s="68"/>
       <c r="E59" s="69"/>
@@ -42564,10 +42567,10 @@
         <v>114</v>
       </c>
       <c r="B61" s="55" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C61" s="55" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D61" s="38"/>
       <c r="E61" s="38"/>
@@ -42593,10 +42596,10 @@
         <v>114</v>
       </c>
       <c r="B62" s="55" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C62" s="55" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D62" s="38"/>
       <c r="E62" s="38"/>
@@ -42622,10 +42625,10 @@
         <v>114</v>
       </c>
       <c r="B63" s="55" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C63" s="55" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D63" s="38"/>
       <c r="E63" s="38"/>
@@ -42651,10 +42654,10 @@
         <v>114</v>
       </c>
       <c r="B64" s="55" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C64" s="55" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D64" s="38"/>
       <c r="E64" s="38"/>
@@ -42680,10 +42683,10 @@
         <v>114</v>
       </c>
       <c r="B65" s="55" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C65" s="55" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D65" s="38"/>
       <c r="E65" s="38"/>
@@ -42709,10 +42712,10 @@
         <v>114</v>
       </c>
       <c r="B66" s="55" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C66" s="55" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D66" s="38"/>
       <c r="E66" s="38"/>
@@ -42738,10 +42741,10 @@
         <v>114</v>
       </c>
       <c r="B67" s="55" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C67" s="55" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D67" s="38"/>
       <c r="E67" s="38"/>
@@ -42767,10 +42770,10 @@
         <v>114</v>
       </c>
       <c r="B68" s="55" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C68" s="55" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D68" s="38"/>
       <c r="E68" s="38"/>
@@ -42796,10 +42799,10 @@
         <v>114</v>
       </c>
       <c r="B69" s="55" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C69" s="55" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D69" s="38"/>
       <c r="E69" s="38"/>
@@ -42825,10 +42828,10 @@
         <v>114</v>
       </c>
       <c r="B70" s="55" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C70" s="55" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D70" s="38"/>
       <c r="E70" s="38"/>
@@ -42877,10 +42880,10 @@
         <v>104</v>
       </c>
       <c r="B72" s="51" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C72" s="51" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D72" s="38"/>
       <c r="E72" s="38"/>
@@ -42906,10 +42909,10 @@
         <v>104</v>
       </c>
       <c r="B73" s="51" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C73" s="51" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D73" s="38"/>
       <c r="E73" s="38"/>
@@ -42935,10 +42938,10 @@
         <v>104</v>
       </c>
       <c r="B74" s="51" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C74" s="51" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D74" s="38"/>
       <c r="E74" s="38"/>
@@ -42964,10 +42967,10 @@
         <v>104</v>
       </c>
       <c r="B75" s="51" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C75" s="51" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D75" s="38"/>
       <c r="E75" s="38"/>
@@ -42993,10 +42996,10 @@
         <v>104</v>
       </c>
       <c r="B76" s="51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C76" s="51" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D76" s="38"/>
       <c r="E76" s="38"/>
@@ -43022,10 +43025,10 @@
         <v>104</v>
       </c>
       <c r="B77" s="51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C77" s="51" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D77" s="38"/>
       <c r="E77" s="38"/>
@@ -43071,13 +43074,13 @@
     </row>
     <row r="79" ht="12.75" customHeight="1">
       <c r="A79" s="72" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B79" s="73" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C79" s="73" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D79" s="38"/>
       <c r="E79" s="38"/>
@@ -43100,13 +43103,13 @@
     </row>
     <row r="80" ht="12.75" customHeight="1">
       <c r="A80" s="72" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B80" s="73" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C80" s="73" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D80" s="38"/>
       <c r="E80" s="38"/>
@@ -43129,13 +43132,13 @@
     </row>
     <row r="81" ht="12.75" customHeight="1">
       <c r="A81" s="72" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B81" s="73" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C81" s="73" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D81" s="38"/>
       <c r="E81" s="38"/>
@@ -43158,13 +43161,13 @@
     </row>
     <row r="82" ht="12.75" customHeight="1">
       <c r="A82" s="72" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B82" s="73" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C82" s="73" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D82" s="38"/>
       <c r="E82" s="38"/>
@@ -43187,13 +43190,13 @@
     </row>
     <row r="83" ht="12.75" customHeight="1">
       <c r="A83" s="72" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B83" s="73" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C83" s="73" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D83" s="38"/>
       <c r="E83" s="38"/>
@@ -43216,13 +43219,13 @@
     </row>
     <row r="84" ht="12.75" customHeight="1">
       <c r="A84" s="72" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B84" s="73" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C84" s="73" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D84" s="38"/>
       <c r="E84" s="38"/>
@@ -50563,25 +50566,25 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="74" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1" s="74" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C1" s="74" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D1" s="74" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E1" s="74" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F1" s="74" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G1" s="75" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1" s="74"/>
       <c r="I1" s="74"/>
@@ -50605,24 +50608,24 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="76" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B2" s="76" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C2" s="77">
         <f>NOW()</f>
-        <v>45063.91143</v>
+        <v>45063.95275</v>
       </c>
       <c r="D2" s="78" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E2" s="78" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F2" s="63"/>
       <c r="G2" s="79" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H2" s="63"/>
       <c r="I2" s="63"/>
@@ -51670,7 +51673,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="74" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B1" s="74" t="s">
         <v>1</v>
@@ -51713,13 +51716,13 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="64" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B2" s="64" t="s">
         <v>86</v>
       </c>
       <c r="C2" s="64" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D2" s="64"/>
       <c r="E2" s="64"/>
@@ -51744,13 +51747,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="64" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B3" s="64" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C3" s="64" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D3" s="64"/>
       <c r="E3" s="64"/>
@@ -51800,13 +51803,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="64" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C5" s="64" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D5" s="64"/>
       <c r="E5" s="64"/>
@@ -51831,13 +51834,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="64" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B6" s="64" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C6" s="64" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D6" s="64"/>
       <c r="E6" s="64"/>
@@ -51862,13 +51865,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="64" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B7" s="64" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C7" s="64" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D7" s="64"/>
       <c r="E7" s="64"/>
@@ -51893,13 +51896,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="64" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C8" s="64" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D8" s="64"/>
       <c r="E8" s="64"/>
@@ -51924,13 +51927,13 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="64" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C9" s="64" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D9" s="64"/>
       <c r="E9" s="64"/>
@@ -51980,13 +51983,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="64" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B11" s="64" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C11" s="64" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D11" s="64"/>
       <c r="E11" s="64"/>
@@ -52011,13 +52014,13 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="64" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B12" s="64" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C12" s="64" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D12" s="64"/>
       <c r="E12" s="64"/>
@@ -52042,13 +52045,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="64" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B13" s="64" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C13" s="64" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D13" s="64"/>
       <c r="E13" s="64"/>
@@ -52073,13 +52076,13 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="64" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D14" s="64"/>
       <c r="E14" s="64"/>
@@ -52104,13 +52107,13 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="64" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B15" s="64" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C15" s="64" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D15" s="64"/>
       <c r="E15" s="64"/>
@@ -52135,13 +52138,13 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="64" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B16" s="64" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C16" s="64" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D16" s="64"/>
       <c r="E16" s="64"/>
@@ -52191,13 +52194,13 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="64" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B18" s="64" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C18" s="64" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D18" s="64"/>
       <c r="E18" s="64"/>
@@ -52222,13 +52225,13 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="64" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B19" s="64" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C19" s="64" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D19" s="64"/>
       <c r="E19" s="64"/>
@@ -52253,13 +52256,13 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="64" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B20" s="64" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C20" s="64" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D20" s="64"/>
       <c r="E20" s="64"/>
@@ -52284,13 +52287,13 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="64" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B21" s="64" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C21" s="64" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D21" s="64"/>
       <c r="E21" s="64"/>
@@ -52315,13 +52318,13 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="64" t="s">
+        <v>401</v>
+      </c>
+      <c r="B22" s="64" t="s">
+        <v>399</v>
+      </c>
+      <c r="C22" s="64" t="s">
         <v>400</v>
-      </c>
-      <c r="B22" s="64" t="s">
-        <v>398</v>
-      </c>
-      <c r="C22" s="64" t="s">
-        <v>399</v>
       </c>
       <c r="D22" s="64"/>
       <c r="E22" s="64"/>
@@ -52346,13 +52349,13 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="64" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B23" s="64" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C23" s="64" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D23" s="64"/>
       <c r="E23" s="64"/>
@@ -52402,13 +52405,13 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="64" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B25" s="64" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C25" s="64" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D25" s="64"/>
       <c r="E25" s="64"/>
@@ -52433,13 +52436,13 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="64" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B26" s="64" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C26" s="64" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D26" s="64"/>
       <c r="E26" s="64"/>
@@ -52464,13 +52467,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="64" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B27" s="64" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C27" s="64" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D27" s="64"/>
       <c r="E27" s="64"/>
@@ -52495,13 +52498,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="64" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B28" s="64" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C28" s="64" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D28" s="64"/>
       <c r="E28" s="64"/>
@@ -52526,13 +52529,13 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="64" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B29" s="64" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C29" s="64" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D29" s="64"/>
       <c r="E29" s="64"/>
@@ -52582,13 +52585,13 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="64" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B31" s="64" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C31" s="64" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D31" s="64"/>
       <c r="E31" s="64"/>
@@ -52613,13 +52616,13 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="64" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B32" s="64" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C32" s="64" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D32" s="64"/>
       <c r="E32" s="64"/>
@@ -52669,121 +52672,121 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="87" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B34" s="87" t="str">
         <f t="shared" ref="B34:B42" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" s="87" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="87" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B35" s="87" t="str">
         <f t="shared" si="1"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" s="87" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="87" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B36" s="87" t="str">
         <f t="shared" si="1"/>
         <v>injectibles</v>
       </c>
       <c r="C36" s="87" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="87" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B37" s="87" t="str">
         <f t="shared" si="1"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" s="87" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="87" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B38" s="87" t="str">
         <f t="shared" si="1"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" s="87" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="87" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B39" s="87" t="str">
         <f t="shared" si="1"/>
         <v>iud</v>
       </c>
       <c r="C39" s="87" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="87" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B40" s="87" t="str">
         <f t="shared" si="1"/>
         <v>condoms</v>
       </c>
       <c r="C40" s="87" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="87" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B41" s="87" t="str">
         <f t="shared" si="1"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" s="87" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="87" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B42" s="87" t="str">
         <f t="shared" si="1"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" s="87" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="87" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B43" s="87" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C43" s="87" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -52794,26 +52797,26 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="87" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B45" s="87" t="str">
         <f t="shared" si="2"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" s="87" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="87" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B46" s="87" t="str">
         <f t="shared" si="2"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" s="87" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -52824,13 +52827,13 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="78" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B48" s="78" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C48" s="78" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D48" s="78"/>
       <c r="E48" s="78"/>
@@ -52855,13 +52858,13 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="78" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B49" s="78" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C49" s="78" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D49" s="78"/>
       <c r="E49" s="78"/>
@@ -52887,226 +52890,226 @@
     <row r="50" ht="12.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="87" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B51" s="87" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C51" s="87" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="87" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B52" s="87" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C52" s="87" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="87" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B53" s="87" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C53" s="87" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="87" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B54" s="87" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C54" s="87" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="87" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B55" s="87" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C55" s="87" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="87" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B56" s="87" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C56" s="87" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="57" ht="12.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="78" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B58" s="78" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C58" s="78" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="78" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B59" s="78" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C59" s="78" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="78" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B60" s="78" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C60" s="78" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="78" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B61" s="78" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C61" s="78" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="62" ht="12.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="63" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B63" s="63" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C63" s="78" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="63" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B64" s="63" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C64" s="78" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="63" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B65" s="63" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C65" s="78" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="63" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B66" s="63" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C66" s="78" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="63" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B67" s="63" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C67" s="78" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="68" ht="12.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="87" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B69" s="87" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C69" s="87" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="87" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B70" s="87" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C70" s="87" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="71" ht="12.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="87" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B72" s="87" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C72" s="88" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="87" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B73" s="87" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C73" s="87" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="87" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B74" s="87" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C74" s="87" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1"/>

--- a/forms/app/padr.xlsx
+++ b/forms/app/padr.xlsx
@@ -50750,7 +50750,7 @@
       </c>
       <c r="C2" s="78">
         <f>NOW()</f>
-        <v>45068.91704</v>
+        <v>45069.28713</v>
       </c>
       <c r="D2" s="79" t="s">
         <v>381</v>

--- a/forms/app/padr.xlsx
+++ b/forms/app/padr.xlsx
@@ -51315,7 +51315,7 @@
       </c>
       <c r="C2" s="79">
         <f>NOW()</f>
-        <v>45070.86846</v>
+        <v>45082.87983</v>
       </c>
       <c r="D2" s="80" t="s">
         <v>400</v>

--- a/forms/app/padr.xlsx
+++ b/forms/app/padr.xlsx
@@ -1800,6 +1800,9 @@
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
@@ -1808,9 +1811,6 @@
     </xf>
     <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -4229,7 +4229,7 @@
       <c r="AR37" s="23"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="20" t="s">
         <v>83</v>
       </c>
       <c r="B38" s="20" t="s">
@@ -4257,7 +4257,7 @@
       <c r="R38" s="23"/>
       <c r="S38" s="23"/>
       <c r="T38" s="23"/>
-      <c r="U38" s="23"/>
+      <c r="U38" s="25"/>
       <c r="V38" s="23"/>
       <c r="W38" s="23"/>
       <c r="X38" s="23"/>
@@ -4286,59 +4286,59 @@
       <c r="A39" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="26" t="s">
         <v>88</v>
       </c>
       <c r="C39" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
       <c r="J39" s="22" t="s">
         <v>86</v>
       </c>
       <c r="K39" s="22"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="28" t="s">
+      <c r="L39" s="28"/>
+      <c r="M39" s="25" t="s">
         <v>90</v>
       </c>
       <c r="N39" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="27"/>
-      <c r="S39" s="27"/>
-      <c r="T39" s="27"/>
-      <c r="U39" s="27"/>
-      <c r="V39" s="27"/>
-      <c r="W39" s="27"/>
-      <c r="X39" s="27"/>
-      <c r="Y39" s="27"/>
-      <c r="Z39" s="26"/>
-      <c r="AA39" s="26"/>
-      <c r="AB39" s="26"/>
-      <c r="AC39" s="26"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="28"/>
+      <c r="T39" s="28"/>
+      <c r="U39" s="28"/>
+      <c r="V39" s="28"/>
+      <c r="W39" s="28"/>
+      <c r="X39" s="28"/>
+      <c r="Y39" s="28"/>
+      <c r="Z39" s="27"/>
+      <c r="AA39" s="27"/>
+      <c r="AB39" s="27"/>
+      <c r="AC39" s="27"/>
       <c r="AD39" s="22"/>
       <c r="AE39" s="22"/>
-      <c r="AF39" s="27"/>
-      <c r="AG39" s="27"/>
-      <c r="AH39" s="27"/>
-      <c r="AI39" s="27"/>
-      <c r="AJ39" s="27"/>
-      <c r="AK39" s="27"/>
-      <c r="AL39" s="27"/>
-      <c r="AM39" s="27"/>
-      <c r="AN39" s="27"/>
-      <c r="AO39" s="27"/>
-      <c r="AP39" s="27"/>
-      <c r="AQ39" s="27"/>
-      <c r="AR39" s="27"/>
+      <c r="AF39" s="28"/>
+      <c r="AG39" s="28"/>
+      <c r="AH39" s="28"/>
+      <c r="AI39" s="28"/>
+      <c r="AJ39" s="28"/>
+      <c r="AK39" s="28"/>
+      <c r="AL39" s="28"/>
+      <c r="AM39" s="28"/>
+      <c r="AN39" s="28"/>
+      <c r="AO39" s="28"/>
+      <c r="AP39" s="28"/>
+      <c r="AQ39" s="28"/>
+      <c r="AR39" s="28"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="20" t="s">
@@ -4350,49 +4350,49 @@
       <c r="C40" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
       <c r="J40" s="22" t="s">
         <v>86</v>
       </c>
       <c r="K40" s="22"/>
-      <c r="L40" s="27"/>
+      <c r="L40" s="28"/>
       <c r="M40" s="22"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="27"/>
-      <c r="S40" s="27"/>
-      <c r="T40" s="27"/>
-      <c r="U40" s="27"/>
-      <c r="V40" s="27"/>
-      <c r="W40" s="27"/>
-      <c r="X40" s="27"/>
-      <c r="Y40" s="27"/>
-      <c r="Z40" s="26"/>
-      <c r="AA40" s="26"/>
-      <c r="AB40" s="26"/>
-      <c r="AC40" s="26"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="28"/>
+      <c r="X40" s="28"/>
+      <c r="Y40" s="28"/>
+      <c r="Z40" s="27"/>
+      <c r="AA40" s="27"/>
+      <c r="AB40" s="27"/>
+      <c r="AC40" s="27"/>
       <c r="AD40" s="22"/>
       <c r="AE40" s="22"/>
-      <c r="AF40" s="27"/>
-      <c r="AG40" s="27"/>
-      <c r="AH40" s="27"/>
-      <c r="AI40" s="27"/>
-      <c r="AJ40" s="27"/>
-      <c r="AK40" s="27"/>
-      <c r="AL40" s="27"/>
-      <c r="AM40" s="27"/>
-      <c r="AN40" s="27"/>
-      <c r="AO40" s="27"/>
-      <c r="AP40" s="27"/>
-      <c r="AQ40" s="27"/>
-      <c r="AR40" s="27"/>
+      <c r="AF40" s="28"/>
+      <c r="AG40" s="28"/>
+      <c r="AH40" s="28"/>
+      <c r="AI40" s="28"/>
+      <c r="AJ40" s="28"/>
+      <c r="AK40" s="28"/>
+      <c r="AL40" s="28"/>
+      <c r="AM40" s="28"/>
+      <c r="AN40" s="28"/>
+      <c r="AO40" s="28"/>
+      <c r="AP40" s="28"/>
+      <c r="AQ40" s="28"/>
+      <c r="AR40" s="28"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="20" t="s">
@@ -4404,12 +4404,12 @@
       <c r="C41" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
       <c r="J41" s="22" t="s">
         <v>86</v>
       </c>
@@ -4418,37 +4418,37 @@
         <v>98</v>
       </c>
       <c r="M41" s="22"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="27"/>
-      <c r="S41" s="27"/>
-      <c r="T41" s="27"/>
-      <c r="U41" s="27"/>
-      <c r="V41" s="27"/>
-      <c r="W41" s="27"/>
-      <c r="X41" s="27"/>
-      <c r="Y41" s="27"/>
-      <c r="Z41" s="26"/>
-      <c r="AA41" s="26"/>
-      <c r="AB41" s="26"/>
-      <c r="AC41" s="26"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="28"/>
+      <c r="Y41" s="28"/>
+      <c r="Z41" s="27"/>
+      <c r="AA41" s="27"/>
+      <c r="AB41" s="27"/>
+      <c r="AC41" s="27"/>
       <c r="AD41" s="22"/>
       <c r="AE41" s="22"/>
-      <c r="AF41" s="27"/>
-      <c r="AG41" s="27"/>
-      <c r="AH41" s="27"/>
-      <c r="AI41" s="27"/>
-      <c r="AJ41" s="27"/>
-      <c r="AK41" s="27"/>
-      <c r="AL41" s="27"/>
-      <c r="AM41" s="27"/>
-      <c r="AN41" s="27"/>
-      <c r="AO41" s="27"/>
-      <c r="AP41" s="27"/>
-      <c r="AQ41" s="27"/>
-      <c r="AR41" s="27"/>
+      <c r="AF41" s="28"/>
+      <c r="AG41" s="28"/>
+      <c r="AH41" s="28"/>
+      <c r="AI41" s="28"/>
+      <c r="AJ41" s="28"/>
+      <c r="AK41" s="28"/>
+      <c r="AL41" s="28"/>
+      <c r="AM41" s="28"/>
+      <c r="AN41" s="28"/>
+      <c r="AO41" s="28"/>
+      <c r="AP41" s="28"/>
+      <c r="AQ41" s="28"/>
+      <c r="AR41" s="28"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="20" t="s">
@@ -4460,49 +4460,49 @@
       <c r="C42" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
       <c r="J42" s="22" t="s">
         <v>86</v>
       </c>
       <c r="K42" s="22"/>
-      <c r="L42" s="27"/>
+      <c r="L42" s="28"/>
       <c r="M42" s="22"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="27"/>
-      <c r="S42" s="27"/>
-      <c r="T42" s="27"/>
-      <c r="U42" s="27"/>
-      <c r="V42" s="27"/>
-      <c r="W42" s="27"/>
-      <c r="X42" s="27"/>
-      <c r="Y42" s="27"/>
-      <c r="Z42" s="26"/>
-      <c r="AA42" s="26"/>
-      <c r="AB42" s="26"/>
-      <c r="AC42" s="26"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="28"/>
+      <c r="U42" s="28"/>
+      <c r="V42" s="28"/>
+      <c r="W42" s="28"/>
+      <c r="X42" s="28"/>
+      <c r="Y42" s="28"/>
+      <c r="Z42" s="27"/>
+      <c r="AA42" s="27"/>
+      <c r="AB42" s="27"/>
+      <c r="AC42" s="27"/>
       <c r="AD42" s="22"/>
       <c r="AE42" s="22"/>
-      <c r="AF42" s="27"/>
-      <c r="AG42" s="27"/>
-      <c r="AH42" s="27"/>
-      <c r="AI42" s="27"/>
-      <c r="AJ42" s="27"/>
-      <c r="AK42" s="27"/>
-      <c r="AL42" s="27"/>
-      <c r="AM42" s="27"/>
-      <c r="AN42" s="27"/>
-      <c r="AO42" s="27"/>
-      <c r="AP42" s="27"/>
-      <c r="AQ42" s="27"/>
-      <c r="AR42" s="27"/>
+      <c r="AF42" s="28"/>
+      <c r="AG42" s="28"/>
+      <c r="AH42" s="28"/>
+      <c r="AI42" s="28"/>
+      <c r="AJ42" s="28"/>
+      <c r="AK42" s="28"/>
+      <c r="AL42" s="28"/>
+      <c r="AM42" s="28"/>
+      <c r="AN42" s="28"/>
+      <c r="AO42" s="28"/>
+      <c r="AP42" s="28"/>
+      <c r="AQ42" s="28"/>
+      <c r="AR42" s="28"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="19" t="s">
@@ -4658,49 +4658,49 @@
       <c r="C46" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
       <c r="K46" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="L46" s="27"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="27"/>
-      <c r="P46" s="27"/>
-      <c r="Q46" s="27"/>
-      <c r="R46" s="27"/>
-      <c r="S46" s="27"/>
-      <c r="T46" s="27"/>
-      <c r="U46" s="27"/>
-      <c r="V46" s="27"/>
-      <c r="W46" s="27"/>
-      <c r="X46" s="27"/>
-      <c r="Y46" s="27"/>
-      <c r="Z46" s="26"/>
-      <c r="AA46" s="26"/>
-      <c r="AB46" s="26"/>
-      <c r="AC46" s="26"/>
-      <c r="AD46" s="26"/>
-      <c r="AE46" s="26"/>
-      <c r="AF46" s="27"/>
-      <c r="AG46" s="27"/>
-      <c r="AH46" s="27"/>
-      <c r="AI46" s="27"/>
-      <c r="AJ46" s="27"/>
-      <c r="AK46" s="27"/>
-      <c r="AL46" s="27"/>
-      <c r="AM46" s="27"/>
-      <c r="AN46" s="27"/>
-      <c r="AO46" s="27"/>
-      <c r="AP46" s="27"/>
-      <c r="AQ46" s="27"/>
-      <c r="AR46" s="27"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="28"/>
+      <c r="U46" s="28"/>
+      <c r="V46" s="28"/>
+      <c r="W46" s="28"/>
+      <c r="X46" s="28"/>
+      <c r="Y46" s="28"/>
+      <c r="Z46" s="27"/>
+      <c r="AA46" s="27"/>
+      <c r="AB46" s="27"/>
+      <c r="AC46" s="27"/>
+      <c r="AD46" s="27"/>
+      <c r="AE46" s="27"/>
+      <c r="AF46" s="28"/>
+      <c r="AG46" s="28"/>
+      <c r="AH46" s="28"/>
+      <c r="AI46" s="28"/>
+      <c r="AJ46" s="28"/>
+      <c r="AK46" s="28"/>
+      <c r="AL46" s="28"/>
+      <c r="AM46" s="28"/>
+      <c r="AN46" s="28"/>
+      <c r="AO46" s="28"/>
+      <c r="AP46" s="28"/>
+      <c r="AQ46" s="28"/>
+      <c r="AR46" s="28"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="19" t="s">
@@ -4712,49 +4712,49 @@
       <c r="C47" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
       <c r="K47" s="34"/>
-      <c r="L47" s="27" t="s">
+      <c r="L47" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="M47" s="26"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="27"/>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="27"/>
-      <c r="R47" s="27"/>
-      <c r="S47" s="27"/>
-      <c r="T47" s="27"/>
-      <c r="U47" s="27"/>
-      <c r="V47" s="27"/>
-      <c r="W47" s="27"/>
-      <c r="X47" s="27"/>
-      <c r="Y47" s="27"/>
-      <c r="Z47" s="26"/>
-      <c r="AA47" s="26"/>
-      <c r="AB47" s="26"/>
-      <c r="AC47" s="26"/>
-      <c r="AD47" s="26"/>
-      <c r="AE47" s="26"/>
-      <c r="AF47" s="27"/>
-      <c r="AG47" s="27"/>
-      <c r="AH47" s="27"/>
-      <c r="AI47" s="27"/>
-      <c r="AJ47" s="27"/>
-      <c r="AK47" s="27"/>
-      <c r="AL47" s="27"/>
-      <c r="AM47" s="27"/>
-      <c r="AN47" s="27"/>
-      <c r="AO47" s="27"/>
-      <c r="AP47" s="27"/>
-      <c r="AQ47" s="27"/>
-      <c r="AR47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="28"/>
+      <c r="R47" s="28"/>
+      <c r="S47" s="28"/>
+      <c r="T47" s="28"/>
+      <c r="U47" s="28"/>
+      <c r="V47" s="28"/>
+      <c r="W47" s="28"/>
+      <c r="X47" s="28"/>
+      <c r="Y47" s="28"/>
+      <c r="Z47" s="27"/>
+      <c r="AA47" s="27"/>
+      <c r="AB47" s="27"/>
+      <c r="AC47" s="27"/>
+      <c r="AD47" s="27"/>
+      <c r="AE47" s="27"/>
+      <c r="AF47" s="28"/>
+      <c r="AG47" s="28"/>
+      <c r="AH47" s="28"/>
+      <c r="AI47" s="28"/>
+      <c r="AJ47" s="28"/>
+      <c r="AK47" s="28"/>
+      <c r="AL47" s="28"/>
+      <c r="AM47" s="28"/>
+      <c r="AN47" s="28"/>
+      <c r="AO47" s="28"/>
+      <c r="AP47" s="28"/>
+      <c r="AQ47" s="28"/>
+      <c r="AR47" s="28"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="20" t="s">
@@ -4766,49 +4766,49 @@
       <c r="C48" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26" t="s">
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27" t="s">
         <v>86</v>
       </c>
       <c r="K48" s="34"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="27"/>
-      <c r="O48" s="27"/>
-      <c r="P48" s="27"/>
-      <c r="Q48" s="27"/>
-      <c r="R48" s="27"/>
-      <c r="S48" s="27"/>
-      <c r="T48" s="27"/>
-      <c r="U48" s="27"/>
-      <c r="V48" s="27"/>
-      <c r="W48" s="27"/>
-      <c r="X48" s="27"/>
-      <c r="Y48" s="27"/>
-      <c r="Z48" s="26"/>
-      <c r="AA48" s="26"/>
-      <c r="AB48" s="26"/>
-      <c r="AC48" s="26"/>
-      <c r="AD48" s="26"/>
-      <c r="AE48" s="26"/>
-      <c r="AF48" s="27"/>
-      <c r="AG48" s="27"/>
-      <c r="AH48" s="27"/>
-      <c r="AI48" s="27"/>
-      <c r="AJ48" s="27"/>
-      <c r="AK48" s="27"/>
-      <c r="AL48" s="27"/>
-      <c r="AM48" s="27"/>
-      <c r="AN48" s="27"/>
-      <c r="AO48" s="27"/>
-      <c r="AP48" s="27"/>
-      <c r="AQ48" s="27"/>
-      <c r="AR48" s="27"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="28"/>
+      <c r="R48" s="28"/>
+      <c r="S48" s="28"/>
+      <c r="T48" s="28"/>
+      <c r="U48" s="28"/>
+      <c r="V48" s="28"/>
+      <c r="W48" s="28"/>
+      <c r="X48" s="28"/>
+      <c r="Y48" s="28"/>
+      <c r="Z48" s="27"/>
+      <c r="AA48" s="27"/>
+      <c r="AB48" s="27"/>
+      <c r="AC48" s="27"/>
+      <c r="AD48" s="27"/>
+      <c r="AE48" s="27"/>
+      <c r="AF48" s="28"/>
+      <c r="AG48" s="28"/>
+      <c r="AH48" s="28"/>
+      <c r="AI48" s="28"/>
+      <c r="AJ48" s="28"/>
+      <c r="AK48" s="28"/>
+      <c r="AL48" s="28"/>
+      <c r="AM48" s="28"/>
+      <c r="AN48" s="28"/>
+      <c r="AO48" s="28"/>
+      <c r="AP48" s="28"/>
+      <c r="AQ48" s="28"/>
+      <c r="AR48" s="28"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="19" t="s">
@@ -4820,49 +4820,49 @@
       <c r="C49" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
       <c r="K49" s="34"/>
       <c r="L49" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="M49" s="26"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="27"/>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="27"/>
-      <c r="R49" s="27"/>
-      <c r="S49" s="27"/>
-      <c r="T49" s="27"/>
-      <c r="U49" s="27"/>
-      <c r="V49" s="27"/>
-      <c r="W49" s="27"/>
-      <c r="X49" s="27"/>
-      <c r="Y49" s="27"/>
-      <c r="Z49" s="26"/>
-      <c r="AA49" s="26"/>
-      <c r="AB49" s="26"/>
-      <c r="AC49" s="26"/>
-      <c r="AD49" s="26"/>
-      <c r="AE49" s="26"/>
-      <c r="AF49" s="27"/>
-      <c r="AG49" s="27"/>
-      <c r="AH49" s="27"/>
-      <c r="AI49" s="27"/>
-      <c r="AJ49" s="27"/>
-      <c r="AK49" s="27"/>
-      <c r="AL49" s="27"/>
-      <c r="AM49" s="27"/>
-      <c r="AN49" s="27"/>
-      <c r="AO49" s="27"/>
-      <c r="AP49" s="27"/>
-      <c r="AQ49" s="27"/>
-      <c r="AR49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="28"/>
+      <c r="R49" s="28"/>
+      <c r="S49" s="28"/>
+      <c r="T49" s="28"/>
+      <c r="U49" s="28"/>
+      <c r="V49" s="28"/>
+      <c r="W49" s="28"/>
+      <c r="X49" s="28"/>
+      <c r="Y49" s="28"/>
+      <c r="Z49" s="27"/>
+      <c r="AA49" s="27"/>
+      <c r="AB49" s="27"/>
+      <c r="AC49" s="27"/>
+      <c r="AD49" s="27"/>
+      <c r="AE49" s="27"/>
+      <c r="AF49" s="28"/>
+      <c r="AG49" s="28"/>
+      <c r="AH49" s="28"/>
+      <c r="AI49" s="28"/>
+      <c r="AJ49" s="28"/>
+      <c r="AK49" s="28"/>
+      <c r="AL49" s="28"/>
+      <c r="AM49" s="28"/>
+      <c r="AN49" s="28"/>
+      <c r="AO49" s="28"/>
+      <c r="AP49" s="28"/>
+      <c r="AQ49" s="28"/>
+      <c r="AR49" s="28"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="19" t="s">
@@ -4870,47 +4870,47 @@
       </c>
       <c r="B50" s="19"/>
       <c r="C50" s="21"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
       <c r="K50" s="34"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="26"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="27"/>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="27"/>
-      <c r="R50" s="27"/>
-      <c r="S50" s="27"/>
-      <c r="T50" s="27"/>
-      <c r="U50" s="27"/>
-      <c r="V50" s="27"/>
-      <c r="W50" s="27"/>
-      <c r="X50" s="27"/>
-      <c r="Y50" s="27"/>
-      <c r="Z50" s="26"/>
-      <c r="AA50" s="26"/>
-      <c r="AB50" s="26"/>
-      <c r="AC50" s="26"/>
-      <c r="AD50" s="26"/>
-      <c r="AE50" s="26"/>
-      <c r="AF50" s="27"/>
-      <c r="AG50" s="27"/>
-      <c r="AH50" s="27"/>
-      <c r="AI50" s="27"/>
-      <c r="AJ50" s="27"/>
-      <c r="AK50" s="27"/>
-      <c r="AL50" s="27"/>
-      <c r="AM50" s="27"/>
-      <c r="AN50" s="27"/>
-      <c r="AO50" s="27"/>
-      <c r="AP50" s="27"/>
-      <c r="AQ50" s="27"/>
-      <c r="AR50" s="27"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="28"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="28"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="28"/>
+      <c r="U50" s="28"/>
+      <c r="V50" s="28"/>
+      <c r="W50" s="28"/>
+      <c r="X50" s="28"/>
+      <c r="Y50" s="28"/>
+      <c r="Z50" s="27"/>
+      <c r="AA50" s="27"/>
+      <c r="AB50" s="27"/>
+      <c r="AC50" s="27"/>
+      <c r="AD50" s="27"/>
+      <c r="AE50" s="27"/>
+      <c r="AF50" s="28"/>
+      <c r="AG50" s="28"/>
+      <c r="AH50" s="28"/>
+      <c r="AI50" s="28"/>
+      <c r="AJ50" s="28"/>
+      <c r="AK50" s="28"/>
+      <c r="AL50" s="28"/>
+      <c r="AM50" s="28"/>
+      <c r="AN50" s="28"/>
+      <c r="AO50" s="28"/>
+      <c r="AP50" s="28"/>
+      <c r="AQ50" s="28"/>
+      <c r="AR50" s="28"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="19" t="s">
@@ -4920,47 +4920,47 @@
         <v>101</v>
       </c>
       <c r="C51" s="21"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
       <c r="K51" s="34"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="26"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="27"/>
-      <c r="P51" s="27"/>
-      <c r="Q51" s="27"/>
-      <c r="R51" s="27"/>
-      <c r="S51" s="27"/>
-      <c r="T51" s="27"/>
-      <c r="U51" s="27"/>
-      <c r="V51" s="27"/>
-      <c r="W51" s="27"/>
-      <c r="X51" s="27"/>
-      <c r="Y51" s="27"/>
-      <c r="Z51" s="26"/>
-      <c r="AA51" s="26"/>
-      <c r="AB51" s="26"/>
-      <c r="AC51" s="26"/>
-      <c r="AD51" s="26"/>
-      <c r="AE51" s="26"/>
-      <c r="AF51" s="27"/>
-      <c r="AG51" s="27"/>
-      <c r="AH51" s="27"/>
-      <c r="AI51" s="27"/>
-      <c r="AJ51" s="27"/>
-      <c r="AK51" s="27"/>
-      <c r="AL51" s="27"/>
-      <c r="AM51" s="27"/>
-      <c r="AN51" s="27"/>
-      <c r="AO51" s="27"/>
-      <c r="AP51" s="27"/>
-      <c r="AQ51" s="27"/>
-      <c r="AR51" s="27"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="28"/>
+      <c r="P51" s="28"/>
+      <c r="Q51" s="28"/>
+      <c r="R51" s="28"/>
+      <c r="S51" s="28"/>
+      <c r="T51" s="28"/>
+      <c r="U51" s="28"/>
+      <c r="V51" s="28"/>
+      <c r="W51" s="28"/>
+      <c r="X51" s="28"/>
+      <c r="Y51" s="28"/>
+      <c r="Z51" s="27"/>
+      <c r="AA51" s="27"/>
+      <c r="AB51" s="27"/>
+      <c r="AC51" s="27"/>
+      <c r="AD51" s="27"/>
+      <c r="AE51" s="27"/>
+      <c r="AF51" s="28"/>
+      <c r="AG51" s="28"/>
+      <c r="AH51" s="28"/>
+      <c r="AI51" s="28"/>
+      <c r="AJ51" s="28"/>
+      <c r="AK51" s="28"/>
+      <c r="AL51" s="28"/>
+      <c r="AM51" s="28"/>
+      <c r="AN51" s="28"/>
+      <c r="AO51" s="28"/>
+      <c r="AP51" s="28"/>
+      <c r="AQ51" s="28"/>
+      <c r="AR51" s="28"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="8"/>
@@ -5018,49 +5018,49 @@
       <c r="C53" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
       <c r="K53" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="L53" s="27"/>
-      <c r="M53" s="26"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="27"/>
-      <c r="P53" s="27"/>
-      <c r="Q53" s="27"/>
-      <c r="R53" s="27"/>
-      <c r="S53" s="27"/>
-      <c r="T53" s="27"/>
-      <c r="U53" s="27"/>
-      <c r="V53" s="27"/>
-      <c r="W53" s="27"/>
-      <c r="X53" s="27"/>
-      <c r="Y53" s="27"/>
-      <c r="Z53" s="26"/>
-      <c r="AA53" s="26"/>
-      <c r="AB53" s="26"/>
-      <c r="AC53" s="26"/>
-      <c r="AD53" s="26"/>
-      <c r="AE53" s="26"/>
-      <c r="AF53" s="27"/>
-      <c r="AG53" s="27"/>
-      <c r="AH53" s="27"/>
-      <c r="AI53" s="27"/>
-      <c r="AJ53" s="27"/>
-      <c r="AK53" s="27"/>
-      <c r="AL53" s="27"/>
-      <c r="AM53" s="27"/>
-      <c r="AN53" s="27"/>
-      <c r="AO53" s="27"/>
-      <c r="AP53" s="27"/>
-      <c r="AQ53" s="27"/>
-      <c r="AR53" s="27"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="28"/>
+      <c r="O53" s="28"/>
+      <c r="P53" s="28"/>
+      <c r="Q53" s="28"/>
+      <c r="R53" s="28"/>
+      <c r="S53" s="28"/>
+      <c r="T53" s="28"/>
+      <c r="U53" s="28"/>
+      <c r="V53" s="28"/>
+      <c r="W53" s="28"/>
+      <c r="X53" s="28"/>
+      <c r="Y53" s="28"/>
+      <c r="Z53" s="27"/>
+      <c r="AA53" s="27"/>
+      <c r="AB53" s="27"/>
+      <c r="AC53" s="27"/>
+      <c r="AD53" s="27"/>
+      <c r="AE53" s="27"/>
+      <c r="AF53" s="28"/>
+      <c r="AG53" s="28"/>
+      <c r="AH53" s="28"/>
+      <c r="AI53" s="28"/>
+      <c r="AJ53" s="28"/>
+      <c r="AK53" s="28"/>
+      <c r="AL53" s="28"/>
+      <c r="AM53" s="28"/>
+      <c r="AN53" s="28"/>
+      <c r="AO53" s="28"/>
+      <c r="AP53" s="28"/>
+      <c r="AQ53" s="28"/>
+      <c r="AR53" s="28"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="19" t="s">
@@ -5072,49 +5072,49 @@
       <c r="C54" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
       <c r="K54" s="34"/>
-      <c r="L54" s="27" t="s">
+      <c r="L54" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="M54" s="26"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="27"/>
-      <c r="P54" s="27"/>
-      <c r="Q54" s="27"/>
-      <c r="R54" s="27"/>
-      <c r="S54" s="27"/>
-      <c r="T54" s="27"/>
-      <c r="U54" s="27"/>
-      <c r="V54" s="27"/>
-      <c r="W54" s="27"/>
-      <c r="X54" s="27"/>
-      <c r="Y54" s="27"/>
-      <c r="Z54" s="26"/>
-      <c r="AA54" s="26"/>
-      <c r="AB54" s="26"/>
-      <c r="AC54" s="26"/>
-      <c r="AD54" s="26"/>
-      <c r="AE54" s="26"/>
-      <c r="AF54" s="27"/>
-      <c r="AG54" s="27"/>
-      <c r="AH54" s="27"/>
-      <c r="AI54" s="27"/>
-      <c r="AJ54" s="27"/>
-      <c r="AK54" s="27"/>
-      <c r="AL54" s="27"/>
-      <c r="AM54" s="27"/>
-      <c r="AN54" s="27"/>
-      <c r="AO54" s="27"/>
-      <c r="AP54" s="27"/>
-      <c r="AQ54" s="27"/>
-      <c r="AR54" s="27"/>
+      <c r="M54" s="27"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="28"/>
+      <c r="P54" s="28"/>
+      <c r="Q54" s="28"/>
+      <c r="R54" s="28"/>
+      <c r="S54" s="28"/>
+      <c r="T54" s="28"/>
+      <c r="U54" s="28"/>
+      <c r="V54" s="28"/>
+      <c r="W54" s="28"/>
+      <c r="X54" s="28"/>
+      <c r="Y54" s="28"/>
+      <c r="Z54" s="27"/>
+      <c r="AA54" s="27"/>
+      <c r="AB54" s="27"/>
+      <c r="AC54" s="27"/>
+      <c r="AD54" s="27"/>
+      <c r="AE54" s="27"/>
+      <c r="AF54" s="28"/>
+      <c r="AG54" s="28"/>
+      <c r="AH54" s="28"/>
+      <c r="AI54" s="28"/>
+      <c r="AJ54" s="28"/>
+      <c r="AK54" s="28"/>
+      <c r="AL54" s="28"/>
+      <c r="AM54" s="28"/>
+      <c r="AN54" s="28"/>
+      <c r="AO54" s="28"/>
+      <c r="AP54" s="28"/>
+      <c r="AQ54" s="28"/>
+      <c r="AR54" s="28"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="20" t="s">
@@ -5126,49 +5126,49 @@
       <c r="C55" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26" t="s">
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27" t="s">
         <v>86</v>
       </c>
       <c r="K55" s="34"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="26"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="27"/>
-      <c r="P55" s="27"/>
-      <c r="Q55" s="27"/>
-      <c r="R55" s="27"/>
-      <c r="S55" s="27"/>
-      <c r="T55" s="27"/>
-      <c r="U55" s="27"/>
-      <c r="V55" s="27"/>
-      <c r="W55" s="27"/>
-      <c r="X55" s="27"/>
-      <c r="Y55" s="27"/>
-      <c r="Z55" s="26"/>
-      <c r="AA55" s="26"/>
-      <c r="AB55" s="26"/>
-      <c r="AC55" s="26"/>
-      <c r="AD55" s="26"/>
-      <c r="AE55" s="26"/>
-      <c r="AF55" s="27"/>
-      <c r="AG55" s="27"/>
-      <c r="AH55" s="27"/>
-      <c r="AI55" s="27"/>
-      <c r="AJ55" s="27"/>
-      <c r="AK55" s="27"/>
-      <c r="AL55" s="27"/>
-      <c r="AM55" s="27"/>
-      <c r="AN55" s="27"/>
-      <c r="AO55" s="27"/>
-      <c r="AP55" s="27"/>
-      <c r="AQ55" s="27"/>
-      <c r="AR55" s="27"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="27"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="28"/>
+      <c r="P55" s="28"/>
+      <c r="Q55" s="28"/>
+      <c r="R55" s="28"/>
+      <c r="S55" s="28"/>
+      <c r="T55" s="28"/>
+      <c r="U55" s="28"/>
+      <c r="V55" s="28"/>
+      <c r="W55" s="28"/>
+      <c r="X55" s="28"/>
+      <c r="Y55" s="28"/>
+      <c r="Z55" s="27"/>
+      <c r="AA55" s="27"/>
+      <c r="AB55" s="27"/>
+      <c r="AC55" s="27"/>
+      <c r="AD55" s="27"/>
+      <c r="AE55" s="27"/>
+      <c r="AF55" s="28"/>
+      <c r="AG55" s="28"/>
+      <c r="AH55" s="28"/>
+      <c r="AI55" s="28"/>
+      <c r="AJ55" s="28"/>
+      <c r="AK55" s="28"/>
+      <c r="AL55" s="28"/>
+      <c r="AM55" s="28"/>
+      <c r="AN55" s="28"/>
+      <c r="AO55" s="28"/>
+      <c r="AP55" s="28"/>
+      <c r="AQ55" s="28"/>
+      <c r="AR55" s="28"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="19" t="s">
@@ -5180,47 +5180,47 @@
       <c r="C56" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="26"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
       <c r="K56" s="34"/>
-      <c r="L56" s="27"/>
-      <c r="M56" s="26"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="27"/>
-      <c r="P56" s="27"/>
-      <c r="Q56" s="27"/>
-      <c r="R56" s="27"/>
-      <c r="S56" s="27"/>
-      <c r="T56" s="27"/>
-      <c r="U56" s="27"/>
-      <c r="V56" s="27"/>
-      <c r="W56" s="27"/>
-      <c r="X56" s="27"/>
-      <c r="Y56" s="27"/>
-      <c r="Z56" s="26"/>
-      <c r="AA56" s="26"/>
-      <c r="AB56" s="26"/>
-      <c r="AC56" s="26"/>
-      <c r="AD56" s="26"/>
-      <c r="AE56" s="26"/>
-      <c r="AF56" s="27"/>
-      <c r="AG56" s="27"/>
-      <c r="AH56" s="27"/>
-      <c r="AI56" s="27"/>
-      <c r="AJ56" s="27"/>
-      <c r="AK56" s="27"/>
-      <c r="AL56" s="27"/>
-      <c r="AM56" s="27"/>
-      <c r="AN56" s="27"/>
-      <c r="AO56" s="27"/>
-      <c r="AP56" s="27"/>
-      <c r="AQ56" s="27"/>
-      <c r="AR56" s="27"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="27"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="28"/>
+      <c r="P56" s="28"/>
+      <c r="Q56" s="28"/>
+      <c r="R56" s="28"/>
+      <c r="S56" s="28"/>
+      <c r="T56" s="28"/>
+      <c r="U56" s="28"/>
+      <c r="V56" s="28"/>
+      <c r="W56" s="28"/>
+      <c r="X56" s="28"/>
+      <c r="Y56" s="28"/>
+      <c r="Z56" s="27"/>
+      <c r="AA56" s="27"/>
+      <c r="AB56" s="27"/>
+      <c r="AC56" s="27"/>
+      <c r="AD56" s="27"/>
+      <c r="AE56" s="27"/>
+      <c r="AF56" s="28"/>
+      <c r="AG56" s="28"/>
+      <c r="AH56" s="28"/>
+      <c r="AI56" s="28"/>
+      <c r="AJ56" s="28"/>
+      <c r="AK56" s="28"/>
+      <c r="AL56" s="28"/>
+      <c r="AM56" s="28"/>
+      <c r="AN56" s="28"/>
+      <c r="AO56" s="28"/>
+      <c r="AP56" s="28"/>
+      <c r="AQ56" s="28"/>
+      <c r="AR56" s="28"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="19" t="s">
@@ -5232,53 +5232,53 @@
       <c r="C57" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26" t="s">
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27" t="s">
         <v>86</v>
       </c>
       <c r="K57" s="34"/>
-      <c r="L57" s="27"/>
+      <c r="L57" s="28"/>
       <c r="M57" s="35" t="s">
         <v>123</v>
       </c>
       <c r="N57" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="O57" s="27"/>
-      <c r="P57" s="27"/>
-      <c r="Q57" s="27"/>
-      <c r="R57" s="27"/>
-      <c r="S57" s="27"/>
-      <c r="T57" s="27"/>
-      <c r="U57" s="27"/>
-      <c r="V57" s="27"/>
-      <c r="W57" s="27"/>
-      <c r="X57" s="27"/>
-      <c r="Y57" s="27"/>
-      <c r="Z57" s="26"/>
-      <c r="AA57" s="26"/>
-      <c r="AB57" s="26"/>
-      <c r="AC57" s="26"/>
-      <c r="AD57" s="26"/>
-      <c r="AE57" s="26"/>
-      <c r="AF57" s="27"/>
-      <c r="AG57" s="27"/>
-      <c r="AH57" s="27"/>
-      <c r="AI57" s="27"/>
-      <c r="AJ57" s="27"/>
-      <c r="AK57" s="27"/>
-      <c r="AL57" s="27"/>
-      <c r="AM57" s="27"/>
-      <c r="AN57" s="27"/>
-      <c r="AO57" s="27"/>
-      <c r="AP57" s="27"/>
-      <c r="AQ57" s="27"/>
-      <c r="AR57" s="27"/>
+      <c r="O57" s="28"/>
+      <c r="P57" s="28"/>
+      <c r="Q57" s="28"/>
+      <c r="R57" s="28"/>
+      <c r="S57" s="28"/>
+      <c r="T57" s="28"/>
+      <c r="U57" s="28"/>
+      <c r="V57" s="28"/>
+      <c r="W57" s="28"/>
+      <c r="X57" s="28"/>
+      <c r="Y57" s="28"/>
+      <c r="Z57" s="27"/>
+      <c r="AA57" s="27"/>
+      <c r="AB57" s="27"/>
+      <c r="AC57" s="27"/>
+      <c r="AD57" s="27"/>
+      <c r="AE57" s="27"/>
+      <c r="AF57" s="28"/>
+      <c r="AG57" s="28"/>
+      <c r="AH57" s="28"/>
+      <c r="AI57" s="28"/>
+      <c r="AJ57" s="28"/>
+      <c r="AK57" s="28"/>
+      <c r="AL57" s="28"/>
+      <c r="AM57" s="28"/>
+      <c r="AN57" s="28"/>
+      <c r="AO57" s="28"/>
+      <c r="AP57" s="28"/>
+      <c r="AQ57" s="28"/>
+      <c r="AR57" s="28"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="20" t="s">
@@ -5290,47 +5290,47 @@
       <c r="C58" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
       <c r="K58" s="34"/>
       <c r="L58" s="36"/>
-      <c r="M58" s="26"/>
-      <c r="N58" s="27"/>
-      <c r="O58" s="27"/>
-      <c r="P58" s="27"/>
-      <c r="Q58" s="27"/>
-      <c r="R58" s="27"/>
-      <c r="S58" s="27"/>
-      <c r="T58" s="27"/>
-      <c r="U58" s="27"/>
-      <c r="V58" s="27"/>
-      <c r="W58" s="27"/>
-      <c r="X58" s="27"/>
-      <c r="Y58" s="27"/>
-      <c r="Z58" s="26"/>
-      <c r="AA58" s="26"/>
-      <c r="AB58" s="26"/>
-      <c r="AC58" s="26"/>
-      <c r="AD58" s="26"/>
-      <c r="AE58" s="26"/>
-      <c r="AF58" s="27"/>
-      <c r="AG58" s="27"/>
-      <c r="AH58" s="27"/>
-      <c r="AI58" s="27"/>
-      <c r="AJ58" s="27"/>
-      <c r="AK58" s="27"/>
-      <c r="AL58" s="27"/>
-      <c r="AM58" s="27"/>
-      <c r="AN58" s="27"/>
-      <c r="AO58" s="27"/>
-      <c r="AP58" s="27"/>
-      <c r="AQ58" s="27"/>
-      <c r="AR58" s="27"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="28"/>
+      <c r="O58" s="28"/>
+      <c r="P58" s="28"/>
+      <c r="Q58" s="28"/>
+      <c r="R58" s="28"/>
+      <c r="S58" s="28"/>
+      <c r="T58" s="28"/>
+      <c r="U58" s="28"/>
+      <c r="V58" s="28"/>
+      <c r="W58" s="28"/>
+      <c r="X58" s="28"/>
+      <c r="Y58" s="28"/>
+      <c r="Z58" s="27"/>
+      <c r="AA58" s="27"/>
+      <c r="AB58" s="27"/>
+      <c r="AC58" s="27"/>
+      <c r="AD58" s="27"/>
+      <c r="AE58" s="27"/>
+      <c r="AF58" s="28"/>
+      <c r="AG58" s="28"/>
+      <c r="AH58" s="28"/>
+      <c r="AI58" s="28"/>
+      <c r="AJ58" s="28"/>
+      <c r="AK58" s="28"/>
+      <c r="AL58" s="28"/>
+      <c r="AM58" s="28"/>
+      <c r="AN58" s="28"/>
+      <c r="AO58" s="28"/>
+      <c r="AP58" s="28"/>
+      <c r="AQ58" s="28"/>
+      <c r="AR58" s="28"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="19" t="s">
@@ -5338,47 +5338,47 @@
       </c>
       <c r="B59" s="19"/>
       <c r="C59" s="21"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="26"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
       <c r="K59" s="34"/>
-      <c r="L59" s="27"/>
-      <c r="M59" s="26"/>
-      <c r="N59" s="27"/>
-      <c r="O59" s="27"/>
-      <c r="P59" s="27"/>
-      <c r="Q59" s="27"/>
-      <c r="R59" s="27"/>
-      <c r="S59" s="27"/>
-      <c r="T59" s="27"/>
-      <c r="U59" s="27"/>
-      <c r="V59" s="27"/>
-      <c r="W59" s="27"/>
-      <c r="X59" s="27"/>
-      <c r="Y59" s="27"/>
-      <c r="Z59" s="26"/>
-      <c r="AA59" s="26"/>
-      <c r="AB59" s="26"/>
-      <c r="AC59" s="26"/>
-      <c r="AD59" s="26"/>
-      <c r="AE59" s="26"/>
-      <c r="AF59" s="27"/>
-      <c r="AG59" s="27"/>
-      <c r="AH59" s="27"/>
-      <c r="AI59" s="27"/>
-      <c r="AJ59" s="27"/>
-      <c r="AK59" s="27"/>
-      <c r="AL59" s="27"/>
-      <c r="AM59" s="27"/>
-      <c r="AN59" s="27"/>
-      <c r="AO59" s="27"/>
-      <c r="AP59" s="27"/>
-      <c r="AQ59" s="27"/>
-      <c r="AR59" s="27"/>
+      <c r="L59" s="28"/>
+      <c r="M59" s="27"/>
+      <c r="N59" s="28"/>
+      <c r="O59" s="28"/>
+      <c r="P59" s="28"/>
+      <c r="Q59" s="28"/>
+      <c r="R59" s="28"/>
+      <c r="S59" s="28"/>
+      <c r="T59" s="28"/>
+      <c r="U59" s="28"/>
+      <c r="V59" s="28"/>
+      <c r="W59" s="28"/>
+      <c r="X59" s="28"/>
+      <c r="Y59" s="28"/>
+      <c r="Z59" s="27"/>
+      <c r="AA59" s="27"/>
+      <c r="AB59" s="27"/>
+      <c r="AC59" s="27"/>
+      <c r="AD59" s="27"/>
+      <c r="AE59" s="27"/>
+      <c r="AF59" s="28"/>
+      <c r="AG59" s="28"/>
+      <c r="AH59" s="28"/>
+      <c r="AI59" s="28"/>
+      <c r="AJ59" s="28"/>
+      <c r="AK59" s="28"/>
+      <c r="AL59" s="28"/>
+      <c r="AM59" s="28"/>
+      <c r="AN59" s="28"/>
+      <c r="AO59" s="28"/>
+      <c r="AP59" s="28"/>
+      <c r="AQ59" s="28"/>
+      <c r="AR59" s="28"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="19" t="s">
@@ -5388,47 +5388,47 @@
         <v>111</v>
       </c>
       <c r="C60" s="21"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
       <c r="K60" s="34"/>
-      <c r="L60" s="27"/>
-      <c r="M60" s="26"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="27"/>
-      <c r="P60" s="27"/>
-      <c r="Q60" s="27"/>
-      <c r="R60" s="27"/>
-      <c r="S60" s="27"/>
-      <c r="T60" s="27"/>
-      <c r="U60" s="27"/>
-      <c r="V60" s="27"/>
-      <c r="W60" s="27"/>
-      <c r="X60" s="27"/>
-      <c r="Y60" s="27"/>
-      <c r="Z60" s="26"/>
-      <c r="AA60" s="26"/>
-      <c r="AB60" s="26"/>
-      <c r="AC60" s="26"/>
-      <c r="AD60" s="26"/>
-      <c r="AE60" s="26"/>
-      <c r="AF60" s="27"/>
-      <c r="AG60" s="27"/>
-      <c r="AH60" s="27"/>
-      <c r="AI60" s="27"/>
-      <c r="AJ60" s="27"/>
-      <c r="AK60" s="27"/>
-      <c r="AL60" s="27"/>
-      <c r="AM60" s="27"/>
-      <c r="AN60" s="27"/>
-      <c r="AO60" s="27"/>
-      <c r="AP60" s="27"/>
-      <c r="AQ60" s="27"/>
-      <c r="AR60" s="27"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="27"/>
+      <c r="N60" s="28"/>
+      <c r="O60" s="28"/>
+      <c r="P60" s="28"/>
+      <c r="Q60" s="28"/>
+      <c r="R60" s="28"/>
+      <c r="S60" s="28"/>
+      <c r="T60" s="28"/>
+      <c r="U60" s="28"/>
+      <c r="V60" s="28"/>
+      <c r="W60" s="28"/>
+      <c r="X60" s="28"/>
+      <c r="Y60" s="28"/>
+      <c r="Z60" s="27"/>
+      <c r="AA60" s="27"/>
+      <c r="AB60" s="27"/>
+      <c r="AC60" s="27"/>
+      <c r="AD60" s="27"/>
+      <c r="AE60" s="27"/>
+      <c r="AF60" s="28"/>
+      <c r="AG60" s="28"/>
+      <c r="AH60" s="28"/>
+      <c r="AI60" s="28"/>
+      <c r="AJ60" s="28"/>
+      <c r="AK60" s="28"/>
+      <c r="AL60" s="28"/>
+      <c r="AM60" s="28"/>
+      <c r="AN60" s="28"/>
+      <c r="AO60" s="28"/>
+      <c r="AP60" s="28"/>
+      <c r="AQ60" s="28"/>
+      <c r="AR60" s="28"/>
     </row>
     <row r="61" ht="12.75" customHeight="1">
       <c r="A61" s="37"/>
@@ -5486,47 +5486,47 @@
       <c r="C62" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="26"/>
-      <c r="J62" s="26"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
       <c r="K62" s="30"/>
-      <c r="L62" s="27"/>
-      <c r="M62" s="26"/>
-      <c r="N62" s="27"/>
-      <c r="O62" s="27"/>
-      <c r="P62" s="27"/>
-      <c r="Q62" s="27"/>
-      <c r="R62" s="27"/>
-      <c r="S62" s="27"/>
-      <c r="T62" s="27"/>
-      <c r="U62" s="27"/>
-      <c r="V62" s="27"/>
-      <c r="W62" s="27"/>
-      <c r="X62" s="27"/>
-      <c r="Y62" s="27"/>
-      <c r="Z62" s="26"/>
-      <c r="AA62" s="26"/>
-      <c r="AB62" s="26"/>
-      <c r="AC62" s="26"/>
-      <c r="AD62" s="26"/>
-      <c r="AE62" s="26"/>
-      <c r="AF62" s="27"/>
-      <c r="AG62" s="27"/>
-      <c r="AH62" s="27"/>
-      <c r="AI62" s="27"/>
-      <c r="AJ62" s="27"/>
-      <c r="AK62" s="27"/>
-      <c r="AL62" s="27"/>
-      <c r="AM62" s="27"/>
-      <c r="AN62" s="27"/>
-      <c r="AO62" s="27"/>
-      <c r="AP62" s="27"/>
-      <c r="AQ62" s="27"/>
-      <c r="AR62" s="27"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="27"/>
+      <c r="N62" s="28"/>
+      <c r="O62" s="28"/>
+      <c r="P62" s="28"/>
+      <c r="Q62" s="28"/>
+      <c r="R62" s="28"/>
+      <c r="S62" s="28"/>
+      <c r="T62" s="28"/>
+      <c r="U62" s="28"/>
+      <c r="V62" s="28"/>
+      <c r="W62" s="28"/>
+      <c r="X62" s="28"/>
+      <c r="Y62" s="28"/>
+      <c r="Z62" s="27"/>
+      <c r="AA62" s="27"/>
+      <c r="AB62" s="27"/>
+      <c r="AC62" s="27"/>
+      <c r="AD62" s="27"/>
+      <c r="AE62" s="27"/>
+      <c r="AF62" s="28"/>
+      <c r="AG62" s="28"/>
+      <c r="AH62" s="28"/>
+      <c r="AI62" s="28"/>
+      <c r="AJ62" s="28"/>
+      <c r="AK62" s="28"/>
+      <c r="AL62" s="28"/>
+      <c r="AM62" s="28"/>
+      <c r="AN62" s="28"/>
+      <c r="AO62" s="28"/>
+      <c r="AP62" s="28"/>
+      <c r="AQ62" s="28"/>
+      <c r="AR62" s="28"/>
     </row>
     <row r="63" ht="12.75" customHeight="1">
       <c r="A63" s="40" t="s">
@@ -5538,36 +5538,36 @@
       <c r="C63" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="26"/>
-      <c r="J63" s="26"/>
-      <c r="K63" s="26"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="27"/>
       <c r="L63" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="M63" s="26"/>
+      <c r="M63" s="27"/>
       <c r="N63" s="22"/>
-      <c r="O63" s="26"/>
-      <c r="P63" s="26"/>
-      <c r="Q63" s="26"/>
-      <c r="R63" s="26"/>
-      <c r="S63" s="26"/>
-      <c r="T63" s="26"/>
+      <c r="O63" s="27"/>
+      <c r="P63" s="27"/>
+      <c r="Q63" s="27"/>
+      <c r="R63" s="27"/>
+      <c r="S63" s="27"/>
+      <c r="T63" s="27"/>
       <c r="U63" s="22"/>
       <c r="V63" s="22"/>
       <c r="W63" s="22"/>
-      <c r="X63" s="26"/>
-      <c r="Y63" s="26"/>
-      <c r="Z63" s="26"/>
-      <c r="AA63" s="26"/>
-      <c r="AB63" s="26"/>
-      <c r="AC63" s="26"/>
-      <c r="AD63" s="26"/>
-      <c r="AE63" s="26"/>
+      <c r="X63" s="27"/>
+      <c r="Y63" s="27"/>
+      <c r="Z63" s="27"/>
+      <c r="AA63" s="27"/>
+      <c r="AB63" s="27"/>
+      <c r="AC63" s="27"/>
+      <c r="AD63" s="27"/>
+      <c r="AE63" s="27"/>
       <c r="AF63" s="22"/>
       <c r="AG63" s="22"/>
       <c r="AH63" s="22"/>
@@ -5592,34 +5592,34 @@
       <c r="C64" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="26"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="27"/>
       <c r="L64" s="22"/>
-      <c r="M64" s="26"/>
+      <c r="M64" s="27"/>
       <c r="N64" s="22"/>
-      <c r="O64" s="26"/>
-      <c r="P64" s="26"/>
-      <c r="Q64" s="26"/>
-      <c r="R64" s="26"/>
-      <c r="S64" s="26"/>
-      <c r="T64" s="26"/>
+      <c r="O64" s="27"/>
+      <c r="P64" s="27"/>
+      <c r="Q64" s="27"/>
+      <c r="R64" s="27"/>
+      <c r="S64" s="27"/>
+      <c r="T64" s="27"/>
       <c r="U64" s="22"/>
       <c r="V64" s="22"/>
       <c r="W64" s="22"/>
-      <c r="X64" s="26"/>
-      <c r="Y64" s="26"/>
-      <c r="Z64" s="26"/>
-      <c r="AA64" s="26"/>
-      <c r="AB64" s="26"/>
-      <c r="AC64" s="26"/>
-      <c r="AD64" s="26"/>
-      <c r="AE64" s="26"/>
+      <c r="X64" s="27"/>
+      <c r="Y64" s="27"/>
+      <c r="Z64" s="27"/>
+      <c r="AA64" s="27"/>
+      <c r="AB64" s="27"/>
+      <c r="AC64" s="27"/>
+      <c r="AD64" s="27"/>
+      <c r="AE64" s="27"/>
       <c r="AF64" s="22"/>
       <c r="AG64" s="22"/>
       <c r="AH64" s="22"/>
@@ -5644,42 +5644,42 @@
       <c r="C65" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
       <c r="J65" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="K65" s="26"/>
+      <c r="K65" s="27"/>
       <c r="L65" s="22"/>
       <c r="M65" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="N65" s="28" t="s">
+      <c r="N65" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="O65" s="26"/>
-      <c r="P65" s="26"/>
-      <c r="Q65" s="26"/>
-      <c r="R65" s="26"/>
-      <c r="S65" s="26"/>
-      <c r="T65" s="26"/>
+      <c r="O65" s="27"/>
+      <c r="P65" s="27"/>
+      <c r="Q65" s="27"/>
+      <c r="R65" s="27"/>
+      <c r="S65" s="27"/>
+      <c r="T65" s="27"/>
       <c r="U65" s="22"/>
       <c r="V65" s="22"/>
       <c r="W65" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="X65" s="26"/>
-      <c r="Y65" s="26"/>
-      <c r="Z65" s="26"/>
-      <c r="AA65" s="26"/>
-      <c r="AB65" s="26"/>
-      <c r="AC65" s="26"/>
-      <c r="AD65" s="26"/>
-      <c r="AE65" s="26"/>
+      <c r="X65" s="27"/>
+      <c r="Y65" s="27"/>
+      <c r="Z65" s="27"/>
+      <c r="AA65" s="27"/>
+      <c r="AB65" s="27"/>
+      <c r="AC65" s="27"/>
+      <c r="AD65" s="27"/>
+      <c r="AE65" s="27"/>
       <c r="AF65" s="22"/>
       <c r="AG65" s="22"/>
       <c r="AH65" s="22"/>
@@ -5704,36 +5704,36 @@
       <c r="C66" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="26"/>
-      <c r="K66" s="26" t="s">
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="27" t="s">
         <v>141</v>
       </c>
       <c r="L66" s="22"/>
-      <c r="M66" s="26"/>
+      <c r="M66" s="27"/>
       <c r="N66" s="22"/>
-      <c r="O66" s="26"/>
-      <c r="P66" s="26"/>
-      <c r="Q66" s="26"/>
-      <c r="R66" s="26"/>
-      <c r="S66" s="26"/>
-      <c r="T66" s="26"/>
+      <c r="O66" s="27"/>
+      <c r="P66" s="27"/>
+      <c r="Q66" s="27"/>
+      <c r="R66" s="27"/>
+      <c r="S66" s="27"/>
+      <c r="T66" s="27"/>
       <c r="U66" s="22"/>
       <c r="V66" s="22"/>
       <c r="W66" s="22"/>
-      <c r="X66" s="26"/>
-      <c r="Y66" s="26"/>
-      <c r="Z66" s="26"/>
-      <c r="AA66" s="26"/>
-      <c r="AB66" s="26"/>
-      <c r="AC66" s="26"/>
-      <c r="AD66" s="26"/>
-      <c r="AE66" s="26"/>
+      <c r="X66" s="27"/>
+      <c r="Y66" s="27"/>
+      <c r="Z66" s="27"/>
+      <c r="AA66" s="27"/>
+      <c r="AB66" s="27"/>
+      <c r="AC66" s="27"/>
+      <c r="AD66" s="27"/>
+      <c r="AE66" s="27"/>
       <c r="AF66" s="22"/>
       <c r="AG66" s="22"/>
       <c r="AH66" s="22"/>
@@ -5758,36 +5758,36 @@
       <c r="C67" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="26"/>
-      <c r="K67" s="26" t="s">
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="27" t="s">
         <v>141</v>
       </c>
       <c r="L67" s="22"/>
-      <c r="M67" s="26"/>
+      <c r="M67" s="27"/>
       <c r="N67" s="22"/>
-      <c r="O67" s="26"/>
-      <c r="P67" s="26"/>
-      <c r="Q67" s="26"/>
-      <c r="R67" s="26"/>
-      <c r="S67" s="26"/>
-      <c r="T67" s="26"/>
+      <c r="O67" s="27"/>
+      <c r="P67" s="27"/>
+      <c r="Q67" s="27"/>
+      <c r="R67" s="27"/>
+      <c r="S67" s="27"/>
+      <c r="T67" s="27"/>
       <c r="U67" s="22"/>
       <c r="V67" s="22"/>
       <c r="W67" s="22"/>
-      <c r="X67" s="26"/>
-      <c r="Y67" s="26"/>
-      <c r="Z67" s="26"/>
-      <c r="AA67" s="26"/>
-      <c r="AB67" s="26"/>
-      <c r="AC67" s="26"/>
-      <c r="AD67" s="26"/>
-      <c r="AE67" s="26"/>
+      <c r="X67" s="27"/>
+      <c r="Y67" s="27"/>
+      <c r="Z67" s="27"/>
+      <c r="AA67" s="27"/>
+      <c r="AB67" s="27"/>
+      <c r="AC67" s="27"/>
+      <c r="AD67" s="27"/>
+      <c r="AE67" s="27"/>
       <c r="AF67" s="22"/>
       <c r="AG67" s="22"/>
       <c r="AH67" s="22"/>
@@ -5812,36 +5812,36 @@
       <c r="C68" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26"/>
-      <c r="I68" s="26"/>
-      <c r="J68" s="26"/>
-      <c r="K68" s="26" t="s">
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="27" t="s">
         <v>141</v>
       </c>
       <c r="L68" s="22"/>
-      <c r="M68" s="26"/>
+      <c r="M68" s="27"/>
       <c r="N68" s="22"/>
-      <c r="O68" s="26"/>
-      <c r="P68" s="26"/>
-      <c r="Q68" s="26"/>
-      <c r="R68" s="26"/>
-      <c r="S68" s="26"/>
-      <c r="T68" s="26"/>
+      <c r="O68" s="27"/>
+      <c r="P68" s="27"/>
+      <c r="Q68" s="27"/>
+      <c r="R68" s="27"/>
+      <c r="S68" s="27"/>
+      <c r="T68" s="27"/>
       <c r="U68" s="22"/>
       <c r="V68" s="22"/>
       <c r="W68" s="22"/>
-      <c r="X68" s="26"/>
-      <c r="Y68" s="26"/>
-      <c r="Z68" s="26"/>
-      <c r="AA68" s="26"/>
-      <c r="AB68" s="26"/>
-      <c r="AC68" s="26"/>
-      <c r="AD68" s="26"/>
-      <c r="AE68" s="26"/>
+      <c r="X68" s="27"/>
+      <c r="Y68" s="27"/>
+      <c r="Z68" s="27"/>
+      <c r="AA68" s="27"/>
+      <c r="AB68" s="27"/>
+      <c r="AC68" s="27"/>
+      <c r="AD68" s="27"/>
+      <c r="AE68" s="27"/>
       <c r="AF68" s="22"/>
       <c r="AG68" s="22"/>
       <c r="AH68" s="22"/>
@@ -5866,14 +5866,14 @@
       <c r="C69" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26"/>
-      <c r="K69" s="26" t="s">
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="27" t="s">
         <v>141</v>
       </c>
       <c r="L69" s="22"/>
@@ -5883,23 +5883,23 @@
       <c r="N69" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="O69" s="26"/>
-      <c r="P69" s="26"/>
-      <c r="Q69" s="26"/>
-      <c r="R69" s="26"/>
-      <c r="S69" s="26"/>
-      <c r="T69" s="26"/>
+      <c r="O69" s="27"/>
+      <c r="P69" s="27"/>
+      <c r="Q69" s="27"/>
+      <c r="R69" s="27"/>
+      <c r="S69" s="27"/>
+      <c r="T69" s="27"/>
       <c r="U69" s="22"/>
       <c r="V69" s="22"/>
       <c r="W69" s="22"/>
-      <c r="X69" s="26"/>
-      <c r="Y69" s="26"/>
-      <c r="Z69" s="26"/>
-      <c r="AA69" s="26"/>
-      <c r="AB69" s="26"/>
-      <c r="AC69" s="26"/>
-      <c r="AD69" s="26"/>
-      <c r="AE69" s="26"/>
+      <c r="X69" s="27"/>
+      <c r="Y69" s="27"/>
+      <c r="Z69" s="27"/>
+      <c r="AA69" s="27"/>
+      <c r="AB69" s="27"/>
+      <c r="AC69" s="27"/>
+      <c r="AD69" s="27"/>
+      <c r="AE69" s="27"/>
       <c r="AF69" s="22"/>
       <c r="AG69" s="22"/>
       <c r="AH69" s="22"/>
@@ -5924,14 +5924,14 @@
       <c r="C70" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="26"/>
-      <c r="K70" s="26" t="s">
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="27" t="s">
         <v>141</v>
       </c>
       <c r="L70" s="22"/>
@@ -5941,23 +5941,23 @@
       <c r="N70" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="O70" s="26"/>
-      <c r="P70" s="26"/>
-      <c r="Q70" s="26"/>
-      <c r="R70" s="26"/>
-      <c r="S70" s="26"/>
-      <c r="T70" s="26"/>
+      <c r="O70" s="27"/>
+      <c r="P70" s="27"/>
+      <c r="Q70" s="27"/>
+      <c r="R70" s="27"/>
+      <c r="S70" s="27"/>
+      <c r="T70" s="27"/>
       <c r="U70" s="22"/>
       <c r="V70" s="22"/>
       <c r="W70" s="22"/>
-      <c r="X70" s="26"/>
-      <c r="Y70" s="26"/>
-      <c r="Z70" s="26"/>
-      <c r="AA70" s="26"/>
-      <c r="AB70" s="26"/>
-      <c r="AC70" s="26"/>
-      <c r="AD70" s="26"/>
-      <c r="AE70" s="26"/>
+      <c r="X70" s="27"/>
+      <c r="Y70" s="27"/>
+      <c r="Z70" s="27"/>
+      <c r="AA70" s="27"/>
+      <c r="AB70" s="27"/>
+      <c r="AC70" s="27"/>
+      <c r="AD70" s="27"/>
+      <c r="AE70" s="27"/>
       <c r="AF70" s="22"/>
       <c r="AG70" s="22"/>
       <c r="AH70" s="22"/>
@@ -5982,14 +5982,14 @@
       <c r="C71" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="26"/>
-      <c r="I71" s="26"/>
-      <c r="J71" s="26"/>
-      <c r="K71" s="26" t="s">
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="27" t="s">
         <v>141</v>
       </c>
       <c r="L71" s="22"/>
@@ -5997,23 +5997,23 @@
       <c r="N71" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="O71" s="26"/>
-      <c r="P71" s="26"/>
-      <c r="Q71" s="26"/>
-      <c r="R71" s="26"/>
-      <c r="S71" s="26"/>
-      <c r="T71" s="26"/>
+      <c r="O71" s="27"/>
+      <c r="P71" s="27"/>
+      <c r="Q71" s="27"/>
+      <c r="R71" s="27"/>
+      <c r="S71" s="27"/>
+      <c r="T71" s="27"/>
       <c r="U71" s="22"/>
       <c r="V71" s="22"/>
       <c r="W71" s="22"/>
-      <c r="X71" s="26"/>
-      <c r="Y71" s="26"/>
-      <c r="Z71" s="26"/>
-      <c r="AA71" s="26"/>
-      <c r="AB71" s="26"/>
-      <c r="AC71" s="26"/>
-      <c r="AD71" s="26"/>
-      <c r="AE71" s="26"/>
+      <c r="X71" s="27"/>
+      <c r="Y71" s="27"/>
+      <c r="Z71" s="27"/>
+      <c r="AA71" s="27"/>
+      <c r="AB71" s="27"/>
+      <c r="AC71" s="27"/>
+      <c r="AD71" s="27"/>
+      <c r="AE71" s="27"/>
       <c r="AF71" s="22"/>
       <c r="AG71" s="22"/>
       <c r="AH71" s="22"/>
@@ -6084,36 +6084,36 @@
       <c r="C73" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="26"/>
-      <c r="I73" s="26"/>
-      <c r="J73" s="26"/>
-      <c r="K73" s="26" t="s">
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
+      <c r="K73" s="27" t="s">
         <v>154</v>
       </c>
       <c r="L73" s="22"/>
-      <c r="M73" s="26"/>
+      <c r="M73" s="27"/>
       <c r="N73" s="22"/>
-      <c r="O73" s="26"/>
-      <c r="P73" s="26"/>
-      <c r="Q73" s="26"/>
-      <c r="R73" s="26"/>
-      <c r="S73" s="26"/>
-      <c r="T73" s="26"/>
+      <c r="O73" s="27"/>
+      <c r="P73" s="27"/>
+      <c r="Q73" s="27"/>
+      <c r="R73" s="27"/>
+      <c r="S73" s="27"/>
+      <c r="T73" s="27"/>
       <c r="U73" s="22"/>
       <c r="V73" s="22"/>
       <c r="W73" s="22"/>
-      <c r="X73" s="26"/>
-      <c r="Y73" s="26"/>
-      <c r="Z73" s="26"/>
-      <c r="AA73" s="26"/>
-      <c r="AB73" s="26"/>
-      <c r="AC73" s="26"/>
-      <c r="AD73" s="26"/>
-      <c r="AE73" s="26"/>
+      <c r="X73" s="27"/>
+      <c r="Y73" s="27"/>
+      <c r="Z73" s="27"/>
+      <c r="AA73" s="27"/>
+      <c r="AB73" s="27"/>
+      <c r="AC73" s="27"/>
+      <c r="AD73" s="27"/>
+      <c r="AE73" s="27"/>
       <c r="AF73" s="22"/>
       <c r="AG73" s="22"/>
       <c r="AH73" s="22"/>
@@ -6138,36 +6138,36 @@
       <c r="C74" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="26"/>
-      <c r="I74" s="26"/>
-      <c r="J74" s="26"/>
-      <c r="K74" s="26" t="s">
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="27" t="s">
         <v>154</v>
       </c>
       <c r="L74" s="22"/>
-      <c r="M74" s="26"/>
+      <c r="M74" s="27"/>
       <c r="N74" s="22"/>
-      <c r="O74" s="26"/>
-      <c r="P74" s="26"/>
-      <c r="Q74" s="26"/>
-      <c r="R74" s="26"/>
-      <c r="S74" s="26"/>
-      <c r="T74" s="26"/>
+      <c r="O74" s="27"/>
+      <c r="P74" s="27"/>
+      <c r="Q74" s="27"/>
+      <c r="R74" s="27"/>
+      <c r="S74" s="27"/>
+      <c r="T74" s="27"/>
       <c r="U74" s="22"/>
       <c r="V74" s="22"/>
       <c r="W74" s="22"/>
-      <c r="X74" s="26"/>
-      <c r="Y74" s="26"/>
-      <c r="Z74" s="26"/>
-      <c r="AA74" s="26"/>
-      <c r="AB74" s="26"/>
-      <c r="AC74" s="26"/>
-      <c r="AD74" s="26"/>
-      <c r="AE74" s="26"/>
+      <c r="X74" s="27"/>
+      <c r="Y74" s="27"/>
+      <c r="Z74" s="27"/>
+      <c r="AA74" s="27"/>
+      <c r="AB74" s="27"/>
+      <c r="AC74" s="27"/>
+      <c r="AD74" s="27"/>
+      <c r="AE74" s="27"/>
       <c r="AF74" s="22" t="s">
         <v>39</v>
       </c>
@@ -6194,36 +6194,36 @@
       <c r="C75" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D75" s="26"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="26"/>
-      <c r="H75" s="26"/>
-      <c r="I75" s="26"/>
-      <c r="J75" s="26"/>
-      <c r="K75" s="26" t="s">
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="27" t="s">
         <v>154</v>
       </c>
       <c r="L75" s="22"/>
-      <c r="M75" s="26"/>
+      <c r="M75" s="27"/>
       <c r="N75" s="22"/>
-      <c r="O75" s="26"/>
-      <c r="P75" s="26"/>
-      <c r="Q75" s="26"/>
-      <c r="R75" s="26"/>
-      <c r="S75" s="26"/>
-      <c r="T75" s="26"/>
+      <c r="O75" s="27"/>
+      <c r="P75" s="27"/>
+      <c r="Q75" s="27"/>
+      <c r="R75" s="27"/>
+      <c r="S75" s="27"/>
+      <c r="T75" s="27"/>
       <c r="U75" s="22"/>
       <c r="V75" s="22"/>
       <c r="W75" s="22"/>
-      <c r="X75" s="26"/>
-      <c r="Y75" s="26"/>
-      <c r="Z75" s="26"/>
-      <c r="AA75" s="26"/>
-      <c r="AB75" s="26"/>
-      <c r="AC75" s="26"/>
-      <c r="AD75" s="26"/>
-      <c r="AE75" s="26"/>
+      <c r="X75" s="27"/>
+      <c r="Y75" s="27"/>
+      <c r="Z75" s="27"/>
+      <c r="AA75" s="27"/>
+      <c r="AB75" s="27"/>
+      <c r="AC75" s="27"/>
+      <c r="AD75" s="27"/>
+      <c r="AE75" s="27"/>
       <c r="AF75" s="22"/>
       <c r="AG75" s="22" t="s">
         <v>159</v>
@@ -6250,36 +6250,36 @@
       <c r="C76" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="26"/>
-      <c r="G76" s="26"/>
-      <c r="H76" s="26"/>
-      <c r="I76" s="26"/>
-      <c r="J76" s="26"/>
-      <c r="K76" s="26" t="s">
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="27" t="s">
         <v>154</v>
       </c>
       <c r="L76" s="22"/>
-      <c r="M76" s="26"/>
+      <c r="M76" s="27"/>
       <c r="N76" s="22"/>
-      <c r="O76" s="26"/>
-      <c r="P76" s="26"/>
-      <c r="Q76" s="26"/>
-      <c r="R76" s="26"/>
-      <c r="S76" s="26"/>
-      <c r="T76" s="26"/>
+      <c r="O76" s="27"/>
+      <c r="P76" s="27"/>
+      <c r="Q76" s="27"/>
+      <c r="R76" s="27"/>
+      <c r="S76" s="27"/>
+      <c r="T76" s="27"/>
       <c r="U76" s="22"/>
       <c r="V76" s="22"/>
       <c r="W76" s="22"/>
-      <c r="X76" s="26"/>
-      <c r="Y76" s="26"/>
-      <c r="Z76" s="26"/>
-      <c r="AA76" s="26"/>
-      <c r="AB76" s="26"/>
-      <c r="AC76" s="26"/>
-      <c r="AD76" s="26"/>
-      <c r="AE76" s="26"/>
+      <c r="X76" s="27"/>
+      <c r="Y76" s="27"/>
+      <c r="Z76" s="27"/>
+      <c r="AA76" s="27"/>
+      <c r="AB76" s="27"/>
+      <c r="AC76" s="27"/>
+      <c r="AD76" s="27"/>
+      <c r="AE76" s="27"/>
       <c r="AF76" s="22"/>
       <c r="AG76" s="22"/>
       <c r="AH76" s="22"/>
@@ -6304,36 +6304,36 @@
       <c r="C77" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="26"/>
-      <c r="I77" s="26"/>
-      <c r="J77" s="26"/>
-      <c r="K77" s="26" t="s">
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="27"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="27"/>
+      <c r="K77" s="27" t="s">
         <v>154</v>
       </c>
       <c r="L77" s="22"/>
-      <c r="M77" s="26"/>
+      <c r="M77" s="27"/>
       <c r="N77" s="22"/>
-      <c r="O77" s="26"/>
-      <c r="P77" s="26"/>
-      <c r="Q77" s="26"/>
-      <c r="R77" s="26"/>
-      <c r="S77" s="26"/>
-      <c r="T77" s="26"/>
+      <c r="O77" s="27"/>
+      <c r="P77" s="27"/>
+      <c r="Q77" s="27"/>
+      <c r="R77" s="27"/>
+      <c r="S77" s="27"/>
+      <c r="T77" s="27"/>
       <c r="U77" s="22"/>
       <c r="V77" s="22"/>
       <c r="W77" s="22"/>
-      <c r="X77" s="26"/>
-      <c r="Y77" s="26"/>
-      <c r="Z77" s="26"/>
-      <c r="AA77" s="26"/>
-      <c r="AB77" s="26"/>
-      <c r="AC77" s="26"/>
-      <c r="AD77" s="26"/>
-      <c r="AE77" s="26"/>
+      <c r="X77" s="27"/>
+      <c r="Y77" s="27"/>
+      <c r="Z77" s="27"/>
+      <c r="AA77" s="27"/>
+      <c r="AB77" s="27"/>
+      <c r="AC77" s="27"/>
+      <c r="AD77" s="27"/>
+      <c r="AE77" s="27"/>
       <c r="AF77" s="22"/>
       <c r="AG77" s="22"/>
       <c r="AH77" s="22"/>
@@ -6358,36 +6358,36 @@
       <c r="C78" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="26"/>
-      <c r="J78" s="26"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="27"/>
       <c r="K78" s="29" t="s">
         <v>154</v>
       </c>
       <c r="L78" s="22"/>
-      <c r="M78" s="26"/>
+      <c r="M78" s="27"/>
       <c r="N78" s="22"/>
-      <c r="O78" s="26"/>
-      <c r="P78" s="26"/>
-      <c r="Q78" s="26"/>
-      <c r="R78" s="26"/>
-      <c r="S78" s="26"/>
-      <c r="T78" s="26"/>
+      <c r="O78" s="27"/>
+      <c r="P78" s="27"/>
+      <c r="Q78" s="27"/>
+      <c r="R78" s="27"/>
+      <c r="S78" s="27"/>
+      <c r="T78" s="27"/>
       <c r="U78" s="22"/>
       <c r="V78" s="22"/>
       <c r="W78" s="22"/>
-      <c r="X78" s="26"/>
-      <c r="Y78" s="26"/>
-      <c r="Z78" s="26"/>
-      <c r="AA78" s="26"/>
-      <c r="AB78" s="26"/>
-      <c r="AC78" s="26"/>
-      <c r="AD78" s="26"/>
-      <c r="AE78" s="26"/>
+      <c r="X78" s="27"/>
+      <c r="Y78" s="27"/>
+      <c r="Z78" s="27"/>
+      <c r="AA78" s="27"/>
+      <c r="AB78" s="27"/>
+      <c r="AC78" s="27"/>
+      <c r="AD78" s="27"/>
+      <c r="AE78" s="27"/>
       <c r="AF78" s="22"/>
       <c r="AG78" s="22"/>
       <c r="AH78" s="22"/>
@@ -6412,13 +6412,13 @@
       <c r="C79" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="26"/>
-      <c r="H79" s="26"/>
-      <c r="I79" s="26"/>
-      <c r="J79" s="26"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="27"/>
+      <c r="J79" s="27"/>
       <c r="K79" s="29" t="s">
         <v>154</v>
       </c>
@@ -6429,23 +6429,23 @@
       <c r="N79" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="O79" s="26"/>
-      <c r="P79" s="26"/>
-      <c r="Q79" s="26"/>
-      <c r="R79" s="26"/>
-      <c r="S79" s="26"/>
-      <c r="T79" s="26"/>
+      <c r="O79" s="27"/>
+      <c r="P79" s="27"/>
+      <c r="Q79" s="27"/>
+      <c r="R79" s="27"/>
+      <c r="S79" s="27"/>
+      <c r="T79" s="27"/>
       <c r="U79" s="22"/>
       <c r="V79" s="22"/>
       <c r="W79" s="22"/>
-      <c r="X79" s="26"/>
-      <c r="Y79" s="26"/>
-      <c r="Z79" s="26"/>
-      <c r="AA79" s="26"/>
-      <c r="AB79" s="26"/>
-      <c r="AC79" s="26"/>
-      <c r="AD79" s="26"/>
-      <c r="AE79" s="26"/>
+      <c r="X79" s="27"/>
+      <c r="Y79" s="27"/>
+      <c r="Z79" s="27"/>
+      <c r="AA79" s="27"/>
+      <c r="AB79" s="27"/>
+      <c r="AC79" s="27"/>
+      <c r="AD79" s="27"/>
+      <c r="AE79" s="27"/>
       <c r="AF79" s="22"/>
       <c r="AG79" s="22"/>
       <c r="AH79" s="22"/>
@@ -6470,13 +6470,13 @@
       <c r="C80" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="D80" s="26"/>
-      <c r="E80" s="26"/>
-      <c r="F80" s="26"/>
-      <c r="G80" s="26"/>
-      <c r="H80" s="26"/>
-      <c r="I80" s="26"/>
-      <c r="J80" s="26"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="27"/>
+      <c r="J80" s="27"/>
       <c r="K80" s="29" t="s">
         <v>154</v>
       </c>
@@ -6487,23 +6487,23 @@
       <c r="N80" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="O80" s="26"/>
-      <c r="P80" s="26"/>
-      <c r="Q80" s="26"/>
-      <c r="R80" s="26"/>
-      <c r="S80" s="26"/>
-      <c r="T80" s="26"/>
+      <c r="O80" s="27"/>
+      <c r="P80" s="27"/>
+      <c r="Q80" s="27"/>
+      <c r="R80" s="27"/>
+      <c r="S80" s="27"/>
+      <c r="T80" s="27"/>
       <c r="U80" s="22"/>
       <c r="V80" s="22"/>
       <c r="W80" s="22"/>
-      <c r="X80" s="26"/>
-      <c r="Y80" s="26"/>
-      <c r="Z80" s="26"/>
-      <c r="AA80" s="26"/>
-      <c r="AB80" s="26"/>
-      <c r="AC80" s="26"/>
-      <c r="AD80" s="26"/>
-      <c r="AE80" s="26"/>
+      <c r="X80" s="27"/>
+      <c r="Y80" s="27"/>
+      <c r="Z80" s="27"/>
+      <c r="AA80" s="27"/>
+      <c r="AB80" s="27"/>
+      <c r="AC80" s="27"/>
+      <c r="AD80" s="27"/>
+      <c r="AE80" s="27"/>
       <c r="AF80" s="22"/>
       <c r="AG80" s="22"/>
       <c r="AH80" s="22"/>
@@ -6528,13 +6528,13 @@
       <c r="C81" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="26"/>
-      <c r="I81" s="26"/>
-      <c r="J81" s="26"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="27"/>
+      <c r="I81" s="27"/>
+      <c r="J81" s="27"/>
       <c r="K81" s="29" t="s">
         <v>154</v>
       </c>
@@ -6543,23 +6543,23 @@
       <c r="N81" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="O81" s="26"/>
-      <c r="P81" s="26"/>
-      <c r="Q81" s="26"/>
-      <c r="R81" s="26"/>
-      <c r="S81" s="26"/>
-      <c r="T81" s="26"/>
+      <c r="O81" s="27"/>
+      <c r="P81" s="27"/>
+      <c r="Q81" s="27"/>
+      <c r="R81" s="27"/>
+      <c r="S81" s="27"/>
+      <c r="T81" s="27"/>
       <c r="U81" s="22"/>
       <c r="V81" s="22"/>
       <c r="W81" s="22"/>
-      <c r="X81" s="26"/>
-      <c r="Y81" s="26"/>
-      <c r="Z81" s="26"/>
-      <c r="AA81" s="26"/>
-      <c r="AB81" s="26"/>
-      <c r="AC81" s="26"/>
-      <c r="AD81" s="26"/>
-      <c r="AE81" s="26"/>
+      <c r="X81" s="27"/>
+      <c r="Y81" s="27"/>
+      <c r="Z81" s="27"/>
+      <c r="AA81" s="27"/>
+      <c r="AB81" s="27"/>
+      <c r="AC81" s="27"/>
+      <c r="AD81" s="27"/>
+      <c r="AE81" s="27"/>
       <c r="AF81" s="22"/>
       <c r="AG81" s="22"/>
       <c r="AH81" s="22"/>
@@ -6584,34 +6584,34 @@
       <c r="C82" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D82" s="26"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="26"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="26"/>
-      <c r="I82" s="26"/>
-      <c r="J82" s="26"/>
-      <c r="K82" s="26"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="27"/>
+      <c r="I82" s="27"/>
+      <c r="J82" s="27"/>
+      <c r="K82" s="27"/>
       <c r="L82" s="22"/>
-      <c r="M82" s="26"/>
+      <c r="M82" s="27"/>
       <c r="N82" s="22"/>
-      <c r="O82" s="26"/>
-      <c r="P82" s="26"/>
-      <c r="Q82" s="26"/>
-      <c r="R82" s="26"/>
-      <c r="S82" s="26"/>
-      <c r="T82" s="26"/>
+      <c r="O82" s="27"/>
+      <c r="P82" s="27"/>
+      <c r="Q82" s="27"/>
+      <c r="R82" s="27"/>
+      <c r="S82" s="27"/>
+      <c r="T82" s="27"/>
       <c r="U82" s="22"/>
       <c r="V82" s="22"/>
       <c r="W82" s="22"/>
-      <c r="X82" s="26"/>
-      <c r="Y82" s="26"/>
-      <c r="Z82" s="26"/>
-      <c r="AA82" s="26"/>
-      <c r="AB82" s="26"/>
-      <c r="AC82" s="26"/>
-      <c r="AD82" s="26"/>
-      <c r="AE82" s="26"/>
+      <c r="X82" s="27"/>
+      <c r="Y82" s="27"/>
+      <c r="Z82" s="27"/>
+      <c r="AA82" s="27"/>
+      <c r="AB82" s="27"/>
+      <c r="AC82" s="27"/>
+      <c r="AD82" s="27"/>
+      <c r="AE82" s="27"/>
       <c r="AF82" s="22"/>
       <c r="AG82" s="22"/>
       <c r="AH82" s="22"/>
@@ -6632,34 +6632,34 @@
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="41"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="26"/>
-      <c r="I83" s="26"/>
-      <c r="J83" s="26"/>
-      <c r="K83" s="26"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="27"/>
+      <c r="J83" s="27"/>
+      <c r="K83" s="27"/>
       <c r="L83" s="22"/>
-      <c r="M83" s="26"/>
+      <c r="M83" s="27"/>
       <c r="N83" s="22"/>
-      <c r="O83" s="26"/>
-      <c r="P83" s="26"/>
-      <c r="Q83" s="26"/>
-      <c r="R83" s="26"/>
-      <c r="S83" s="26"/>
-      <c r="T83" s="26"/>
+      <c r="O83" s="27"/>
+      <c r="P83" s="27"/>
+      <c r="Q83" s="27"/>
+      <c r="R83" s="27"/>
+      <c r="S83" s="27"/>
+      <c r="T83" s="27"/>
       <c r="U83" s="22"/>
       <c r="V83" s="22"/>
       <c r="W83" s="22"/>
-      <c r="X83" s="26"/>
-      <c r="Y83" s="26"/>
-      <c r="Z83" s="26"/>
-      <c r="AA83" s="26"/>
-      <c r="AB83" s="26"/>
-      <c r="AC83" s="26"/>
-      <c r="AD83" s="26"/>
-      <c r="AE83" s="26"/>
+      <c r="X83" s="27"/>
+      <c r="Y83" s="27"/>
+      <c r="Z83" s="27"/>
+      <c r="AA83" s="27"/>
+      <c r="AB83" s="27"/>
+      <c r="AC83" s="27"/>
+      <c r="AD83" s="27"/>
+      <c r="AE83" s="27"/>
       <c r="AF83" s="22"/>
       <c r="AG83" s="22"/>
       <c r="AH83" s="22"/>
@@ -6682,34 +6682,34 @@
         <v>128</v>
       </c>
       <c r="C84" s="41"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="26"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="26"/>
-      <c r="I84" s="26"/>
-      <c r="J84" s="26"/>
-      <c r="K84" s="26"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="27"/>
+      <c r="I84" s="27"/>
+      <c r="J84" s="27"/>
+      <c r="K84" s="27"/>
       <c r="L84" s="22"/>
-      <c r="M84" s="26"/>
+      <c r="M84" s="27"/>
       <c r="N84" s="22"/>
-      <c r="O84" s="26"/>
-      <c r="P84" s="26"/>
-      <c r="Q84" s="26"/>
-      <c r="R84" s="26"/>
-      <c r="S84" s="26"/>
-      <c r="T84" s="26"/>
+      <c r="O84" s="27"/>
+      <c r="P84" s="27"/>
+      <c r="Q84" s="27"/>
+      <c r="R84" s="27"/>
+      <c r="S84" s="27"/>
+      <c r="T84" s="27"/>
       <c r="U84" s="22"/>
       <c r="V84" s="22"/>
       <c r="W84" s="22"/>
-      <c r="X84" s="26"/>
-      <c r="Y84" s="26"/>
-      <c r="Z84" s="26"/>
-      <c r="AA84" s="26"/>
-      <c r="AB84" s="26"/>
-      <c r="AC84" s="26"/>
-      <c r="AD84" s="26"/>
-      <c r="AE84" s="26"/>
+      <c r="X84" s="27"/>
+      <c r="Y84" s="27"/>
+      <c r="Z84" s="27"/>
+      <c r="AA84" s="27"/>
+      <c r="AB84" s="27"/>
+      <c r="AC84" s="27"/>
+      <c r="AD84" s="27"/>
+      <c r="AE84" s="27"/>
       <c r="AF84" s="22"/>
       <c r="AG84" s="22"/>
       <c r="AH84" s="22"/>
@@ -6780,47 +6780,47 @@
       <c r="C86" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="D86" s="26"/>
-      <c r="E86" s="26"/>
-      <c r="F86" s="26"/>
-      <c r="G86" s="26"/>
-      <c r="H86" s="26"/>
-      <c r="I86" s="26"/>
-      <c r="J86" s="26"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="27"/>
+      <c r="I86" s="27"/>
+      <c r="J86" s="27"/>
       <c r="K86" s="30"/>
-      <c r="L86" s="27"/>
-      <c r="M86" s="26"/>
-      <c r="N86" s="27"/>
-      <c r="O86" s="27"/>
-      <c r="P86" s="27"/>
-      <c r="Q86" s="27"/>
-      <c r="R86" s="27"/>
-      <c r="S86" s="27"/>
-      <c r="T86" s="27"/>
-      <c r="U86" s="27"/>
-      <c r="V86" s="27"/>
-      <c r="W86" s="27"/>
-      <c r="X86" s="27"/>
-      <c r="Y86" s="27"/>
-      <c r="Z86" s="26"/>
-      <c r="AA86" s="26"/>
-      <c r="AB86" s="26"/>
-      <c r="AC86" s="26"/>
-      <c r="AD86" s="26"/>
-      <c r="AE86" s="26"/>
-      <c r="AF86" s="27"/>
-      <c r="AG86" s="27"/>
-      <c r="AH86" s="27"/>
-      <c r="AI86" s="27"/>
-      <c r="AJ86" s="27"/>
-      <c r="AK86" s="27"/>
-      <c r="AL86" s="27"/>
-      <c r="AM86" s="27"/>
-      <c r="AN86" s="27"/>
-      <c r="AO86" s="27"/>
-      <c r="AP86" s="27"/>
-      <c r="AQ86" s="27"/>
-      <c r="AR86" s="27"/>
+      <c r="L86" s="28"/>
+      <c r="M86" s="27"/>
+      <c r="N86" s="28"/>
+      <c r="O86" s="28"/>
+      <c r="P86" s="28"/>
+      <c r="Q86" s="28"/>
+      <c r="R86" s="28"/>
+      <c r="S86" s="28"/>
+      <c r="T86" s="28"/>
+      <c r="U86" s="28"/>
+      <c r="V86" s="28"/>
+      <c r="W86" s="28"/>
+      <c r="X86" s="28"/>
+      <c r="Y86" s="28"/>
+      <c r="Z86" s="27"/>
+      <c r="AA86" s="27"/>
+      <c r="AB86" s="27"/>
+      <c r="AC86" s="27"/>
+      <c r="AD86" s="27"/>
+      <c r="AE86" s="27"/>
+      <c r="AF86" s="28"/>
+      <c r="AG86" s="28"/>
+      <c r="AH86" s="28"/>
+      <c r="AI86" s="28"/>
+      <c r="AJ86" s="28"/>
+      <c r="AK86" s="28"/>
+      <c r="AL86" s="28"/>
+      <c r="AM86" s="28"/>
+      <c r="AN86" s="28"/>
+      <c r="AO86" s="28"/>
+      <c r="AP86" s="28"/>
+      <c r="AQ86" s="28"/>
+      <c r="AR86" s="28"/>
     </row>
     <row r="87" ht="18.75" customHeight="1">
       <c r="A87" s="19" t="s">
@@ -6832,49 +6832,49 @@
       <c r="C87" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D87" s="26"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="26"/>
-      <c r="I87" s="26"/>
-      <c r="J87" s="26"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="27"/>
+      <c r="I87" s="27"/>
+      <c r="J87" s="27"/>
       <c r="K87" s="30"/>
-      <c r="L87" s="27" t="s">
+      <c r="L87" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="M87" s="26"/>
-      <c r="N87" s="27"/>
-      <c r="O87" s="27"/>
-      <c r="P87" s="27"/>
-      <c r="Q87" s="27"/>
-      <c r="R87" s="27"/>
-      <c r="S87" s="27"/>
-      <c r="T87" s="27"/>
-      <c r="U87" s="27"/>
-      <c r="V87" s="27"/>
-      <c r="W87" s="27"/>
-      <c r="X87" s="27"/>
-      <c r="Y87" s="27"/>
-      <c r="Z87" s="26"/>
-      <c r="AA87" s="26"/>
-      <c r="AB87" s="26"/>
-      <c r="AC87" s="26"/>
-      <c r="AD87" s="26"/>
-      <c r="AE87" s="26"/>
-      <c r="AF87" s="27"/>
-      <c r="AG87" s="27"/>
-      <c r="AH87" s="27"/>
-      <c r="AI87" s="27"/>
-      <c r="AJ87" s="27"/>
-      <c r="AK87" s="27"/>
-      <c r="AL87" s="27"/>
-      <c r="AM87" s="27"/>
-      <c r="AN87" s="27"/>
-      <c r="AO87" s="27"/>
-      <c r="AP87" s="27"/>
-      <c r="AQ87" s="27"/>
-      <c r="AR87" s="27"/>
+      <c r="M87" s="27"/>
+      <c r="N87" s="28"/>
+      <c r="O87" s="28"/>
+      <c r="P87" s="28"/>
+      <c r="Q87" s="28"/>
+      <c r="R87" s="28"/>
+      <c r="S87" s="28"/>
+      <c r="T87" s="28"/>
+      <c r="U87" s="28"/>
+      <c r="V87" s="28"/>
+      <c r="W87" s="28"/>
+      <c r="X87" s="28"/>
+      <c r="Y87" s="28"/>
+      <c r="Z87" s="27"/>
+      <c r="AA87" s="27"/>
+      <c r="AB87" s="27"/>
+      <c r="AC87" s="27"/>
+      <c r="AD87" s="27"/>
+      <c r="AE87" s="27"/>
+      <c r="AF87" s="28"/>
+      <c r="AG87" s="28"/>
+      <c r="AH87" s="28"/>
+      <c r="AI87" s="28"/>
+      <c r="AJ87" s="28"/>
+      <c r="AK87" s="28"/>
+      <c r="AL87" s="28"/>
+      <c r="AM87" s="28"/>
+      <c r="AN87" s="28"/>
+      <c r="AO87" s="28"/>
+      <c r="AP87" s="28"/>
+      <c r="AQ87" s="28"/>
+      <c r="AR87" s="28"/>
     </row>
     <row r="88" ht="18.75" customHeight="1">
       <c r="A88" s="20" t="s">
@@ -6886,49 +6886,49 @@
       <c r="C88" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="D88" s="26"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="26"/>
-      <c r="G88" s="26"/>
-      <c r="H88" s="26"/>
-      <c r="I88" s="26"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="27"/>
       <c r="J88" s="29" t="s">
         <v>86</v>
       </c>
       <c r="K88" s="30"/>
       <c r="L88" s="36"/>
-      <c r="M88" s="26"/>
-      <c r="N88" s="27"/>
-      <c r="O88" s="27"/>
-      <c r="P88" s="27"/>
-      <c r="Q88" s="27"/>
-      <c r="R88" s="27"/>
-      <c r="S88" s="27"/>
-      <c r="T88" s="27"/>
-      <c r="U88" s="27"/>
-      <c r="V88" s="27"/>
-      <c r="W88" s="27"/>
-      <c r="X88" s="27"/>
-      <c r="Y88" s="27"/>
-      <c r="Z88" s="26"/>
-      <c r="AA88" s="26"/>
-      <c r="AB88" s="26"/>
-      <c r="AC88" s="26"/>
-      <c r="AD88" s="26"/>
-      <c r="AE88" s="26"/>
-      <c r="AF88" s="27"/>
-      <c r="AG88" s="27"/>
-      <c r="AH88" s="27"/>
-      <c r="AI88" s="27"/>
-      <c r="AJ88" s="27"/>
-      <c r="AK88" s="27"/>
-      <c r="AL88" s="27"/>
-      <c r="AM88" s="27"/>
-      <c r="AN88" s="27"/>
-      <c r="AO88" s="27"/>
-      <c r="AP88" s="27"/>
-      <c r="AQ88" s="27"/>
-      <c r="AR88" s="27"/>
+      <c r="M88" s="27"/>
+      <c r="N88" s="28"/>
+      <c r="O88" s="28"/>
+      <c r="P88" s="28"/>
+      <c r="Q88" s="28"/>
+      <c r="R88" s="28"/>
+      <c r="S88" s="28"/>
+      <c r="T88" s="28"/>
+      <c r="U88" s="28"/>
+      <c r="V88" s="28"/>
+      <c r="W88" s="28"/>
+      <c r="X88" s="28"/>
+      <c r="Y88" s="28"/>
+      <c r="Z88" s="27"/>
+      <c r="AA88" s="27"/>
+      <c r="AB88" s="27"/>
+      <c r="AC88" s="27"/>
+      <c r="AD88" s="27"/>
+      <c r="AE88" s="27"/>
+      <c r="AF88" s="28"/>
+      <c r="AG88" s="28"/>
+      <c r="AH88" s="28"/>
+      <c r="AI88" s="28"/>
+      <c r="AJ88" s="28"/>
+      <c r="AK88" s="28"/>
+      <c r="AL88" s="28"/>
+      <c r="AM88" s="28"/>
+      <c r="AN88" s="28"/>
+      <c r="AO88" s="28"/>
+      <c r="AP88" s="28"/>
+      <c r="AQ88" s="28"/>
+      <c r="AR88" s="28"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="20" t="s">
@@ -6940,47 +6940,47 @@
       <c r="C89" s="44" t="s">
         <v>174</v>
       </c>
-      <c r="D89" s="26"/>
-      <c r="E89" s="26"/>
-      <c r="F89" s="26"/>
-      <c r="G89" s="26"/>
-      <c r="H89" s="26"/>
-      <c r="I89" s="26"/>
-      <c r="J89" s="26"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="27"/>
+      <c r="I89" s="27"/>
+      <c r="J89" s="27"/>
       <c r="K89" s="34"/>
       <c r="L89" s="36"/>
-      <c r="M89" s="26"/>
-      <c r="N89" s="27"/>
-      <c r="O89" s="27"/>
-      <c r="P89" s="27"/>
-      <c r="Q89" s="27"/>
-      <c r="R89" s="27"/>
-      <c r="S89" s="27"/>
-      <c r="T89" s="27"/>
-      <c r="U89" s="27"/>
-      <c r="V89" s="27"/>
-      <c r="W89" s="27"/>
-      <c r="X89" s="27"/>
-      <c r="Y89" s="27"/>
-      <c r="Z89" s="26"/>
-      <c r="AA89" s="26"/>
-      <c r="AB89" s="26"/>
-      <c r="AC89" s="26"/>
-      <c r="AD89" s="26"/>
-      <c r="AE89" s="26"/>
-      <c r="AF89" s="27"/>
-      <c r="AG89" s="27"/>
-      <c r="AH89" s="27"/>
-      <c r="AI89" s="27"/>
-      <c r="AJ89" s="27"/>
-      <c r="AK89" s="27"/>
-      <c r="AL89" s="27"/>
-      <c r="AM89" s="27"/>
-      <c r="AN89" s="27"/>
-      <c r="AO89" s="27"/>
-      <c r="AP89" s="27"/>
-      <c r="AQ89" s="27"/>
-      <c r="AR89" s="27"/>
+      <c r="M89" s="27"/>
+      <c r="N89" s="28"/>
+      <c r="O89" s="28"/>
+      <c r="P89" s="28"/>
+      <c r="Q89" s="28"/>
+      <c r="R89" s="28"/>
+      <c r="S89" s="28"/>
+      <c r="T89" s="28"/>
+      <c r="U89" s="28"/>
+      <c r="V89" s="28"/>
+      <c r="W89" s="28"/>
+      <c r="X89" s="28"/>
+      <c r="Y89" s="28"/>
+      <c r="Z89" s="27"/>
+      <c r="AA89" s="27"/>
+      <c r="AB89" s="27"/>
+      <c r="AC89" s="27"/>
+      <c r="AD89" s="27"/>
+      <c r="AE89" s="27"/>
+      <c r="AF89" s="28"/>
+      <c r="AG89" s="28"/>
+      <c r="AH89" s="28"/>
+      <c r="AI89" s="28"/>
+      <c r="AJ89" s="28"/>
+      <c r="AK89" s="28"/>
+      <c r="AL89" s="28"/>
+      <c r="AM89" s="28"/>
+      <c r="AN89" s="28"/>
+      <c r="AO89" s="28"/>
+      <c r="AP89" s="28"/>
+      <c r="AQ89" s="28"/>
+      <c r="AR89" s="28"/>
     </row>
     <row r="90" ht="12.75" customHeight="1">
       <c r="A90" s="40" t="s">
@@ -6989,15 +6989,15 @@
       <c r="B90" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="C90" s="28" t="s">
+      <c r="C90" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="D90" s="26"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="26"/>
-      <c r="G90" s="26"/>
-      <c r="H90" s="26"/>
-      <c r="I90" s="26"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="27"/>
+      <c r="I90" s="27"/>
       <c r="J90" s="29" t="s">
         <v>86</v>
       </c>
@@ -7008,26 +7008,26 @@
       <c r="M90" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="N90" s="28" t="s">
+      <c r="N90" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="O90" s="26"/>
-      <c r="P90" s="26"/>
-      <c r="Q90" s="26"/>
-      <c r="R90" s="26"/>
-      <c r="S90" s="26"/>
-      <c r="T90" s="26"/>
+      <c r="O90" s="27"/>
+      <c r="P90" s="27"/>
+      <c r="Q90" s="27"/>
+      <c r="R90" s="27"/>
+      <c r="S90" s="27"/>
+      <c r="T90" s="27"/>
       <c r="U90" s="22"/>
       <c r="V90" s="22"/>
       <c r="W90" s="43"/>
-      <c r="X90" s="26"/>
-      <c r="Y90" s="26"/>
-      <c r="Z90" s="26"/>
-      <c r="AA90" s="26"/>
-      <c r="AB90" s="26"/>
-      <c r="AC90" s="26"/>
-      <c r="AD90" s="26"/>
-      <c r="AE90" s="26"/>
+      <c r="X90" s="27"/>
+      <c r="Y90" s="27"/>
+      <c r="Z90" s="27"/>
+      <c r="AA90" s="27"/>
+      <c r="AB90" s="27"/>
+      <c r="AC90" s="27"/>
+      <c r="AD90" s="27"/>
+      <c r="AE90" s="27"/>
       <c r="AF90" s="22"/>
       <c r="AG90" s="22"/>
       <c r="AH90" s="22"/>
@@ -7052,12 +7052,12 @@
       <c r="C91" s="44" t="s">
         <v>180</v>
       </c>
-      <c r="D91" s="26"/>
-      <c r="E91" s="26"/>
-      <c r="F91" s="26"/>
-      <c r="G91" s="26"/>
-      <c r="H91" s="26"/>
-      <c r="I91" s="26"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="27"/>
+      <c r="H91" s="27"/>
+      <c r="I91" s="27"/>
       <c r="J91" s="29" t="s">
         <v>86</v>
       </c>
@@ -7065,38 +7065,38 @@
         <v>181</v>
       </c>
       <c r="L91" s="36"/>
-      <c r="M91" s="26"/>
-      <c r="N91" s="27"/>
-      <c r="O91" s="27"/>
-      <c r="P91" s="27"/>
-      <c r="Q91" s="27"/>
-      <c r="R91" s="27"/>
-      <c r="S91" s="27"/>
-      <c r="T91" s="27"/>
-      <c r="U91" s="27"/>
-      <c r="V91" s="27"/>
-      <c r="W91" s="27"/>
-      <c r="X91" s="27"/>
-      <c r="Y91" s="27"/>
-      <c r="Z91" s="26"/>
-      <c r="AA91" s="26"/>
-      <c r="AB91" s="26"/>
-      <c r="AC91" s="26"/>
-      <c r="AD91" s="26"/>
-      <c r="AE91" s="26"/>
-      <c r="AF91" s="27"/>
-      <c r="AG91" s="27"/>
-      <c r="AH91" s="27"/>
-      <c r="AI91" s="27"/>
-      <c r="AJ91" s="27"/>
-      <c r="AK91" s="27"/>
-      <c r="AL91" s="27"/>
-      <c r="AM91" s="27"/>
-      <c r="AN91" s="27"/>
-      <c r="AO91" s="27"/>
-      <c r="AP91" s="27"/>
-      <c r="AQ91" s="27"/>
-      <c r="AR91" s="27"/>
+      <c r="M91" s="27"/>
+      <c r="N91" s="28"/>
+      <c r="O91" s="28"/>
+      <c r="P91" s="28"/>
+      <c r="Q91" s="28"/>
+      <c r="R91" s="28"/>
+      <c r="S91" s="28"/>
+      <c r="T91" s="28"/>
+      <c r="U91" s="28"/>
+      <c r="V91" s="28"/>
+      <c r="W91" s="28"/>
+      <c r="X91" s="28"/>
+      <c r="Y91" s="28"/>
+      <c r="Z91" s="27"/>
+      <c r="AA91" s="27"/>
+      <c r="AB91" s="27"/>
+      <c r="AC91" s="27"/>
+      <c r="AD91" s="27"/>
+      <c r="AE91" s="27"/>
+      <c r="AF91" s="28"/>
+      <c r="AG91" s="28"/>
+      <c r="AH91" s="28"/>
+      <c r="AI91" s="28"/>
+      <c r="AJ91" s="28"/>
+      <c r="AK91" s="28"/>
+      <c r="AL91" s="28"/>
+      <c r="AM91" s="28"/>
+      <c r="AN91" s="28"/>
+      <c r="AO91" s="28"/>
+      <c r="AP91" s="28"/>
+      <c r="AQ91" s="28"/>
+      <c r="AR91" s="28"/>
     </row>
     <row r="92" ht="12.75" customHeight="1">
       <c r="A92" s="40" t="s">
@@ -7108,36 +7108,36 @@
       <c r="C92" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26"/>
-      <c r="F92" s="26"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="26"/>
-      <c r="I92" s="26"/>
-      <c r="J92" s="26"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="27"/>
+      <c r="H92" s="27"/>
+      <c r="I92" s="27"/>
+      <c r="J92" s="27"/>
       <c r="K92" s="29" t="s">
         <v>181</v>
       </c>
       <c r="L92" s="22"/>
-      <c r="M92" s="26"/>
+      <c r="M92" s="27"/>
       <c r="N92" s="22"/>
-      <c r="O92" s="26"/>
-      <c r="P92" s="26"/>
-      <c r="Q92" s="26"/>
-      <c r="R92" s="26"/>
-      <c r="S92" s="26"/>
-      <c r="T92" s="26"/>
+      <c r="O92" s="27"/>
+      <c r="P92" s="27"/>
+      <c r="Q92" s="27"/>
+      <c r="R92" s="27"/>
+      <c r="S92" s="27"/>
+      <c r="T92" s="27"/>
       <c r="U92" s="22"/>
       <c r="V92" s="22"/>
       <c r="W92" s="22"/>
-      <c r="X92" s="26"/>
-      <c r="Y92" s="26"/>
-      <c r="Z92" s="26"/>
-      <c r="AA92" s="26"/>
-      <c r="AB92" s="26"/>
-      <c r="AC92" s="26"/>
-      <c r="AD92" s="26"/>
-      <c r="AE92" s="26"/>
+      <c r="X92" s="27"/>
+      <c r="Y92" s="27"/>
+      <c r="Z92" s="27"/>
+      <c r="AA92" s="27"/>
+      <c r="AB92" s="27"/>
+      <c r="AC92" s="27"/>
+      <c r="AD92" s="27"/>
+      <c r="AE92" s="27"/>
       <c r="AF92" s="22"/>
       <c r="AG92" s="22"/>
       <c r="AH92" s="22"/>
@@ -7162,36 +7162,36 @@
       <c r="C93" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="26"/>
-      <c r="G93" s="26"/>
-      <c r="H93" s="26"/>
-      <c r="I93" s="26"/>
-      <c r="J93" s="26"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="27"/>
+      <c r="H93" s="27"/>
+      <c r="I93" s="27"/>
+      <c r="J93" s="27"/>
       <c r="K93" s="29" t="s">
         <v>186</v>
       </c>
       <c r="L93" s="22"/>
-      <c r="M93" s="26"/>
+      <c r="M93" s="27"/>
       <c r="N93" s="22"/>
-      <c r="O93" s="26"/>
-      <c r="P93" s="26"/>
-      <c r="Q93" s="26"/>
-      <c r="R93" s="26"/>
-      <c r="S93" s="26"/>
-      <c r="T93" s="26"/>
+      <c r="O93" s="27"/>
+      <c r="P93" s="27"/>
+      <c r="Q93" s="27"/>
+      <c r="R93" s="27"/>
+      <c r="S93" s="27"/>
+      <c r="T93" s="27"/>
       <c r="U93" s="22"/>
       <c r="V93" s="22"/>
       <c r="W93" s="22"/>
-      <c r="X93" s="26"/>
-      <c r="Y93" s="26"/>
-      <c r="Z93" s="26"/>
-      <c r="AA93" s="26"/>
-      <c r="AB93" s="26"/>
-      <c r="AC93" s="26"/>
-      <c r="AD93" s="26"/>
-      <c r="AE93" s="26"/>
+      <c r="X93" s="27"/>
+      <c r="Y93" s="27"/>
+      <c r="Z93" s="27"/>
+      <c r="AA93" s="27"/>
+      <c r="AB93" s="27"/>
+      <c r="AC93" s="27"/>
+      <c r="AD93" s="27"/>
+      <c r="AE93" s="27"/>
       <c r="AF93" s="22"/>
       <c r="AG93" s="22"/>
       <c r="AH93" s="22"/>
@@ -7216,38 +7216,38 @@
       <c r="C94" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D94" s="26"/>
-      <c r="E94" s="26"/>
-      <c r="F94" s="26"/>
-      <c r="G94" s="26"/>
-      <c r="H94" s="26"/>
-      <c r="I94" s="26"/>
-      <c r="J94" s="26"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="27"/>
+      <c r="G94" s="27"/>
+      <c r="H94" s="27"/>
+      <c r="I94" s="27"/>
+      <c r="J94" s="27"/>
       <c r="K94" s="29" t="s">
         <v>186</v>
       </c>
       <c r="L94" s="22"/>
-      <c r="M94" s="26"/>
+      <c r="M94" s="27"/>
       <c r="N94" s="22"/>
-      <c r="O94" s="26"/>
-      <c r="P94" s="26"/>
-      <c r="Q94" s="26"/>
-      <c r="R94" s="26"/>
-      <c r="S94" s="26"/>
-      <c r="T94" s="26"/>
+      <c r="O94" s="27"/>
+      <c r="P94" s="27"/>
+      <c r="Q94" s="27"/>
+      <c r="R94" s="27"/>
+      <c r="S94" s="27"/>
+      <c r="T94" s="27"/>
       <c r="U94" s="22"/>
       <c r="V94" s="22"/>
       <c r="W94" s="22"/>
-      <c r="X94" s="26"/>
-      <c r="Y94" s="26"/>
-      <c r="Z94" s="26"/>
-      <c r="AA94" s="26"/>
-      <c r="AB94" s="26"/>
-      <c r="AC94" s="26"/>
-      <c r="AD94" s="26"/>
-      <c r="AE94" s="26"/>
+      <c r="X94" s="27"/>
+      <c r="Y94" s="27"/>
+      <c r="Z94" s="27"/>
+      <c r="AA94" s="27"/>
+      <c r="AB94" s="27"/>
+      <c r="AC94" s="27"/>
+      <c r="AD94" s="27"/>
+      <c r="AE94" s="27"/>
       <c r="AF94" s="22"/>
-      <c r="AG94" s="28" t="s">
+      <c r="AG94" s="25" t="s">
         <v>188</v>
       </c>
       <c r="AH94" s="22"/>
@@ -7272,12 +7272,12 @@
       <c r="C95" s="44" t="s">
         <v>180</v>
       </c>
-      <c r="D95" s="26"/>
-      <c r="E95" s="26"/>
-      <c r="F95" s="26"/>
-      <c r="G95" s="26"/>
-      <c r="H95" s="26"/>
-      <c r="I95" s="26"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="27"/>
+      <c r="G95" s="27"/>
+      <c r="H95" s="27"/>
+      <c r="I95" s="27"/>
       <c r="J95" s="29" t="s">
         <v>86</v>
       </c>
@@ -7285,38 +7285,38 @@
         <v>190</v>
       </c>
       <c r="L95" s="36"/>
-      <c r="M95" s="26"/>
-      <c r="N95" s="27"/>
-      <c r="O95" s="27"/>
-      <c r="P95" s="27"/>
-      <c r="Q95" s="27"/>
-      <c r="R95" s="27"/>
-      <c r="S95" s="27"/>
-      <c r="T95" s="27"/>
-      <c r="U95" s="27"/>
-      <c r="V95" s="27"/>
-      <c r="W95" s="27"/>
-      <c r="X95" s="27"/>
-      <c r="Y95" s="27"/>
-      <c r="Z95" s="26"/>
-      <c r="AA95" s="26"/>
-      <c r="AB95" s="26"/>
-      <c r="AC95" s="26"/>
-      <c r="AD95" s="26"/>
-      <c r="AE95" s="26"/>
-      <c r="AF95" s="27"/>
-      <c r="AG95" s="27"/>
-      <c r="AH95" s="27"/>
-      <c r="AI95" s="27"/>
-      <c r="AJ95" s="27"/>
-      <c r="AK95" s="27"/>
-      <c r="AL95" s="27"/>
-      <c r="AM95" s="27"/>
-      <c r="AN95" s="27"/>
-      <c r="AO95" s="27"/>
-      <c r="AP95" s="27"/>
-      <c r="AQ95" s="27"/>
-      <c r="AR95" s="27"/>
+      <c r="M95" s="27"/>
+      <c r="N95" s="28"/>
+      <c r="O95" s="28"/>
+      <c r="P95" s="28"/>
+      <c r="Q95" s="28"/>
+      <c r="R95" s="28"/>
+      <c r="S95" s="28"/>
+      <c r="T95" s="28"/>
+      <c r="U95" s="28"/>
+      <c r="V95" s="28"/>
+      <c r="W95" s="28"/>
+      <c r="X95" s="28"/>
+      <c r="Y95" s="28"/>
+      <c r="Z95" s="27"/>
+      <c r="AA95" s="27"/>
+      <c r="AB95" s="27"/>
+      <c r="AC95" s="27"/>
+      <c r="AD95" s="27"/>
+      <c r="AE95" s="27"/>
+      <c r="AF95" s="28"/>
+      <c r="AG95" s="28"/>
+      <c r="AH95" s="28"/>
+      <c r="AI95" s="28"/>
+      <c r="AJ95" s="28"/>
+      <c r="AK95" s="28"/>
+      <c r="AL95" s="28"/>
+      <c r="AM95" s="28"/>
+      <c r="AN95" s="28"/>
+      <c r="AO95" s="28"/>
+      <c r="AP95" s="28"/>
+      <c r="AQ95" s="28"/>
+      <c r="AR95" s="28"/>
     </row>
     <row r="96" ht="12.75" customHeight="1">
       <c r="A96" s="40" t="s">
@@ -7328,36 +7328,36 @@
       <c r="C96" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="D96" s="26"/>
-      <c r="E96" s="26"/>
-      <c r="F96" s="26"/>
-      <c r="G96" s="26"/>
-      <c r="H96" s="26"/>
-      <c r="I96" s="26"/>
-      <c r="J96" s="26"/>
+      <c r="D96" s="27"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="27"/>
+      <c r="H96" s="27"/>
+      <c r="I96" s="27"/>
+      <c r="J96" s="27"/>
       <c r="K96" s="29" t="s">
         <v>190</v>
       </c>
       <c r="L96" s="22"/>
-      <c r="M96" s="26"/>
+      <c r="M96" s="27"/>
       <c r="N96" s="22"/>
-      <c r="O96" s="26"/>
-      <c r="P96" s="26"/>
-      <c r="Q96" s="26"/>
-      <c r="R96" s="26"/>
-      <c r="S96" s="26"/>
-      <c r="T96" s="26"/>
+      <c r="O96" s="27"/>
+      <c r="P96" s="27"/>
+      <c r="Q96" s="27"/>
+      <c r="R96" s="27"/>
+      <c r="S96" s="27"/>
+      <c r="T96" s="27"/>
       <c r="U96" s="22"/>
       <c r="V96" s="22"/>
       <c r="W96" s="22"/>
-      <c r="X96" s="26"/>
-      <c r="Y96" s="26"/>
-      <c r="Z96" s="26"/>
-      <c r="AA96" s="26"/>
-      <c r="AB96" s="26"/>
-      <c r="AC96" s="26"/>
-      <c r="AD96" s="26"/>
-      <c r="AE96" s="26"/>
+      <c r="X96" s="27"/>
+      <c r="Y96" s="27"/>
+      <c r="Z96" s="27"/>
+      <c r="AA96" s="27"/>
+      <c r="AB96" s="27"/>
+      <c r="AC96" s="27"/>
+      <c r="AD96" s="27"/>
+      <c r="AE96" s="27"/>
       <c r="AF96" s="22"/>
       <c r="AG96" s="22"/>
       <c r="AH96" s="22"/>
@@ -7382,34 +7382,34 @@
       <c r="C97" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D97" s="26"/>
-      <c r="E97" s="26"/>
-      <c r="F97" s="26"/>
-      <c r="G97" s="26"/>
-      <c r="H97" s="26"/>
-      <c r="I97" s="26"/>
-      <c r="J97" s="26"/>
-      <c r="K97" s="26"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="27"/>
+      <c r="G97" s="27"/>
+      <c r="H97" s="27"/>
+      <c r="I97" s="27"/>
+      <c r="J97" s="27"/>
+      <c r="K97" s="27"/>
       <c r="L97" s="22"/>
-      <c r="M97" s="26"/>
+      <c r="M97" s="27"/>
       <c r="N97" s="22"/>
-      <c r="O97" s="26"/>
-      <c r="P97" s="26"/>
-      <c r="Q97" s="26"/>
-      <c r="R97" s="26"/>
-      <c r="S97" s="26"/>
-      <c r="T97" s="26"/>
+      <c r="O97" s="27"/>
+      <c r="P97" s="27"/>
+      <c r="Q97" s="27"/>
+      <c r="R97" s="27"/>
+      <c r="S97" s="27"/>
+      <c r="T97" s="27"/>
       <c r="U97" s="22"/>
       <c r="V97" s="22"/>
       <c r="W97" s="22"/>
-      <c r="X97" s="26"/>
-      <c r="Y97" s="26"/>
-      <c r="Z97" s="26"/>
-      <c r="AA97" s="26"/>
-      <c r="AB97" s="26"/>
-      <c r="AC97" s="26"/>
-      <c r="AD97" s="26"/>
-      <c r="AE97" s="26"/>
+      <c r="X97" s="27"/>
+      <c r="Y97" s="27"/>
+      <c r="Z97" s="27"/>
+      <c r="AA97" s="27"/>
+      <c r="AB97" s="27"/>
+      <c r="AC97" s="27"/>
+      <c r="AD97" s="27"/>
+      <c r="AE97" s="27"/>
       <c r="AF97" s="22"/>
       <c r="AG97" s="22"/>
       <c r="AH97" s="22"/>
@@ -7430,34 +7430,34 @@
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="41"/>
-      <c r="D98" s="26"/>
-      <c r="E98" s="26"/>
-      <c r="F98" s="26"/>
-      <c r="G98" s="26"/>
-      <c r="H98" s="26"/>
-      <c r="I98" s="26"/>
-      <c r="J98" s="26"/>
-      <c r="K98" s="26"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="27"/>
+      <c r="G98" s="27"/>
+      <c r="H98" s="27"/>
+      <c r="I98" s="27"/>
+      <c r="J98" s="27"/>
+      <c r="K98" s="27"/>
       <c r="L98" s="22"/>
-      <c r="M98" s="26"/>
+      <c r="M98" s="27"/>
       <c r="N98" s="22"/>
-      <c r="O98" s="26"/>
-      <c r="P98" s="26"/>
-      <c r="Q98" s="26"/>
-      <c r="R98" s="26"/>
-      <c r="S98" s="26"/>
-      <c r="T98" s="26"/>
+      <c r="O98" s="27"/>
+      <c r="P98" s="27"/>
+      <c r="Q98" s="27"/>
+      <c r="R98" s="27"/>
+      <c r="S98" s="27"/>
+      <c r="T98" s="27"/>
       <c r="U98" s="22"/>
       <c r="V98" s="22"/>
       <c r="W98" s="22"/>
-      <c r="X98" s="26"/>
-      <c r="Y98" s="26"/>
-      <c r="Z98" s="26"/>
-      <c r="AA98" s="26"/>
-      <c r="AB98" s="26"/>
-      <c r="AC98" s="26"/>
-      <c r="AD98" s="26"/>
-      <c r="AE98" s="26"/>
+      <c r="X98" s="27"/>
+      <c r="Y98" s="27"/>
+      <c r="Z98" s="27"/>
+      <c r="AA98" s="27"/>
+      <c r="AB98" s="27"/>
+      <c r="AC98" s="27"/>
+      <c r="AD98" s="27"/>
+      <c r="AE98" s="27"/>
       <c r="AF98" s="22"/>
       <c r="AG98" s="22"/>
       <c r="AH98" s="22"/>
@@ -7480,34 +7480,34 @@
         <v>167</v>
       </c>
       <c r="C99" s="41"/>
-      <c r="D99" s="26"/>
-      <c r="E99" s="26"/>
-      <c r="F99" s="26"/>
-      <c r="G99" s="26"/>
-      <c r="H99" s="26"/>
-      <c r="I99" s="26"/>
-      <c r="J99" s="26"/>
-      <c r="K99" s="26"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="27"/>
+      <c r="G99" s="27"/>
+      <c r="H99" s="27"/>
+      <c r="I99" s="27"/>
+      <c r="J99" s="27"/>
+      <c r="K99" s="27"/>
       <c r="L99" s="22"/>
-      <c r="M99" s="26"/>
+      <c r="M99" s="27"/>
       <c r="N99" s="22"/>
-      <c r="O99" s="26"/>
-      <c r="P99" s="26"/>
-      <c r="Q99" s="26"/>
-      <c r="R99" s="26"/>
-      <c r="S99" s="26"/>
-      <c r="T99" s="26"/>
+      <c r="O99" s="27"/>
+      <c r="P99" s="27"/>
+      <c r="Q99" s="27"/>
+      <c r="R99" s="27"/>
+      <c r="S99" s="27"/>
+      <c r="T99" s="27"/>
       <c r="U99" s="22"/>
       <c r="V99" s="22"/>
       <c r="W99" s="22"/>
-      <c r="X99" s="26"/>
-      <c r="Y99" s="26"/>
-      <c r="Z99" s="26"/>
-      <c r="AA99" s="26"/>
-      <c r="AB99" s="26"/>
-      <c r="AC99" s="26"/>
-      <c r="AD99" s="26"/>
-      <c r="AE99" s="26"/>
+      <c r="X99" s="27"/>
+      <c r="Y99" s="27"/>
+      <c r="Z99" s="27"/>
+      <c r="AA99" s="27"/>
+      <c r="AB99" s="27"/>
+      <c r="AC99" s="27"/>
+      <c r="AD99" s="27"/>
+      <c r="AE99" s="27"/>
       <c r="AF99" s="22"/>
       <c r="AG99" s="22"/>
       <c r="AH99" s="22"/>
@@ -7846,49 +7846,49 @@
       <c r="C106" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="D106" s="26"/>
-      <c r="E106" s="26"/>
-      <c r="F106" s="26"/>
-      <c r="G106" s="26"/>
-      <c r="H106" s="26"/>
-      <c r="I106" s="26"/>
+      <c r="D106" s="27"/>
+      <c r="E106" s="27"/>
+      <c r="F106" s="27"/>
+      <c r="G106" s="27"/>
+      <c r="H106" s="27"/>
+      <c r="I106" s="27"/>
       <c r="J106" s="22"/>
       <c r="K106" s="22"/>
       <c r="L106" s="29" t="s">
         <v>206</v>
       </c>
       <c r="M106" s="22"/>
-      <c r="N106" s="26"/>
-      <c r="O106" s="26"/>
-      <c r="P106" s="26"/>
-      <c r="Q106" s="26"/>
-      <c r="R106" s="26"/>
-      <c r="S106" s="26"/>
-      <c r="T106" s="26"/>
-      <c r="U106" s="26"/>
-      <c r="V106" s="26"/>
-      <c r="W106" s="26"/>
-      <c r="X106" s="26"/>
-      <c r="Y106" s="26"/>
-      <c r="Z106" s="26"/>
-      <c r="AA106" s="26"/>
-      <c r="AB106" s="26"/>
-      <c r="AC106" s="26"/>
+      <c r="N106" s="27"/>
+      <c r="O106" s="27"/>
+      <c r="P106" s="27"/>
+      <c r="Q106" s="27"/>
+      <c r="R106" s="27"/>
+      <c r="S106" s="27"/>
+      <c r="T106" s="27"/>
+      <c r="U106" s="27"/>
+      <c r="V106" s="27"/>
+      <c r="W106" s="27"/>
+      <c r="X106" s="27"/>
+      <c r="Y106" s="27"/>
+      <c r="Z106" s="27"/>
+      <c r="AA106" s="27"/>
+      <c r="AB106" s="27"/>
+      <c r="AC106" s="27"/>
       <c r="AD106" s="22"/>
       <c r="AE106" s="22"/>
-      <c r="AF106" s="26"/>
-      <c r="AG106" s="27"/>
-      <c r="AH106" s="27"/>
-      <c r="AI106" s="27"/>
-      <c r="AJ106" s="27"/>
-      <c r="AK106" s="27"/>
-      <c r="AL106" s="27"/>
-      <c r="AM106" s="27"/>
-      <c r="AN106" s="27"/>
-      <c r="AO106" s="27"/>
-      <c r="AP106" s="27"/>
-      <c r="AQ106" s="27"/>
-      <c r="AR106" s="27"/>
+      <c r="AF106" s="27"/>
+      <c r="AG106" s="28"/>
+      <c r="AH106" s="28"/>
+      <c r="AI106" s="28"/>
+      <c r="AJ106" s="28"/>
+      <c r="AK106" s="28"/>
+      <c r="AL106" s="28"/>
+      <c r="AM106" s="28"/>
+      <c r="AN106" s="28"/>
+      <c r="AO106" s="28"/>
+      <c r="AP106" s="28"/>
+      <c r="AQ106" s="28"/>
+      <c r="AR106" s="28"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="45" t="s">
@@ -7900,49 +7900,49 @@
       <c r="C107" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="D107" s="26"/>
-      <c r="E107" s="26"/>
-      <c r="F107" s="26"/>
-      <c r="G107" s="26"/>
-      <c r="H107" s="26"/>
-      <c r="I107" s="26"/>
+      <c r="D107" s="27"/>
+      <c r="E107" s="27"/>
+      <c r="F107" s="27"/>
+      <c r="G107" s="27"/>
+      <c r="H107" s="27"/>
+      <c r="I107" s="27"/>
       <c r="J107" s="22"/>
       <c r="K107" s="22"/>
       <c r="L107" s="29" t="s">
         <v>206</v>
       </c>
       <c r="M107" s="22"/>
-      <c r="N107" s="26"/>
-      <c r="O107" s="26"/>
-      <c r="P107" s="26"/>
-      <c r="Q107" s="26"/>
-      <c r="R107" s="26"/>
-      <c r="S107" s="26"/>
-      <c r="T107" s="26"/>
-      <c r="U107" s="26"/>
-      <c r="V107" s="26"/>
-      <c r="W107" s="26"/>
-      <c r="X107" s="26"/>
-      <c r="Y107" s="26"/>
-      <c r="Z107" s="26"/>
-      <c r="AA107" s="26"/>
-      <c r="AB107" s="26"/>
-      <c r="AC107" s="26"/>
+      <c r="N107" s="27"/>
+      <c r="O107" s="27"/>
+      <c r="P107" s="27"/>
+      <c r="Q107" s="27"/>
+      <c r="R107" s="27"/>
+      <c r="S107" s="27"/>
+      <c r="T107" s="27"/>
+      <c r="U107" s="27"/>
+      <c r="V107" s="27"/>
+      <c r="W107" s="27"/>
+      <c r="X107" s="27"/>
+      <c r="Y107" s="27"/>
+      <c r="Z107" s="27"/>
+      <c r="AA107" s="27"/>
+      <c r="AB107" s="27"/>
+      <c r="AC107" s="27"/>
       <c r="AD107" s="22"/>
       <c r="AE107" s="22"/>
-      <c r="AF107" s="26"/>
-      <c r="AG107" s="27"/>
-      <c r="AH107" s="27"/>
-      <c r="AI107" s="27"/>
-      <c r="AJ107" s="27"/>
-      <c r="AK107" s="27"/>
-      <c r="AL107" s="27"/>
-      <c r="AM107" s="27"/>
-      <c r="AN107" s="27"/>
-      <c r="AO107" s="27"/>
-      <c r="AP107" s="27"/>
-      <c r="AQ107" s="27"/>
-      <c r="AR107" s="27"/>
+      <c r="AF107" s="27"/>
+      <c r="AG107" s="28"/>
+      <c r="AH107" s="28"/>
+      <c r="AI107" s="28"/>
+      <c r="AJ107" s="28"/>
+      <c r="AK107" s="28"/>
+      <c r="AL107" s="28"/>
+      <c r="AM107" s="28"/>
+      <c r="AN107" s="28"/>
+      <c r="AO107" s="28"/>
+      <c r="AP107" s="28"/>
+      <c r="AQ107" s="28"/>
+      <c r="AR107" s="28"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="45" t="s">
@@ -7954,49 +7954,49 @@
       <c r="C108" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="D108" s="26"/>
-      <c r="E108" s="26"/>
-      <c r="F108" s="26"/>
-      <c r="G108" s="26"/>
-      <c r="H108" s="26"/>
-      <c r="I108" s="26"/>
+      <c r="D108" s="27"/>
+      <c r="E108" s="27"/>
+      <c r="F108" s="27"/>
+      <c r="G108" s="27"/>
+      <c r="H108" s="27"/>
+      <c r="I108" s="27"/>
       <c r="J108" s="22"/>
       <c r="K108" s="22"/>
       <c r="L108" s="29" t="s">
         <v>206</v>
       </c>
       <c r="M108" s="22"/>
-      <c r="N108" s="26"/>
-      <c r="O108" s="26"/>
-      <c r="P108" s="26"/>
-      <c r="Q108" s="26"/>
-      <c r="R108" s="26"/>
-      <c r="S108" s="26"/>
-      <c r="T108" s="26"/>
-      <c r="U108" s="26"/>
-      <c r="V108" s="26"/>
-      <c r="W108" s="26"/>
-      <c r="X108" s="26"/>
-      <c r="Y108" s="26"/>
-      <c r="Z108" s="26"/>
-      <c r="AA108" s="26"/>
-      <c r="AB108" s="26"/>
-      <c r="AC108" s="26"/>
+      <c r="N108" s="27"/>
+      <c r="O108" s="27"/>
+      <c r="P108" s="27"/>
+      <c r="Q108" s="27"/>
+      <c r="R108" s="27"/>
+      <c r="S108" s="27"/>
+      <c r="T108" s="27"/>
+      <c r="U108" s="27"/>
+      <c r="V108" s="27"/>
+      <c r="W108" s="27"/>
+      <c r="X108" s="27"/>
+      <c r="Y108" s="27"/>
+      <c r="Z108" s="27"/>
+      <c r="AA108" s="27"/>
+      <c r="AB108" s="27"/>
+      <c r="AC108" s="27"/>
       <c r="AD108" s="22"/>
       <c r="AE108" s="22"/>
-      <c r="AF108" s="26"/>
-      <c r="AG108" s="27"/>
-      <c r="AH108" s="27"/>
-      <c r="AI108" s="27"/>
-      <c r="AJ108" s="27"/>
-      <c r="AK108" s="27"/>
-      <c r="AL108" s="27"/>
-      <c r="AM108" s="27"/>
-      <c r="AN108" s="27"/>
-      <c r="AO108" s="27"/>
-      <c r="AP108" s="27"/>
-      <c r="AQ108" s="27"/>
-      <c r="AR108" s="27"/>
+      <c r="AF108" s="27"/>
+      <c r="AG108" s="28"/>
+      <c r="AH108" s="28"/>
+      <c r="AI108" s="28"/>
+      <c r="AJ108" s="28"/>
+      <c r="AK108" s="28"/>
+      <c r="AL108" s="28"/>
+      <c r="AM108" s="28"/>
+      <c r="AN108" s="28"/>
+      <c r="AO108" s="28"/>
+      <c r="AP108" s="28"/>
+      <c r="AQ108" s="28"/>
+      <c r="AR108" s="28"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="45" t="s">
@@ -8008,49 +8008,49 @@
       <c r="C109" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="D109" s="26"/>
-      <c r="E109" s="26"/>
-      <c r="F109" s="26"/>
-      <c r="G109" s="26"/>
-      <c r="H109" s="26"/>
-      <c r="I109" s="26"/>
+      <c r="D109" s="27"/>
+      <c r="E109" s="27"/>
+      <c r="F109" s="27"/>
+      <c r="G109" s="27"/>
+      <c r="H109" s="27"/>
+      <c r="I109" s="27"/>
       <c r="J109" s="22"/>
       <c r="K109" s="22"/>
       <c r="L109" s="29" t="s">
         <v>206</v>
       </c>
       <c r="M109" s="22"/>
-      <c r="N109" s="26"/>
-      <c r="O109" s="26"/>
-      <c r="P109" s="26"/>
-      <c r="Q109" s="26"/>
-      <c r="R109" s="26"/>
-      <c r="S109" s="26"/>
-      <c r="T109" s="26"/>
-      <c r="U109" s="26"/>
-      <c r="V109" s="26"/>
-      <c r="W109" s="26"/>
-      <c r="X109" s="26"/>
-      <c r="Y109" s="26"/>
-      <c r="Z109" s="26"/>
-      <c r="AA109" s="26"/>
-      <c r="AB109" s="26"/>
-      <c r="AC109" s="26"/>
+      <c r="N109" s="27"/>
+      <c r="O109" s="27"/>
+      <c r="P109" s="27"/>
+      <c r="Q109" s="27"/>
+      <c r="R109" s="27"/>
+      <c r="S109" s="27"/>
+      <c r="T109" s="27"/>
+      <c r="U109" s="27"/>
+      <c r="V109" s="27"/>
+      <c r="W109" s="27"/>
+      <c r="X109" s="27"/>
+      <c r="Y109" s="27"/>
+      <c r="Z109" s="27"/>
+      <c r="AA109" s="27"/>
+      <c r="AB109" s="27"/>
+      <c r="AC109" s="27"/>
       <c r="AD109" s="22"/>
       <c r="AE109" s="22"/>
-      <c r="AF109" s="26"/>
-      <c r="AG109" s="27"/>
-      <c r="AH109" s="27"/>
-      <c r="AI109" s="27"/>
-      <c r="AJ109" s="27"/>
-      <c r="AK109" s="27"/>
-      <c r="AL109" s="27"/>
-      <c r="AM109" s="27"/>
-      <c r="AN109" s="27"/>
-      <c r="AO109" s="27"/>
-      <c r="AP109" s="27"/>
-      <c r="AQ109" s="27"/>
-      <c r="AR109" s="27"/>
+      <c r="AF109" s="27"/>
+      <c r="AG109" s="28"/>
+      <c r="AH109" s="28"/>
+      <c r="AI109" s="28"/>
+      <c r="AJ109" s="28"/>
+      <c r="AK109" s="28"/>
+      <c r="AL109" s="28"/>
+      <c r="AM109" s="28"/>
+      <c r="AN109" s="28"/>
+      <c r="AO109" s="28"/>
+      <c r="AP109" s="28"/>
+      <c r="AQ109" s="28"/>
+      <c r="AR109" s="28"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="45" t="s">
@@ -8062,49 +8062,49 @@
       <c r="C110" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="D110" s="26"/>
-      <c r="E110" s="26"/>
-      <c r="F110" s="26"/>
-      <c r="G110" s="26"/>
-      <c r="H110" s="26"/>
-      <c r="I110" s="26"/>
+      <c r="D110" s="27"/>
+      <c r="E110" s="27"/>
+      <c r="F110" s="27"/>
+      <c r="G110" s="27"/>
+      <c r="H110" s="27"/>
+      <c r="I110" s="27"/>
       <c r="J110" s="22"/>
       <c r="K110" s="22"/>
       <c r="L110" s="29" t="s">
         <v>206</v>
       </c>
       <c r="M110" s="22"/>
-      <c r="N110" s="26"/>
-      <c r="O110" s="26"/>
-      <c r="P110" s="26"/>
-      <c r="Q110" s="26"/>
-      <c r="R110" s="26"/>
-      <c r="S110" s="26"/>
-      <c r="T110" s="26"/>
-      <c r="U110" s="26"/>
-      <c r="V110" s="26"/>
-      <c r="W110" s="26"/>
-      <c r="X110" s="26"/>
-      <c r="Y110" s="26"/>
-      <c r="Z110" s="26"/>
-      <c r="AA110" s="26"/>
-      <c r="AB110" s="26"/>
-      <c r="AC110" s="26"/>
+      <c r="N110" s="27"/>
+      <c r="O110" s="27"/>
+      <c r="P110" s="27"/>
+      <c r="Q110" s="27"/>
+      <c r="R110" s="27"/>
+      <c r="S110" s="27"/>
+      <c r="T110" s="27"/>
+      <c r="U110" s="27"/>
+      <c r="V110" s="27"/>
+      <c r="W110" s="27"/>
+      <c r="X110" s="27"/>
+      <c r="Y110" s="27"/>
+      <c r="Z110" s="27"/>
+      <c r="AA110" s="27"/>
+      <c r="AB110" s="27"/>
+      <c r="AC110" s="27"/>
       <c r="AD110" s="22"/>
       <c r="AE110" s="22"/>
-      <c r="AF110" s="26"/>
-      <c r="AG110" s="27"/>
-      <c r="AH110" s="27"/>
-      <c r="AI110" s="27"/>
-      <c r="AJ110" s="27"/>
-      <c r="AK110" s="27"/>
-      <c r="AL110" s="27"/>
-      <c r="AM110" s="27"/>
-      <c r="AN110" s="27"/>
-      <c r="AO110" s="27"/>
-      <c r="AP110" s="27"/>
-      <c r="AQ110" s="27"/>
-      <c r="AR110" s="27"/>
+      <c r="AF110" s="27"/>
+      <c r="AG110" s="28"/>
+      <c r="AH110" s="28"/>
+      <c r="AI110" s="28"/>
+      <c r="AJ110" s="28"/>
+      <c r="AK110" s="28"/>
+      <c r="AL110" s="28"/>
+      <c r="AM110" s="28"/>
+      <c r="AN110" s="28"/>
+      <c r="AO110" s="28"/>
+      <c r="AP110" s="28"/>
+      <c r="AQ110" s="28"/>
+      <c r="AR110" s="28"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="45" t="s">
@@ -8209,14 +8209,14 @@
       <c r="AH112" s="54"/>
       <c r="AI112" s="54"/>
       <c r="AJ112" s="54"/>
-      <c r="AK112" s="27"/>
-      <c r="AL112" s="27"/>
-      <c r="AM112" s="27"/>
-      <c r="AN112" s="27"/>
-      <c r="AO112" s="27"/>
-      <c r="AP112" s="27"/>
-      <c r="AQ112" s="27"/>
-      <c r="AR112" s="27"/>
+      <c r="AK112" s="28"/>
+      <c r="AL112" s="28"/>
+      <c r="AM112" s="28"/>
+      <c r="AN112" s="28"/>
+      <c r="AO112" s="28"/>
+      <c r="AP112" s="28"/>
+      <c r="AQ112" s="28"/>
+      <c r="AR112" s="28"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="45" t="s">
@@ -8228,12 +8228,12 @@
       <c r="C113" s="52" t="s">
         <v>222</v>
       </c>
-      <c r="D113" s="26"/>
-      <c r="E113" s="26"/>
-      <c r="F113" s="26"/>
-      <c r="G113" s="26"/>
-      <c r="H113" s="26"/>
-      <c r="I113" s="26"/>
+      <c r="D113" s="27"/>
+      <c r="E113" s="27"/>
+      <c r="F113" s="27"/>
+      <c r="G113" s="27"/>
+      <c r="H113" s="27"/>
+      <c r="I113" s="27"/>
       <c r="J113" s="22"/>
       <c r="K113" s="34" t="s">
         <v>223</v>
@@ -8242,37 +8242,37 @@
         <v>206</v>
       </c>
       <c r="M113" s="22"/>
-      <c r="N113" s="26"/>
-      <c r="O113" s="26"/>
-      <c r="P113" s="26"/>
-      <c r="Q113" s="26"/>
-      <c r="R113" s="26"/>
-      <c r="S113" s="26"/>
-      <c r="T113" s="26"/>
-      <c r="U113" s="26"/>
-      <c r="V113" s="26"/>
-      <c r="W113" s="26"/>
-      <c r="X113" s="26"/>
-      <c r="Y113" s="26"/>
-      <c r="Z113" s="26"/>
-      <c r="AA113" s="26"/>
-      <c r="AB113" s="26"/>
-      <c r="AC113" s="26"/>
+      <c r="N113" s="27"/>
+      <c r="O113" s="27"/>
+      <c r="P113" s="27"/>
+      <c r="Q113" s="27"/>
+      <c r="R113" s="27"/>
+      <c r="S113" s="27"/>
+      <c r="T113" s="27"/>
+      <c r="U113" s="27"/>
+      <c r="V113" s="27"/>
+      <c r="W113" s="27"/>
+      <c r="X113" s="27"/>
+      <c r="Y113" s="27"/>
+      <c r="Z113" s="27"/>
+      <c r="AA113" s="27"/>
+      <c r="AB113" s="27"/>
+      <c r="AC113" s="27"/>
       <c r="AD113" s="22"/>
       <c r="AE113" s="22"/>
-      <c r="AF113" s="26"/>
-      <c r="AG113" s="27"/>
-      <c r="AH113" s="27"/>
-      <c r="AI113" s="27"/>
-      <c r="AJ113" s="27"/>
-      <c r="AK113" s="27"/>
-      <c r="AL113" s="27"/>
-      <c r="AM113" s="27"/>
-      <c r="AN113" s="27"/>
-      <c r="AO113" s="27"/>
-      <c r="AP113" s="27"/>
-      <c r="AQ113" s="27"/>
-      <c r="AR113" s="27"/>
+      <c r="AF113" s="27"/>
+      <c r="AG113" s="28"/>
+      <c r="AH113" s="28"/>
+      <c r="AI113" s="28"/>
+      <c r="AJ113" s="28"/>
+      <c r="AK113" s="28"/>
+      <c r="AL113" s="28"/>
+      <c r="AM113" s="28"/>
+      <c r="AN113" s="28"/>
+      <c r="AO113" s="28"/>
+      <c r="AP113" s="28"/>
+      <c r="AQ113" s="28"/>
+      <c r="AR113" s="28"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="45" t="s">
@@ -8284,12 +8284,12 @@
       <c r="C114" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="D114" s="26"/>
-      <c r="E114" s="26"/>
-      <c r="F114" s="26"/>
-      <c r="G114" s="26"/>
-      <c r="H114" s="26"/>
-      <c r="I114" s="26"/>
+      <c r="D114" s="27"/>
+      <c r="E114" s="27"/>
+      <c r="F114" s="27"/>
+      <c r="G114" s="27"/>
+      <c r="H114" s="27"/>
+      <c r="I114" s="27"/>
       <c r="J114" s="22"/>
       <c r="K114" s="34" t="s">
         <v>226</v>
@@ -8298,37 +8298,37 @@
         <v>206</v>
       </c>
       <c r="M114" s="22"/>
-      <c r="N114" s="26"/>
-      <c r="O114" s="26"/>
-      <c r="P114" s="26"/>
-      <c r="Q114" s="26"/>
-      <c r="R114" s="26"/>
-      <c r="S114" s="26"/>
-      <c r="T114" s="26"/>
-      <c r="U114" s="26"/>
-      <c r="V114" s="26"/>
-      <c r="W114" s="26"/>
-      <c r="X114" s="26"/>
-      <c r="Y114" s="26"/>
-      <c r="Z114" s="26"/>
-      <c r="AA114" s="26"/>
-      <c r="AB114" s="26"/>
-      <c r="AC114" s="26"/>
+      <c r="N114" s="27"/>
+      <c r="O114" s="27"/>
+      <c r="P114" s="27"/>
+      <c r="Q114" s="27"/>
+      <c r="R114" s="27"/>
+      <c r="S114" s="27"/>
+      <c r="T114" s="27"/>
+      <c r="U114" s="27"/>
+      <c r="V114" s="27"/>
+      <c r="W114" s="27"/>
+      <c r="X114" s="27"/>
+      <c r="Y114" s="27"/>
+      <c r="Z114" s="27"/>
+      <c r="AA114" s="27"/>
+      <c r="AB114" s="27"/>
+      <c r="AC114" s="27"/>
       <c r="AD114" s="22"/>
       <c r="AE114" s="22"/>
-      <c r="AF114" s="26"/>
-      <c r="AG114" s="27"/>
-      <c r="AH114" s="27"/>
-      <c r="AI114" s="27"/>
-      <c r="AJ114" s="27"/>
-      <c r="AK114" s="27"/>
-      <c r="AL114" s="27"/>
-      <c r="AM114" s="27"/>
-      <c r="AN114" s="27"/>
-      <c r="AO114" s="27"/>
-      <c r="AP114" s="27"/>
-      <c r="AQ114" s="27"/>
-      <c r="AR114" s="27"/>
+      <c r="AF114" s="27"/>
+      <c r="AG114" s="28"/>
+      <c r="AH114" s="28"/>
+      <c r="AI114" s="28"/>
+      <c r="AJ114" s="28"/>
+      <c r="AK114" s="28"/>
+      <c r="AL114" s="28"/>
+      <c r="AM114" s="28"/>
+      <c r="AN114" s="28"/>
+      <c r="AO114" s="28"/>
+      <c r="AP114" s="28"/>
+      <c r="AQ114" s="28"/>
+      <c r="AR114" s="28"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="45" t="s">
@@ -8340,12 +8340,12 @@
       <c r="C115" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="D115" s="26"/>
-      <c r="E115" s="26"/>
-      <c r="F115" s="26"/>
-      <c r="G115" s="26"/>
-      <c r="H115" s="26"/>
-      <c r="I115" s="26"/>
+      <c r="D115" s="27"/>
+      <c r="E115" s="27"/>
+      <c r="F115" s="27"/>
+      <c r="G115" s="27"/>
+      <c r="H115" s="27"/>
+      <c r="I115" s="27"/>
       <c r="J115" s="22"/>
       <c r="K115" s="34" t="s">
         <v>229</v>
@@ -8354,37 +8354,37 @@
         <v>206</v>
       </c>
       <c r="M115" s="22"/>
-      <c r="N115" s="26"/>
-      <c r="O115" s="26"/>
-      <c r="P115" s="26"/>
-      <c r="Q115" s="26"/>
-      <c r="R115" s="26"/>
-      <c r="S115" s="26"/>
-      <c r="T115" s="26"/>
-      <c r="U115" s="26"/>
-      <c r="V115" s="26"/>
-      <c r="W115" s="26"/>
-      <c r="X115" s="26"/>
-      <c r="Y115" s="26"/>
-      <c r="Z115" s="26"/>
-      <c r="AA115" s="26"/>
-      <c r="AB115" s="26"/>
-      <c r="AC115" s="26"/>
+      <c r="N115" s="27"/>
+      <c r="O115" s="27"/>
+      <c r="P115" s="27"/>
+      <c r="Q115" s="27"/>
+      <c r="R115" s="27"/>
+      <c r="S115" s="27"/>
+      <c r="T115" s="27"/>
+      <c r="U115" s="27"/>
+      <c r="V115" s="27"/>
+      <c r="W115" s="27"/>
+      <c r="X115" s="27"/>
+      <c r="Y115" s="27"/>
+      <c r="Z115" s="27"/>
+      <c r="AA115" s="27"/>
+      <c r="AB115" s="27"/>
+      <c r="AC115" s="27"/>
       <c r="AD115" s="22"/>
       <c r="AE115" s="22"/>
-      <c r="AF115" s="26"/>
-      <c r="AG115" s="27"/>
-      <c r="AH115" s="27"/>
-      <c r="AI115" s="27"/>
-      <c r="AJ115" s="27"/>
-      <c r="AK115" s="27"/>
-      <c r="AL115" s="27"/>
-      <c r="AM115" s="27"/>
-      <c r="AN115" s="27"/>
-      <c r="AO115" s="27"/>
-      <c r="AP115" s="27"/>
-      <c r="AQ115" s="27"/>
-      <c r="AR115" s="27"/>
+      <c r="AF115" s="27"/>
+      <c r="AG115" s="28"/>
+      <c r="AH115" s="28"/>
+      <c r="AI115" s="28"/>
+      <c r="AJ115" s="28"/>
+      <c r="AK115" s="28"/>
+      <c r="AL115" s="28"/>
+      <c r="AM115" s="28"/>
+      <c r="AN115" s="28"/>
+      <c r="AO115" s="28"/>
+      <c r="AP115" s="28"/>
+      <c r="AQ115" s="28"/>
+      <c r="AR115" s="28"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="45" t="s">
@@ -8396,12 +8396,12 @@
       <c r="C116" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="D116" s="26"/>
-      <c r="E116" s="26"/>
-      <c r="F116" s="26"/>
-      <c r="G116" s="26"/>
-      <c r="H116" s="26"/>
-      <c r="I116" s="26"/>
+      <c r="D116" s="27"/>
+      <c r="E116" s="27"/>
+      <c r="F116" s="27"/>
+      <c r="G116" s="27"/>
+      <c r="H116" s="27"/>
+      <c r="I116" s="27"/>
       <c r="J116" s="22"/>
       <c r="K116" s="34" t="s">
         <v>232</v>
@@ -8410,37 +8410,37 @@
         <v>206</v>
       </c>
       <c r="M116" s="22"/>
-      <c r="N116" s="26"/>
-      <c r="O116" s="26"/>
-      <c r="P116" s="26"/>
-      <c r="Q116" s="26"/>
-      <c r="R116" s="26"/>
-      <c r="S116" s="26"/>
-      <c r="T116" s="26"/>
-      <c r="U116" s="26"/>
-      <c r="V116" s="26"/>
-      <c r="W116" s="26"/>
-      <c r="X116" s="26"/>
-      <c r="Y116" s="26"/>
-      <c r="Z116" s="26"/>
-      <c r="AA116" s="26"/>
-      <c r="AB116" s="26"/>
-      <c r="AC116" s="26"/>
+      <c r="N116" s="27"/>
+      <c r="O116" s="27"/>
+      <c r="P116" s="27"/>
+      <c r="Q116" s="27"/>
+      <c r="R116" s="27"/>
+      <c r="S116" s="27"/>
+      <c r="T116" s="27"/>
+      <c r="U116" s="27"/>
+      <c r="V116" s="27"/>
+      <c r="W116" s="27"/>
+      <c r="X116" s="27"/>
+      <c r="Y116" s="27"/>
+      <c r="Z116" s="27"/>
+      <c r="AA116" s="27"/>
+      <c r="AB116" s="27"/>
+      <c r="AC116" s="27"/>
       <c r="AD116" s="22"/>
       <c r="AE116" s="22"/>
-      <c r="AF116" s="26"/>
-      <c r="AG116" s="27"/>
-      <c r="AH116" s="27"/>
-      <c r="AI116" s="27"/>
-      <c r="AJ116" s="27"/>
-      <c r="AK116" s="27"/>
-      <c r="AL116" s="27"/>
-      <c r="AM116" s="27"/>
-      <c r="AN116" s="27"/>
-      <c r="AO116" s="27"/>
-      <c r="AP116" s="27"/>
-      <c r="AQ116" s="27"/>
-      <c r="AR116" s="27"/>
+      <c r="AF116" s="27"/>
+      <c r="AG116" s="28"/>
+      <c r="AH116" s="28"/>
+      <c r="AI116" s="28"/>
+      <c r="AJ116" s="28"/>
+      <c r="AK116" s="28"/>
+      <c r="AL116" s="28"/>
+      <c r="AM116" s="28"/>
+      <c r="AN116" s="28"/>
+      <c r="AO116" s="28"/>
+      <c r="AP116" s="28"/>
+      <c r="AQ116" s="28"/>
+      <c r="AR116" s="28"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="45" t="s">
@@ -8452,12 +8452,12 @@
       <c r="C117" s="52" t="s">
         <v>234</v>
       </c>
-      <c r="D117" s="26"/>
-      <c r="E117" s="26"/>
-      <c r="F117" s="26"/>
-      <c r="G117" s="26"/>
-      <c r="H117" s="26"/>
-      <c r="I117" s="26"/>
+      <c r="D117" s="27"/>
+      <c r="E117" s="27"/>
+      <c r="F117" s="27"/>
+      <c r="G117" s="27"/>
+      <c r="H117" s="27"/>
+      <c r="I117" s="27"/>
       <c r="J117" s="22"/>
       <c r="K117" s="34" t="s">
         <v>235</v>
@@ -8466,37 +8466,37 @@
         <v>206</v>
       </c>
       <c r="M117" s="22"/>
-      <c r="N117" s="26"/>
-      <c r="O117" s="26"/>
-      <c r="P117" s="26"/>
-      <c r="Q117" s="26"/>
-      <c r="R117" s="26"/>
-      <c r="S117" s="26"/>
-      <c r="T117" s="26"/>
-      <c r="U117" s="26"/>
-      <c r="V117" s="26"/>
-      <c r="W117" s="26"/>
-      <c r="X117" s="26"/>
-      <c r="Y117" s="26"/>
-      <c r="Z117" s="26"/>
-      <c r="AA117" s="26"/>
-      <c r="AB117" s="26"/>
-      <c r="AC117" s="26"/>
+      <c r="N117" s="27"/>
+      <c r="O117" s="27"/>
+      <c r="P117" s="27"/>
+      <c r="Q117" s="27"/>
+      <c r="R117" s="27"/>
+      <c r="S117" s="27"/>
+      <c r="T117" s="27"/>
+      <c r="U117" s="27"/>
+      <c r="V117" s="27"/>
+      <c r="W117" s="27"/>
+      <c r="X117" s="27"/>
+      <c r="Y117" s="27"/>
+      <c r="Z117" s="27"/>
+      <c r="AA117" s="27"/>
+      <c r="AB117" s="27"/>
+      <c r="AC117" s="27"/>
       <c r="AD117" s="22"/>
       <c r="AE117" s="22"/>
-      <c r="AF117" s="26"/>
-      <c r="AG117" s="27"/>
-      <c r="AH117" s="27"/>
-      <c r="AI117" s="27"/>
-      <c r="AJ117" s="27"/>
-      <c r="AK117" s="27"/>
-      <c r="AL117" s="27"/>
-      <c r="AM117" s="27"/>
-      <c r="AN117" s="27"/>
-      <c r="AO117" s="27"/>
-      <c r="AP117" s="27"/>
-      <c r="AQ117" s="27"/>
-      <c r="AR117" s="27"/>
+      <c r="AF117" s="27"/>
+      <c r="AG117" s="28"/>
+      <c r="AH117" s="28"/>
+      <c r="AI117" s="28"/>
+      <c r="AJ117" s="28"/>
+      <c r="AK117" s="28"/>
+      <c r="AL117" s="28"/>
+      <c r="AM117" s="28"/>
+      <c r="AN117" s="28"/>
+      <c r="AO117" s="28"/>
+      <c r="AP117" s="28"/>
+      <c r="AQ117" s="28"/>
+      <c r="AR117" s="28"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="45" t="s">
@@ -8508,51 +8508,51 @@
       <c r="C118" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="D118" s="26"/>
-      <c r="E118" s="26"/>
-      <c r="F118" s="26"/>
-      <c r="G118" s="26"/>
-      <c r="H118" s="26"/>
-      <c r="I118" s="26"/>
-      <c r="J118" s="26"/>
+      <c r="D118" s="27"/>
+      <c r="E118" s="27"/>
+      <c r="F118" s="27"/>
+      <c r="G118" s="27"/>
+      <c r="H118" s="27"/>
+      <c r="I118" s="27"/>
+      <c r="J118" s="27"/>
       <c r="K118" s="55" t="s">
         <v>238</v>
       </c>
       <c r="L118" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="M118" s="26"/>
-      <c r="N118" s="27"/>
-      <c r="O118" s="27"/>
-      <c r="P118" s="27"/>
-      <c r="Q118" s="27"/>
-      <c r="R118" s="27"/>
-      <c r="S118" s="27"/>
-      <c r="T118" s="27"/>
-      <c r="U118" s="27"/>
-      <c r="V118" s="27"/>
-      <c r="W118" s="27"/>
-      <c r="X118" s="27"/>
-      <c r="Y118" s="27"/>
-      <c r="Z118" s="26"/>
-      <c r="AA118" s="26"/>
-      <c r="AB118" s="26"/>
-      <c r="AC118" s="26"/>
-      <c r="AD118" s="26"/>
-      <c r="AE118" s="26"/>
-      <c r="AF118" s="27"/>
-      <c r="AG118" s="27"/>
-      <c r="AH118" s="27"/>
-      <c r="AI118" s="27"/>
-      <c r="AJ118" s="27"/>
-      <c r="AK118" s="27"/>
-      <c r="AL118" s="27"/>
-      <c r="AM118" s="27"/>
-      <c r="AN118" s="27"/>
-      <c r="AO118" s="27"/>
-      <c r="AP118" s="27"/>
-      <c r="AQ118" s="27"/>
-      <c r="AR118" s="27"/>
+      <c r="M118" s="27"/>
+      <c r="N118" s="28"/>
+      <c r="O118" s="28"/>
+      <c r="P118" s="28"/>
+      <c r="Q118" s="28"/>
+      <c r="R118" s="28"/>
+      <c r="S118" s="28"/>
+      <c r="T118" s="28"/>
+      <c r="U118" s="28"/>
+      <c r="V118" s="28"/>
+      <c r="W118" s="28"/>
+      <c r="X118" s="28"/>
+      <c r="Y118" s="28"/>
+      <c r="Z118" s="27"/>
+      <c r="AA118" s="27"/>
+      <c r="AB118" s="27"/>
+      <c r="AC118" s="27"/>
+      <c r="AD118" s="27"/>
+      <c r="AE118" s="27"/>
+      <c r="AF118" s="28"/>
+      <c r="AG118" s="28"/>
+      <c r="AH118" s="28"/>
+      <c r="AI118" s="28"/>
+      <c r="AJ118" s="28"/>
+      <c r="AK118" s="28"/>
+      <c r="AL118" s="28"/>
+      <c r="AM118" s="28"/>
+      <c r="AN118" s="28"/>
+      <c r="AO118" s="28"/>
+      <c r="AP118" s="28"/>
+      <c r="AQ118" s="28"/>
+      <c r="AR118" s="28"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="45" t="s">
@@ -8657,14 +8657,14 @@
       <c r="AH120" s="54"/>
       <c r="AI120" s="54"/>
       <c r="AJ120" s="54"/>
-      <c r="AK120" s="27"/>
-      <c r="AL120" s="27"/>
-      <c r="AM120" s="27"/>
-      <c r="AN120" s="27"/>
-      <c r="AO120" s="27"/>
-      <c r="AP120" s="27"/>
-      <c r="AQ120" s="27"/>
-      <c r="AR120" s="27"/>
+      <c r="AK120" s="28"/>
+      <c r="AL120" s="28"/>
+      <c r="AM120" s="28"/>
+      <c r="AN120" s="28"/>
+      <c r="AO120" s="28"/>
+      <c r="AP120" s="28"/>
+      <c r="AQ120" s="28"/>
+      <c r="AR120" s="28"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="45" t="s">
@@ -8713,14 +8713,14 @@
       <c r="AH121" s="54"/>
       <c r="AI121" s="54"/>
       <c r="AJ121" s="54"/>
-      <c r="AK121" s="27"/>
-      <c r="AL121" s="27"/>
-      <c r="AM121" s="27"/>
-      <c r="AN121" s="27"/>
-      <c r="AO121" s="27"/>
-      <c r="AP121" s="27"/>
-      <c r="AQ121" s="27"/>
-      <c r="AR121" s="27"/>
+      <c r="AK121" s="28"/>
+      <c r="AL121" s="28"/>
+      <c r="AM121" s="28"/>
+      <c r="AN121" s="28"/>
+      <c r="AO121" s="28"/>
+      <c r="AP121" s="28"/>
+      <c r="AQ121" s="28"/>
+      <c r="AR121" s="28"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="45" t="s">
@@ -8769,14 +8769,14 @@
       <c r="AH122" s="54"/>
       <c r="AI122" s="54"/>
       <c r="AJ122" s="54"/>
-      <c r="AK122" s="27"/>
-      <c r="AL122" s="27"/>
-      <c r="AM122" s="27"/>
-      <c r="AN122" s="27"/>
-      <c r="AO122" s="27"/>
-      <c r="AP122" s="27"/>
-      <c r="AQ122" s="27"/>
-      <c r="AR122" s="27"/>
+      <c r="AK122" s="28"/>
+      <c r="AL122" s="28"/>
+      <c r="AM122" s="28"/>
+      <c r="AN122" s="28"/>
+      <c r="AO122" s="28"/>
+      <c r="AP122" s="28"/>
+      <c r="AQ122" s="28"/>
+      <c r="AR122" s="28"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="45" t="s">
@@ -8825,14 +8825,14 @@
       <c r="AH123" s="54"/>
       <c r="AI123" s="54"/>
       <c r="AJ123" s="54"/>
-      <c r="AK123" s="27"/>
-      <c r="AL123" s="27"/>
-      <c r="AM123" s="27"/>
-      <c r="AN123" s="27"/>
-      <c r="AO123" s="27"/>
-      <c r="AP123" s="27"/>
-      <c r="AQ123" s="27"/>
-      <c r="AR123" s="27"/>
+      <c r="AK123" s="28"/>
+      <c r="AL123" s="28"/>
+      <c r="AM123" s="28"/>
+      <c r="AN123" s="28"/>
+      <c r="AO123" s="28"/>
+      <c r="AP123" s="28"/>
+      <c r="AQ123" s="28"/>
+      <c r="AR123" s="28"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="45" t="s">
@@ -8881,14 +8881,14 @@
       <c r="AH124" s="54"/>
       <c r="AI124" s="54"/>
       <c r="AJ124" s="54"/>
-      <c r="AK124" s="27"/>
-      <c r="AL124" s="27"/>
-      <c r="AM124" s="27"/>
-      <c r="AN124" s="27"/>
-      <c r="AO124" s="27"/>
-      <c r="AP124" s="27"/>
-      <c r="AQ124" s="27"/>
-      <c r="AR124" s="27"/>
+      <c r="AK124" s="28"/>
+      <c r="AL124" s="28"/>
+      <c r="AM124" s="28"/>
+      <c r="AN124" s="28"/>
+      <c r="AO124" s="28"/>
+      <c r="AP124" s="28"/>
+      <c r="AQ124" s="28"/>
+      <c r="AR124" s="28"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="45" t="s">
@@ -8937,14 +8937,14 @@
       <c r="AH125" s="54"/>
       <c r="AI125" s="54"/>
       <c r="AJ125" s="54"/>
-      <c r="AK125" s="27"/>
-      <c r="AL125" s="27"/>
-      <c r="AM125" s="27"/>
-      <c r="AN125" s="27"/>
-      <c r="AO125" s="27"/>
-      <c r="AP125" s="27"/>
-      <c r="AQ125" s="27"/>
-      <c r="AR125" s="27"/>
+      <c r="AK125" s="28"/>
+      <c r="AL125" s="28"/>
+      <c r="AM125" s="28"/>
+      <c r="AN125" s="28"/>
+      <c r="AO125" s="28"/>
+      <c r="AP125" s="28"/>
+      <c r="AQ125" s="28"/>
+      <c r="AR125" s="28"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="45" t="s">
@@ -8993,14 +8993,14 @@
       <c r="AH126" s="54"/>
       <c r="AI126" s="54"/>
       <c r="AJ126" s="54"/>
-      <c r="AK126" s="27"/>
-      <c r="AL126" s="27"/>
-      <c r="AM126" s="27"/>
-      <c r="AN126" s="27"/>
-      <c r="AO126" s="27"/>
-      <c r="AP126" s="27"/>
-      <c r="AQ126" s="27"/>
-      <c r="AR126" s="27"/>
+      <c r="AK126" s="28"/>
+      <c r="AL126" s="28"/>
+      <c r="AM126" s="28"/>
+      <c r="AN126" s="28"/>
+      <c r="AO126" s="28"/>
+      <c r="AP126" s="28"/>
+      <c r="AQ126" s="28"/>
+      <c r="AR126" s="28"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="45" t="s">
@@ -9049,14 +9049,14 @@
       <c r="AH127" s="54"/>
       <c r="AI127" s="54"/>
       <c r="AJ127" s="54"/>
-      <c r="AK127" s="27"/>
-      <c r="AL127" s="27"/>
-      <c r="AM127" s="27"/>
-      <c r="AN127" s="27"/>
-      <c r="AO127" s="27"/>
-      <c r="AP127" s="27"/>
-      <c r="AQ127" s="27"/>
-      <c r="AR127" s="27"/>
+      <c r="AK127" s="28"/>
+      <c r="AL127" s="28"/>
+      <c r="AM127" s="28"/>
+      <c r="AN127" s="28"/>
+      <c r="AO127" s="28"/>
+      <c r="AP127" s="28"/>
+      <c r="AQ127" s="28"/>
+      <c r="AR127" s="28"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="45" t="s">
@@ -9105,14 +9105,14 @@
       <c r="AH128" s="54"/>
       <c r="AI128" s="54"/>
       <c r="AJ128" s="54"/>
-      <c r="AK128" s="27"/>
-      <c r="AL128" s="27"/>
-      <c r="AM128" s="27"/>
-      <c r="AN128" s="27"/>
-      <c r="AO128" s="27"/>
-      <c r="AP128" s="27"/>
-      <c r="AQ128" s="27"/>
-      <c r="AR128" s="27"/>
+      <c r="AK128" s="28"/>
+      <c r="AL128" s="28"/>
+      <c r="AM128" s="28"/>
+      <c r="AN128" s="28"/>
+      <c r="AO128" s="28"/>
+      <c r="AP128" s="28"/>
+      <c r="AQ128" s="28"/>
+      <c r="AR128" s="28"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="45" t="s">
@@ -9161,14 +9161,14 @@
       <c r="AH129" s="54"/>
       <c r="AI129" s="54"/>
       <c r="AJ129" s="54"/>
-      <c r="AK129" s="27"/>
-      <c r="AL129" s="27"/>
-      <c r="AM129" s="27"/>
-      <c r="AN129" s="27"/>
-      <c r="AO129" s="27"/>
-      <c r="AP129" s="27"/>
-      <c r="AQ129" s="27"/>
-      <c r="AR129" s="27"/>
+      <c r="AK129" s="28"/>
+      <c r="AL129" s="28"/>
+      <c r="AM129" s="28"/>
+      <c r="AN129" s="28"/>
+      <c r="AO129" s="28"/>
+      <c r="AP129" s="28"/>
+      <c r="AQ129" s="28"/>
+      <c r="AR129" s="28"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="45" t="s">
@@ -9180,51 +9180,51 @@
       <c r="C130" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="D130" s="26"/>
-      <c r="E130" s="26"/>
-      <c r="F130" s="26"/>
-      <c r="G130" s="26"/>
-      <c r="H130" s="26"/>
-      <c r="I130" s="26"/>
-      <c r="J130" s="26"/>
+      <c r="D130" s="27"/>
+      <c r="E130" s="27"/>
+      <c r="F130" s="27"/>
+      <c r="G130" s="27"/>
+      <c r="H130" s="27"/>
+      <c r="I130" s="27"/>
+      <c r="J130" s="27"/>
       <c r="K130" s="55" t="s">
         <v>274</v>
       </c>
       <c r="L130" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="M130" s="26"/>
-      <c r="N130" s="27"/>
-      <c r="O130" s="27"/>
-      <c r="P130" s="27"/>
-      <c r="Q130" s="27"/>
-      <c r="R130" s="27"/>
-      <c r="S130" s="27"/>
-      <c r="T130" s="27"/>
-      <c r="U130" s="27"/>
-      <c r="V130" s="27"/>
-      <c r="W130" s="27"/>
-      <c r="X130" s="27"/>
-      <c r="Y130" s="27"/>
-      <c r="Z130" s="26"/>
-      <c r="AA130" s="26"/>
-      <c r="AB130" s="26"/>
-      <c r="AC130" s="26"/>
-      <c r="AD130" s="26"/>
-      <c r="AE130" s="26"/>
-      <c r="AF130" s="27"/>
-      <c r="AG130" s="27"/>
-      <c r="AH130" s="27"/>
-      <c r="AI130" s="27"/>
-      <c r="AJ130" s="27"/>
-      <c r="AK130" s="27"/>
-      <c r="AL130" s="27"/>
-      <c r="AM130" s="27"/>
-      <c r="AN130" s="27"/>
-      <c r="AO130" s="27"/>
-      <c r="AP130" s="27"/>
-      <c r="AQ130" s="27"/>
-      <c r="AR130" s="27"/>
+      <c r="M130" s="27"/>
+      <c r="N130" s="28"/>
+      <c r="O130" s="28"/>
+      <c r="P130" s="28"/>
+      <c r="Q130" s="28"/>
+      <c r="R130" s="28"/>
+      <c r="S130" s="28"/>
+      <c r="T130" s="28"/>
+      <c r="U130" s="28"/>
+      <c r="V130" s="28"/>
+      <c r="W130" s="28"/>
+      <c r="X130" s="28"/>
+      <c r="Y130" s="28"/>
+      <c r="Z130" s="27"/>
+      <c r="AA130" s="27"/>
+      <c r="AB130" s="27"/>
+      <c r="AC130" s="27"/>
+      <c r="AD130" s="27"/>
+      <c r="AE130" s="27"/>
+      <c r="AF130" s="28"/>
+      <c r="AG130" s="28"/>
+      <c r="AH130" s="28"/>
+      <c r="AI130" s="28"/>
+      <c r="AJ130" s="28"/>
+      <c r="AK130" s="28"/>
+      <c r="AL130" s="28"/>
+      <c r="AM130" s="28"/>
+      <c r="AN130" s="28"/>
+      <c r="AO130" s="28"/>
+      <c r="AP130" s="28"/>
+      <c r="AQ130" s="28"/>
+      <c r="AR130" s="28"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="45" t="s">
@@ -9273,14 +9273,14 @@
       <c r="AH131" s="54"/>
       <c r="AI131" s="54"/>
       <c r="AJ131" s="54"/>
-      <c r="AK131" s="27"/>
-      <c r="AL131" s="27"/>
-      <c r="AM131" s="27"/>
-      <c r="AN131" s="27"/>
-      <c r="AO131" s="27"/>
-      <c r="AP131" s="27"/>
-      <c r="AQ131" s="27"/>
-      <c r="AR131" s="27"/>
+      <c r="AK131" s="28"/>
+      <c r="AL131" s="28"/>
+      <c r="AM131" s="28"/>
+      <c r="AN131" s="28"/>
+      <c r="AO131" s="28"/>
+      <c r="AP131" s="28"/>
+      <c r="AQ131" s="28"/>
+      <c r="AR131" s="28"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="45" t="s">
@@ -9329,14 +9329,14 @@
       <c r="AH132" s="54"/>
       <c r="AI132" s="54"/>
       <c r="AJ132" s="54"/>
-      <c r="AK132" s="27"/>
-      <c r="AL132" s="27"/>
-      <c r="AM132" s="27"/>
-      <c r="AN132" s="27"/>
-      <c r="AO132" s="27"/>
-      <c r="AP132" s="27"/>
-      <c r="AQ132" s="27"/>
-      <c r="AR132" s="27"/>
+      <c r="AK132" s="28"/>
+      <c r="AL132" s="28"/>
+      <c r="AM132" s="28"/>
+      <c r="AN132" s="28"/>
+      <c r="AO132" s="28"/>
+      <c r="AP132" s="28"/>
+      <c r="AQ132" s="28"/>
+      <c r="AR132" s="28"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="45" t="s">
@@ -9348,51 +9348,51 @@
       <c r="C133" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="D133" s="26"/>
-      <c r="E133" s="26"/>
-      <c r="F133" s="26"/>
-      <c r="G133" s="26"/>
-      <c r="H133" s="26"/>
-      <c r="I133" s="26"/>
-      <c r="J133" s="26"/>
+      <c r="D133" s="27"/>
+      <c r="E133" s="27"/>
+      <c r="F133" s="27"/>
+      <c r="G133" s="27"/>
+      <c r="H133" s="27"/>
+      <c r="I133" s="27"/>
+      <c r="J133" s="27"/>
       <c r="K133" s="55" t="s">
         <v>282</v>
       </c>
       <c r="L133" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="M133" s="26"/>
-      <c r="N133" s="27"/>
-      <c r="O133" s="27"/>
-      <c r="P133" s="27"/>
-      <c r="Q133" s="27"/>
-      <c r="R133" s="27"/>
-      <c r="S133" s="27"/>
-      <c r="T133" s="27"/>
-      <c r="U133" s="27"/>
-      <c r="V133" s="27"/>
-      <c r="W133" s="27"/>
-      <c r="X133" s="27"/>
-      <c r="Y133" s="27"/>
-      <c r="Z133" s="26"/>
-      <c r="AA133" s="26"/>
-      <c r="AB133" s="26"/>
-      <c r="AC133" s="26"/>
-      <c r="AD133" s="26"/>
-      <c r="AE133" s="26"/>
-      <c r="AF133" s="27"/>
-      <c r="AG133" s="27"/>
-      <c r="AH133" s="27"/>
-      <c r="AI133" s="27"/>
-      <c r="AJ133" s="27"/>
-      <c r="AK133" s="27"/>
-      <c r="AL133" s="27"/>
-      <c r="AM133" s="27"/>
-      <c r="AN133" s="27"/>
-      <c r="AO133" s="27"/>
-      <c r="AP133" s="27"/>
-      <c r="AQ133" s="27"/>
-      <c r="AR133" s="27"/>
+      <c r="M133" s="27"/>
+      <c r="N133" s="28"/>
+      <c r="O133" s="28"/>
+      <c r="P133" s="28"/>
+      <c r="Q133" s="28"/>
+      <c r="R133" s="28"/>
+      <c r="S133" s="28"/>
+      <c r="T133" s="28"/>
+      <c r="U133" s="28"/>
+      <c r="V133" s="28"/>
+      <c r="W133" s="28"/>
+      <c r="X133" s="28"/>
+      <c r="Y133" s="28"/>
+      <c r="Z133" s="27"/>
+      <c r="AA133" s="27"/>
+      <c r="AB133" s="27"/>
+      <c r="AC133" s="27"/>
+      <c r="AD133" s="27"/>
+      <c r="AE133" s="27"/>
+      <c r="AF133" s="28"/>
+      <c r="AG133" s="28"/>
+      <c r="AH133" s="28"/>
+      <c r="AI133" s="28"/>
+      <c r="AJ133" s="28"/>
+      <c r="AK133" s="28"/>
+      <c r="AL133" s="28"/>
+      <c r="AM133" s="28"/>
+      <c r="AN133" s="28"/>
+      <c r="AO133" s="28"/>
+      <c r="AP133" s="28"/>
+      <c r="AQ133" s="28"/>
+      <c r="AR133" s="28"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="45" t="s">
@@ -9458,49 +9458,49 @@
       <c r="C135" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="D135" s="26"/>
-      <c r="E135" s="26"/>
-      <c r="F135" s="26"/>
-      <c r="G135" s="26"/>
-      <c r="H135" s="26"/>
-      <c r="I135" s="26"/>
-      <c r="J135" s="26"/>
+      <c r="D135" s="27"/>
+      <c r="E135" s="27"/>
+      <c r="F135" s="27"/>
+      <c r="G135" s="27"/>
+      <c r="H135" s="27"/>
+      <c r="I135" s="27"/>
+      <c r="J135" s="27"/>
       <c r="K135" s="57"/>
       <c r="L135" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="M135" s="26"/>
-      <c r="N135" s="27"/>
-      <c r="O135" s="27"/>
-      <c r="P135" s="27"/>
-      <c r="Q135" s="27"/>
-      <c r="R135" s="27"/>
-      <c r="S135" s="27"/>
-      <c r="T135" s="27"/>
-      <c r="U135" s="27"/>
-      <c r="V135" s="27"/>
-      <c r="W135" s="27"/>
-      <c r="X135" s="27"/>
-      <c r="Y135" s="27"/>
-      <c r="Z135" s="26"/>
-      <c r="AA135" s="26"/>
-      <c r="AB135" s="26"/>
-      <c r="AC135" s="26"/>
-      <c r="AD135" s="26"/>
-      <c r="AE135" s="26"/>
-      <c r="AF135" s="27"/>
-      <c r="AG135" s="27"/>
-      <c r="AH135" s="27"/>
-      <c r="AI135" s="27"/>
-      <c r="AJ135" s="27"/>
-      <c r="AK135" s="27"/>
-      <c r="AL135" s="27"/>
-      <c r="AM135" s="27"/>
-      <c r="AN135" s="27"/>
-      <c r="AO135" s="27"/>
-      <c r="AP135" s="27"/>
-      <c r="AQ135" s="27"/>
-      <c r="AR135" s="27"/>
+      <c r="M135" s="27"/>
+      <c r="N135" s="28"/>
+      <c r="O135" s="28"/>
+      <c r="P135" s="28"/>
+      <c r="Q135" s="28"/>
+      <c r="R135" s="28"/>
+      <c r="S135" s="28"/>
+      <c r="T135" s="28"/>
+      <c r="U135" s="28"/>
+      <c r="V135" s="28"/>
+      <c r="W135" s="28"/>
+      <c r="X135" s="28"/>
+      <c r="Y135" s="28"/>
+      <c r="Z135" s="27"/>
+      <c r="AA135" s="27"/>
+      <c r="AB135" s="27"/>
+      <c r="AC135" s="27"/>
+      <c r="AD135" s="27"/>
+      <c r="AE135" s="27"/>
+      <c r="AF135" s="28"/>
+      <c r="AG135" s="28"/>
+      <c r="AH135" s="28"/>
+      <c r="AI135" s="28"/>
+      <c r="AJ135" s="28"/>
+      <c r="AK135" s="28"/>
+      <c r="AL135" s="28"/>
+      <c r="AM135" s="28"/>
+      <c r="AN135" s="28"/>
+      <c r="AO135" s="28"/>
+      <c r="AP135" s="28"/>
+      <c r="AQ135" s="28"/>
+      <c r="AR135" s="28"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="45" t="s">
@@ -51315,7 +51315,7 @@
       </c>
       <c r="C2" s="79">
         <f>NOW()</f>
-        <v>45082.87983</v>
+        <v>45091.13327</v>
       </c>
       <c r="D2" s="80" t="s">
         <v>400</v>
